--- a/Documents/Glossary.xlsx
+++ b/Documents/Glossary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inesc\Desktop\Projetos Git\DuckSquad\DuckSoftWorks\LanguageDetectionPrototype\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\UpSkill\LABPROG\Sprint 1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D434FE-C28D-470B-A150-CD1E36DA58C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C2771-346B-49D2-A9BA-48F04701B394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +295,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -479,6 +485,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,23 +747,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="103.85546875" customWidth="1"/>
-    <col min="5" max="25" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="103.88671875" customWidth="1"/>
+    <col min="5" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -774,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
         <v>5</v>
@@ -783,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
         <v>7</v>
@@ -792,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>9</v>
@@ -801,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>11</v>
@@ -810,7 +819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="13" t="s">
         <v>13</v>
@@ -819,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="13" t="s">
         <v>15</v>
@@ -828,7 +837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
         <v>17</v>
@@ -837,7 +846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -846,7 +855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
         <v>21</v>
@@ -855,7 +864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
         <v>23</v>
@@ -864,7 +873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -873,7 +882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
         <v>27</v>
@@ -882,7 +891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
         <v>29</v>
@@ -891,7 +900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
@@ -902,7 +911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="9" t="s">
         <v>34</v>
@@ -911,7 +920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
         <v>36</v>
@@ -920,16 +929,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="13" t="s">
         <v>40</v>
@@ -938,7 +947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="9" t="s">
         <v>42</v>
@@ -947,7 +956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
         <v>44</v>
@@ -956,7 +965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
@@ -967,7 +976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
@@ -978,7 +987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="9" t="s">
         <v>52</v>
@@ -987,7 +996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="9" t="s">
         <v>54</v>
@@ -996,7 +1005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>56</v>
       </c>
@@ -1007,7 +1016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="9" t="s">
         <v>59</v>
@@ -1016,7 +1025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
         <v>61</v>
@@ -1025,7 +1034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
         <v>63</v>
@@ -1034,7 +1043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>65</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
         <v>68</v>
@@ -1054,7 +1063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>70</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
         <v>73</v>
@@ -1074,4871 +1083,4871 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88" s="18"/>
       <c r="C88" s="19"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="18"/>
       <c r="C89" s="19"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B94" s="18"/>
       <c r="C94" s="19"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B95" s="18"/>
       <c r="C95" s="19"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B96" s="18"/>
       <c r="C96" s="19"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B98" s="18"/>
       <c r="C98" s="19"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B99" s="18"/>
       <c r="C99" s="19"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B102" s="18"/>
       <c r="C102" s="19"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B103" s="18"/>
       <c r="C103" s="19"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B104" s="18"/>
       <c r="C104" s="19"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B105" s="18"/>
       <c r="C105" s="19"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B109" s="18"/>
       <c r="C109" s="19"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B110" s="18"/>
       <c r="C110" s="19"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B111" s="18"/>
       <c r="C111" s="19"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B116" s="18"/>
       <c r="C116" s="19"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B117" s="18"/>
       <c r="C117" s="19"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B118" s="18"/>
       <c r="C118" s="19"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B122" s="18"/>
       <c r="C122" s="19"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="19"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="19"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="19"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="19"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B130" s="18"/>
       <c r="C130" s="19"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B131" s="18"/>
       <c r="C131" s="19"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B132" s="18"/>
       <c r="C132" s="19"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B133" s="18"/>
       <c r="C133" s="19"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B134" s="18"/>
       <c r="C134" s="19"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B135" s="18"/>
       <c r="C135" s="19"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B137" s="18"/>
       <c r="C137" s="19"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B138" s="18"/>
       <c r="C138" s="19"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B142" s="18"/>
       <c r="C142" s="19"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B143" s="18"/>
       <c r="C143" s="19"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B144" s="18"/>
       <c r="C144" s="19"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B145" s="18"/>
       <c r="C145" s="19"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B151" s="18"/>
       <c r="C151" s="19"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B152" s="18"/>
       <c r="C152" s="19"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B153" s="18"/>
       <c r="C153" s="19"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B154" s="18"/>
       <c r="C154" s="19"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B155" s="18"/>
       <c r="C155" s="19"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B158" s="18"/>
       <c r="C158" s="19"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B159" s="18"/>
       <c r="C159" s="19"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B162" s="18"/>
       <c r="C162" s="19"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B163" s="18"/>
       <c r="C163" s="19"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B165" s="18"/>
       <c r="C165" s="19"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B166" s="18"/>
       <c r="C166" s="19"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B169" s="18"/>
       <c r="C169" s="19"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B172" s="18"/>
       <c r="C172" s="19"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B173" s="18"/>
       <c r="C173" s="19"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B175" s="18"/>
       <c r="C175" s="19"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B179" s="18"/>
       <c r="C179" s="19"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B180" s="18"/>
       <c r="C180" s="19"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B182" s="18"/>
       <c r="C182" s="19"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B183" s="18"/>
       <c r="C183" s="19"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B184" s="18"/>
       <c r="C184" s="19"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B185" s="18"/>
       <c r="C185" s="19"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B186" s="18"/>
       <c r="C186" s="19"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B187" s="18"/>
       <c r="C187" s="19"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B188" s="18"/>
       <c r="C188" s="19"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B189" s="18"/>
       <c r="C189" s="19"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B190" s="18"/>
       <c r="C190" s="19"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B191" s="18"/>
       <c r="C191" s="19"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B192" s="18"/>
       <c r="C192" s="19"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B193" s="18"/>
       <c r="C193" s="19"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B194" s="18"/>
       <c r="C194" s="19"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B195" s="18"/>
       <c r="C195" s="19"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B196" s="18"/>
       <c r="C196" s="19"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B197" s="18"/>
       <c r="C197" s="19"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B198" s="18"/>
       <c r="C198" s="19"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B199" s="18"/>
       <c r="C199" s="19"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B200" s="18"/>
       <c r="C200" s="19"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B201" s="18"/>
       <c r="C201" s="19"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B202" s="18"/>
       <c r="C202" s="19"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B203" s="18"/>
       <c r="C203" s="19"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B204" s="18"/>
       <c r="C204" s="19"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B205" s="18"/>
       <c r="C205" s="19"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B206" s="18"/>
       <c r="C206" s="19"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B207" s="18"/>
       <c r="C207" s="19"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B208" s="18"/>
       <c r="C208" s="19"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B209" s="18"/>
       <c r="C209" s="19"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B210" s="18"/>
       <c r="C210" s="19"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B211" s="18"/>
       <c r="C211" s="19"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B212" s="18"/>
       <c r="C212" s="19"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B213" s="18"/>
       <c r="C213" s="19"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B214" s="18"/>
       <c r="C214" s="19"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B215" s="18"/>
       <c r="C215" s="19"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B216" s="18"/>
       <c r="C216" s="19"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B217" s="18"/>
       <c r="C217" s="19"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B218" s="18"/>
       <c r="C218" s="19"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B219" s="18"/>
       <c r="C219" s="19"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B220" s="18"/>
       <c r="C220" s="19"/>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B221" s="18"/>
       <c r="C221" s="19"/>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B222" s="18"/>
       <c r="C222" s="19"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B223" s="18"/>
       <c r="C223" s="19"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B224" s="18"/>
       <c r="C224" s="19"/>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B225" s="18"/>
       <c r="C225" s="19"/>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B226" s="18"/>
       <c r="C226" s="19"/>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B227" s="18"/>
       <c r="C227" s="19"/>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B228" s="18"/>
       <c r="C228" s="19"/>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B229" s="18"/>
       <c r="C229" s="19"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B230" s="18"/>
       <c r="C230" s="19"/>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B231" s="18"/>
       <c r="C231" s="19"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B232" s="18"/>
       <c r="C232" s="19"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B233" s="18"/>
       <c r="C233" s="19"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B234" s="18"/>
       <c r="C234" s="19"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B235" s="18"/>
       <c r="C235" s="19"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B236" s="18"/>
       <c r="C236" s="19"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B237" s="18"/>
       <c r="C237" s="19"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B238" s="18"/>
       <c r="C238" s="19"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B239" s="18"/>
       <c r="C239" s="19"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B240" s="18"/>
       <c r="C240" s="19"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B241" s="18"/>
       <c r="C241" s="19"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B242" s="18"/>
       <c r="C242" s="19"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B243" s="18"/>
       <c r="C243" s="19"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B244" s="18"/>
       <c r="C244" s="19"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B245" s="18"/>
       <c r="C245" s="19"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B246" s="18"/>
       <c r="C246" s="19"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B247" s="18"/>
       <c r="C247" s="19"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B248" s="18"/>
       <c r="C248" s="19"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B249" s="18"/>
       <c r="C249" s="19"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B250" s="18"/>
       <c r="C250" s="19"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B251" s="18"/>
       <c r="C251" s="19"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B252" s="18"/>
       <c r="C252" s="19"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B253" s="18"/>
       <c r="C253" s="19"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B254" s="18"/>
       <c r="C254" s="19"/>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B255" s="18"/>
       <c r="C255" s="19"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B256" s="18"/>
       <c r="C256" s="19"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B257" s="18"/>
       <c r="C257" s="19"/>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B258" s="18"/>
       <c r="C258" s="19"/>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B259" s="18"/>
       <c r="C259" s="19"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B260" s="18"/>
       <c r="C260" s="19"/>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B261" s="18"/>
       <c r="C261" s="19"/>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B262" s="18"/>
       <c r="C262" s="19"/>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B263" s="18"/>
       <c r="C263" s="19"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B264" s="18"/>
       <c r="C264" s="19"/>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B265" s="18"/>
       <c r="C265" s="19"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B266" s="18"/>
       <c r="C266" s="19"/>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B267" s="18"/>
       <c r="C267" s="19"/>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B268" s="18"/>
       <c r="C268" s="19"/>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B269" s="18"/>
       <c r="C269" s="19"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B270" s="18"/>
       <c r="C270" s="19"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B271" s="18"/>
       <c r="C271" s="19"/>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B272" s="18"/>
       <c r="C272" s="19"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B273" s="18"/>
       <c r="C273" s="19"/>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B274" s="18"/>
       <c r="C274" s="19"/>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B275" s="18"/>
       <c r="C275" s="19"/>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B276" s="18"/>
       <c r="C276" s="19"/>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B277" s="18"/>
       <c r="C277" s="19"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B278" s="18"/>
       <c r="C278" s="19"/>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B279" s="18"/>
       <c r="C279" s="19"/>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B280" s="18"/>
       <c r="C280" s="19"/>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B281" s="18"/>
       <c r="C281" s="19"/>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B282" s="18"/>
       <c r="C282" s="19"/>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B283" s="18"/>
       <c r="C283" s="19"/>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B284" s="18"/>
       <c r="C284" s="19"/>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B285" s="18"/>
       <c r="C285" s="19"/>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B286" s="18"/>
       <c r="C286" s="19"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B287" s="18"/>
       <c r="C287" s="19"/>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B288" s="18"/>
       <c r="C288" s="19"/>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B289" s="18"/>
       <c r="C289" s="19"/>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B290" s="18"/>
       <c r="C290" s="19"/>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B291" s="18"/>
       <c r="C291" s="19"/>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B292" s="18"/>
       <c r="C292" s="19"/>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B293" s="18"/>
       <c r="C293" s="19"/>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B294" s="18"/>
       <c r="C294" s="19"/>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B295" s="18"/>
       <c r="C295" s="19"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B296" s="18"/>
       <c r="C296" s="19"/>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B297" s="18"/>
       <c r="C297" s="19"/>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B298" s="18"/>
       <c r="C298" s="19"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B299" s="18"/>
       <c r="C299" s="19"/>
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B300" s="18"/>
       <c r="C300" s="19"/>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B301" s="18"/>
       <c r="C301" s="19"/>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B302" s="18"/>
       <c r="C302" s="19"/>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B303" s="18"/>
       <c r="C303" s="19"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B304" s="18"/>
       <c r="C304" s="19"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B305" s="18"/>
       <c r="C305" s="19"/>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B306" s="18"/>
       <c r="C306" s="19"/>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B307" s="18"/>
       <c r="C307" s="19"/>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B308" s="18"/>
       <c r="C308" s="19"/>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B309" s="18"/>
       <c r="C309" s="19"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B310" s="18"/>
       <c r="C310" s="19"/>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B311" s="18"/>
       <c r="C311" s="19"/>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B312" s="18"/>
       <c r="C312" s="19"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B313" s="18"/>
       <c r="C313" s="19"/>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B314" s="18"/>
       <c r="C314" s="19"/>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B315" s="18"/>
       <c r="C315" s="19"/>
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B316" s="18"/>
       <c r="C316" s="19"/>
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B317" s="18"/>
       <c r="C317" s="19"/>
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B318" s="18"/>
       <c r="C318" s="19"/>
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B319" s="18"/>
       <c r="C319" s="19"/>
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B320" s="18"/>
       <c r="C320" s="19"/>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B321" s="18"/>
       <c r="C321" s="19"/>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B322" s="18"/>
       <c r="C322" s="19"/>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B323" s="18"/>
       <c r="C323" s="19"/>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B324" s="18"/>
       <c r="C324" s="19"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B325" s="18"/>
       <c r="C325" s="19"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B326" s="18"/>
       <c r="C326" s="19"/>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B327" s="18"/>
       <c r="C327" s="19"/>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B328" s="18"/>
       <c r="C328" s="19"/>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B329" s="18"/>
       <c r="C329" s="19"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B330" s="18"/>
       <c r="C330" s="19"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B331" s="18"/>
       <c r="C331" s="19"/>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B332" s="18"/>
       <c r="C332" s="19"/>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B333" s="18"/>
       <c r="C333" s="19"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B334" s="18"/>
       <c r="C334" s="19"/>
       <c r="D334" s="1"/>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B335" s="18"/>
       <c r="C335" s="19"/>
       <c r="D335" s="1"/>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B336" s="18"/>
       <c r="C336" s="19"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B337" s="18"/>
       <c r="C337" s="19"/>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B338" s="18"/>
       <c r="C338" s="19"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B339" s="18"/>
       <c r="C339" s="19"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B340" s="18"/>
       <c r="C340" s="19"/>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B341" s="18"/>
       <c r="C341" s="19"/>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B342" s="18"/>
       <c r="C342" s="19"/>
       <c r="D342" s="1"/>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B343" s="18"/>
       <c r="C343" s="19"/>
       <c r="D343" s="1"/>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B344" s="18"/>
       <c r="C344" s="19"/>
       <c r="D344" s="1"/>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B345" s="18"/>
       <c r="C345" s="19"/>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B346" s="18"/>
       <c r="C346" s="19"/>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B347" s="18"/>
       <c r="C347" s="19"/>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B348" s="18"/>
       <c r="C348" s="19"/>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B349" s="18"/>
       <c r="C349" s="19"/>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B350" s="18"/>
       <c r="C350" s="19"/>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B351" s="18"/>
       <c r="C351" s="19"/>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B352" s="18"/>
       <c r="C352" s="19"/>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B353" s="18"/>
       <c r="C353" s="19"/>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B354" s="18"/>
       <c r="C354" s="19"/>
       <c r="D354" s="1"/>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B355" s="18"/>
       <c r="C355" s="19"/>
       <c r="D355" s="1"/>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B356" s="18"/>
       <c r="C356" s="19"/>
       <c r="D356" s="1"/>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B357" s="18"/>
       <c r="C357" s="19"/>
       <c r="D357" s="1"/>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B358" s="18"/>
       <c r="C358" s="19"/>
       <c r="D358" s="1"/>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B359" s="18"/>
       <c r="C359" s="19"/>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B360" s="18"/>
       <c r="C360" s="19"/>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B361" s="18"/>
       <c r="C361" s="19"/>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B362" s="18"/>
       <c r="C362" s="19"/>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B363" s="18"/>
       <c r="C363" s="19"/>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B364" s="18"/>
       <c r="C364" s="19"/>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B365" s="18"/>
       <c r="C365" s="19"/>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B366" s="18"/>
       <c r="C366" s="19"/>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B367" s="18"/>
       <c r="C367" s="19"/>
       <c r="D367" s="1"/>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B368" s="18"/>
       <c r="C368" s="19"/>
       <c r="D368" s="1"/>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B369" s="18"/>
       <c r="C369" s="19"/>
       <c r="D369" s="1"/>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B370" s="18"/>
       <c r="C370" s="19"/>
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B371" s="18"/>
       <c r="C371" s="19"/>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B372" s="18"/>
       <c r="C372" s="19"/>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B373" s="18"/>
       <c r="C373" s="19"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B374" s="18"/>
       <c r="C374" s="19"/>
       <c r="D374" s="1"/>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B375" s="18"/>
       <c r="C375" s="19"/>
       <c r="D375" s="1"/>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B376" s="18"/>
       <c r="C376" s="19"/>
       <c r="D376" s="1"/>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B377" s="18"/>
       <c r="C377" s="19"/>
       <c r="D377" s="1"/>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B378" s="18"/>
       <c r="C378" s="19"/>
       <c r="D378" s="1"/>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B379" s="18"/>
       <c r="C379" s="19"/>
       <c r="D379" s="1"/>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B380" s="18"/>
       <c r="C380" s="19"/>
       <c r="D380" s="1"/>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B381" s="18"/>
       <c r="C381" s="19"/>
       <c r="D381" s="1"/>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B382" s="18"/>
       <c r="C382" s="19"/>
       <c r="D382" s="1"/>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B383" s="18"/>
       <c r="C383" s="19"/>
       <c r="D383" s="1"/>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B384" s="18"/>
       <c r="C384" s="19"/>
       <c r="D384" s="1"/>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B385" s="18"/>
       <c r="C385" s="19"/>
       <c r="D385" s="1"/>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B386" s="18"/>
       <c r="C386" s="19"/>
       <c r="D386" s="1"/>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B387" s="18"/>
       <c r="C387" s="19"/>
       <c r="D387" s="1"/>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B388" s="18"/>
       <c r="C388" s="19"/>
       <c r="D388" s="1"/>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B389" s="18"/>
       <c r="C389" s="19"/>
       <c r="D389" s="1"/>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B390" s="18"/>
       <c r="C390" s="19"/>
       <c r="D390" s="1"/>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B391" s="18"/>
       <c r="C391" s="19"/>
       <c r="D391" s="1"/>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B392" s="18"/>
       <c r="C392" s="19"/>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B393" s="18"/>
       <c r="C393" s="19"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B394" s="18"/>
       <c r="C394" s="19"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B395" s="18"/>
       <c r="C395" s="19"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B396" s="18"/>
       <c r="C396" s="19"/>
       <c r="D396" s="1"/>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B397" s="18"/>
       <c r="C397" s="19"/>
       <c r="D397" s="1"/>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B398" s="18"/>
       <c r="C398" s="19"/>
       <c r="D398" s="1"/>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B399" s="18"/>
       <c r="C399" s="19"/>
       <c r="D399" s="1"/>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B400" s="18"/>
       <c r="C400" s="19"/>
       <c r="D400" s="1"/>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B401" s="18"/>
       <c r="C401" s="19"/>
       <c r="D401" s="1"/>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B402" s="18"/>
       <c r="C402" s="19"/>
       <c r="D402" s="1"/>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B403" s="18"/>
       <c r="C403" s="19"/>
       <c r="D403" s="1"/>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B404" s="18"/>
       <c r="C404" s="19"/>
       <c r="D404" s="1"/>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B405" s="18"/>
       <c r="C405" s="19"/>
       <c r="D405" s="1"/>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B406" s="18"/>
       <c r="C406" s="19"/>
       <c r="D406" s="1"/>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B407" s="18"/>
       <c r="C407" s="19"/>
       <c r="D407" s="1"/>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B408" s="18"/>
       <c r="C408" s="19"/>
       <c r="D408" s="1"/>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B409" s="18"/>
       <c r="C409" s="19"/>
       <c r="D409" s="1"/>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B410" s="18"/>
       <c r="C410" s="19"/>
       <c r="D410" s="1"/>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B411" s="18"/>
       <c r="C411" s="19"/>
       <c r="D411" s="1"/>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B412" s="18"/>
       <c r="C412" s="19"/>
       <c r="D412" s="1"/>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B413" s="18"/>
       <c r="C413" s="19"/>
       <c r="D413" s="1"/>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B414" s="18"/>
       <c r="C414" s="19"/>
       <c r="D414" s="1"/>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B415" s="18"/>
       <c r="C415" s="19"/>
       <c r="D415" s="1"/>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B416" s="18"/>
       <c r="C416" s="19"/>
       <c r="D416" s="1"/>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B417" s="18"/>
       <c r="C417" s="19"/>
       <c r="D417" s="1"/>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B418" s="18"/>
       <c r="C418" s="19"/>
       <c r="D418" s="1"/>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B419" s="18"/>
       <c r="C419" s="19"/>
       <c r="D419" s="1"/>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B420" s="18"/>
       <c r="C420" s="19"/>
       <c r="D420" s="1"/>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B421" s="18"/>
       <c r="C421" s="19"/>
       <c r="D421" s="1"/>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B422" s="18"/>
       <c r="C422" s="19"/>
       <c r="D422" s="1"/>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B423" s="18"/>
       <c r="C423" s="19"/>
       <c r="D423" s="1"/>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B424" s="18"/>
       <c r="C424" s="19"/>
       <c r="D424" s="1"/>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B425" s="18"/>
       <c r="C425" s="19"/>
       <c r="D425" s="1"/>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B426" s="18"/>
       <c r="C426" s="19"/>
       <c r="D426" s="1"/>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B427" s="18"/>
       <c r="C427" s="19"/>
       <c r="D427" s="1"/>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B428" s="18"/>
       <c r="C428" s="19"/>
       <c r="D428" s="1"/>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B429" s="18"/>
       <c r="C429" s="19"/>
       <c r="D429" s="1"/>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B430" s="18"/>
       <c r="C430" s="19"/>
       <c r="D430" s="1"/>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B431" s="18"/>
       <c r="C431" s="19"/>
       <c r="D431" s="1"/>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B432" s="18"/>
       <c r="C432" s="19"/>
       <c r="D432" s="1"/>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B433" s="18"/>
       <c r="C433" s="19"/>
       <c r="D433" s="1"/>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B434" s="18"/>
       <c r="C434" s="19"/>
       <c r="D434" s="1"/>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B435" s="18"/>
       <c r="C435" s="19"/>
       <c r="D435" s="1"/>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B436" s="18"/>
       <c r="C436" s="19"/>
       <c r="D436" s="1"/>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B437" s="18"/>
       <c r="C437" s="19"/>
       <c r="D437" s="1"/>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B438" s="18"/>
       <c r="C438" s="19"/>
       <c r="D438" s="1"/>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B439" s="18"/>
       <c r="C439" s="19"/>
       <c r="D439" s="1"/>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B440" s="18"/>
       <c r="C440" s="19"/>
       <c r="D440" s="1"/>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B441" s="18"/>
       <c r="C441" s="19"/>
       <c r="D441" s="1"/>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B442" s="18"/>
       <c r="C442" s="19"/>
       <c r="D442" s="1"/>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B443" s="18"/>
       <c r="C443" s="19"/>
       <c r="D443" s="1"/>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B444" s="18"/>
       <c r="C444" s="19"/>
       <c r="D444" s="1"/>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B445" s="18"/>
       <c r="C445" s="19"/>
       <c r="D445" s="1"/>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B446" s="18"/>
       <c r="C446" s="19"/>
       <c r="D446" s="1"/>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B447" s="18"/>
       <c r="C447" s="19"/>
       <c r="D447" s="1"/>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B448" s="18"/>
       <c r="C448" s="19"/>
       <c r="D448" s="1"/>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B449" s="18"/>
       <c r="C449" s="19"/>
       <c r="D449" s="1"/>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B450" s="18"/>
       <c r="C450" s="19"/>
       <c r="D450" s="1"/>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B451" s="18"/>
       <c r="C451" s="19"/>
       <c r="D451" s="1"/>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B452" s="18"/>
       <c r="C452" s="19"/>
       <c r="D452" s="1"/>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B453" s="18"/>
       <c r="C453" s="19"/>
       <c r="D453" s="1"/>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B454" s="18"/>
       <c r="C454" s="19"/>
       <c r="D454" s="1"/>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B455" s="18"/>
       <c r="C455" s="19"/>
       <c r="D455" s="1"/>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B456" s="18"/>
       <c r="C456" s="19"/>
       <c r="D456" s="1"/>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B457" s="18"/>
       <c r="C457" s="19"/>
       <c r="D457" s="1"/>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B458" s="18"/>
       <c r="C458" s="19"/>
       <c r="D458" s="1"/>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B459" s="18"/>
       <c r="C459" s="19"/>
       <c r="D459" s="1"/>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B460" s="18"/>
       <c r="C460" s="19"/>
       <c r="D460" s="1"/>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B461" s="18"/>
       <c r="C461" s="19"/>
       <c r="D461" s="1"/>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B462" s="18"/>
       <c r="C462" s="19"/>
       <c r="D462" s="1"/>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B463" s="18"/>
       <c r="C463" s="19"/>
       <c r="D463" s="1"/>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B464" s="18"/>
       <c r="C464" s="19"/>
       <c r="D464" s="1"/>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B465" s="18"/>
       <c r="C465" s="19"/>
       <c r="D465" s="1"/>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B466" s="18"/>
       <c r="C466" s="19"/>
       <c r="D466" s="1"/>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B467" s="18"/>
       <c r="C467" s="19"/>
       <c r="D467" s="1"/>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B468" s="18"/>
       <c r="C468" s="19"/>
       <c r="D468" s="1"/>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B469" s="18"/>
       <c r="C469" s="19"/>
       <c r="D469" s="1"/>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B470" s="18"/>
       <c r="C470" s="19"/>
       <c r="D470" s="1"/>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B471" s="18"/>
       <c r="C471" s="19"/>
       <c r="D471" s="1"/>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B472" s="18"/>
       <c r="C472" s="19"/>
       <c r="D472" s="1"/>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B473" s="18"/>
       <c r="C473" s="19"/>
       <c r="D473" s="1"/>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B474" s="18"/>
       <c r="C474" s="19"/>
       <c r="D474" s="1"/>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B475" s="18"/>
       <c r="C475" s="19"/>
       <c r="D475" s="1"/>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B476" s="18"/>
       <c r="C476" s="19"/>
       <c r="D476" s="1"/>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B477" s="18"/>
       <c r="C477" s="19"/>
       <c r="D477" s="1"/>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B478" s="18"/>
       <c r="C478" s="19"/>
       <c r="D478" s="1"/>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B479" s="18"/>
       <c r="C479" s="19"/>
       <c r="D479" s="1"/>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B480" s="18"/>
       <c r="C480" s="19"/>
       <c r="D480" s="1"/>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B481" s="18"/>
       <c r="C481" s="19"/>
       <c r="D481" s="1"/>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B482" s="18"/>
       <c r="C482" s="19"/>
       <c r="D482" s="1"/>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B483" s="18"/>
       <c r="C483" s="19"/>
       <c r="D483" s="1"/>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B484" s="18"/>
       <c r="C484" s="19"/>
       <c r="D484" s="1"/>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B485" s="18"/>
       <c r="C485" s="19"/>
       <c r="D485" s="1"/>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B486" s="18"/>
       <c r="C486" s="19"/>
       <c r="D486" s="1"/>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B487" s="18"/>
       <c r="C487" s="19"/>
       <c r="D487" s="1"/>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B488" s="18"/>
       <c r="C488" s="19"/>
       <c r="D488" s="1"/>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B489" s="18"/>
       <c r="C489" s="19"/>
       <c r="D489" s="1"/>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B490" s="18"/>
       <c r="C490" s="19"/>
       <c r="D490" s="1"/>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B491" s="18"/>
       <c r="C491" s="19"/>
       <c r="D491" s="1"/>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B492" s="18"/>
       <c r="C492" s="19"/>
       <c r="D492" s="1"/>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B493" s="18"/>
       <c r="C493" s="19"/>
       <c r="D493" s="1"/>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B494" s="18"/>
       <c r="C494" s="19"/>
       <c r="D494" s="1"/>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B495" s="18"/>
       <c r="C495" s="19"/>
       <c r="D495" s="1"/>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B496" s="18"/>
       <c r="C496" s="19"/>
       <c r="D496" s="1"/>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B497" s="18"/>
       <c r="C497" s="19"/>
       <c r="D497" s="1"/>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B498" s="18"/>
       <c r="C498" s="19"/>
       <c r="D498" s="1"/>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B499" s="18"/>
       <c r="C499" s="19"/>
       <c r="D499" s="1"/>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B500" s="18"/>
       <c r="C500" s="19"/>
       <c r="D500" s="1"/>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B501" s="18"/>
       <c r="C501" s="19"/>
       <c r="D501" s="1"/>
     </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B502" s="18"/>
       <c r="C502" s="19"/>
       <c r="D502" s="1"/>
     </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B503" s="18"/>
       <c r="C503" s="19"/>
       <c r="D503" s="1"/>
     </row>
-    <row r="504" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B504" s="18"/>
       <c r="C504" s="19"/>
       <c r="D504" s="1"/>
     </row>
-    <row r="505" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B505" s="18"/>
       <c r="C505" s="19"/>
       <c r="D505" s="1"/>
     </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B506" s="18"/>
       <c r="C506" s="19"/>
       <c r="D506" s="1"/>
     </row>
-    <row r="507" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B507" s="18"/>
       <c r="C507" s="19"/>
       <c r="D507" s="1"/>
     </row>
-    <row r="508" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B508" s="18"/>
       <c r="C508" s="19"/>
       <c r="D508" s="1"/>
     </row>
-    <row r="509" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B509" s="18"/>
       <c r="C509" s="19"/>
       <c r="D509" s="1"/>
     </row>
-    <row r="510" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B510" s="18"/>
       <c r="C510" s="19"/>
       <c r="D510" s="1"/>
     </row>
-    <row r="511" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B511" s="18"/>
       <c r="C511" s="19"/>
       <c r="D511" s="1"/>
     </row>
-    <row r="512" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B512" s="18"/>
       <c r="C512" s="19"/>
       <c r="D512" s="1"/>
     </row>
-    <row r="513" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B513" s="18"/>
       <c r="C513" s="19"/>
       <c r="D513" s="1"/>
     </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B514" s="18"/>
       <c r="C514" s="19"/>
       <c r="D514" s="1"/>
     </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B515" s="18"/>
       <c r="C515" s="19"/>
       <c r="D515" s="1"/>
     </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B516" s="18"/>
       <c r="C516" s="19"/>
       <c r="D516" s="1"/>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B517" s="18"/>
       <c r="C517" s="19"/>
       <c r="D517" s="1"/>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B518" s="18"/>
       <c r="C518" s="19"/>
       <c r="D518" s="1"/>
     </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B519" s="18"/>
       <c r="C519" s="19"/>
       <c r="D519" s="1"/>
     </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B520" s="18"/>
       <c r="C520" s="19"/>
       <c r="D520" s="1"/>
     </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B521" s="18"/>
       <c r="C521" s="19"/>
       <c r="D521" s="1"/>
     </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B522" s="18"/>
       <c r="C522" s="19"/>
       <c r="D522" s="1"/>
     </row>
-    <row r="523" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B523" s="18"/>
       <c r="C523" s="19"/>
       <c r="D523" s="1"/>
     </row>
-    <row r="524" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B524" s="18"/>
       <c r="C524" s="19"/>
       <c r="D524" s="1"/>
     </row>
-    <row r="525" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B525" s="18"/>
       <c r="C525" s="19"/>
       <c r="D525" s="1"/>
     </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B526" s="18"/>
       <c r="C526" s="19"/>
       <c r="D526" s="1"/>
     </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B527" s="18"/>
       <c r="C527" s="19"/>
       <c r="D527" s="1"/>
     </row>
-    <row r="528" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B528" s="18"/>
       <c r="C528" s="19"/>
       <c r="D528" s="1"/>
     </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B529" s="18"/>
       <c r="C529" s="19"/>
       <c r="D529" s="1"/>
     </row>
-    <row r="530" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B530" s="18"/>
       <c r="C530" s="19"/>
       <c r="D530" s="1"/>
     </row>
-    <row r="531" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B531" s="18"/>
       <c r="C531" s="19"/>
       <c r="D531" s="1"/>
     </row>
-    <row r="532" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B532" s="18"/>
       <c r="C532" s="19"/>
       <c r="D532" s="1"/>
     </row>
-    <row r="533" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B533" s="18"/>
       <c r="C533" s="19"/>
       <c r="D533" s="1"/>
     </row>
-    <row r="534" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B534" s="18"/>
       <c r="C534" s="19"/>
       <c r="D534" s="1"/>
     </row>
-    <row r="535" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B535" s="18"/>
       <c r="C535" s="19"/>
       <c r="D535" s="1"/>
     </row>
-    <row r="536" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B536" s="18"/>
       <c r="C536" s="19"/>
       <c r="D536" s="1"/>
     </row>
-    <row r="537" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B537" s="18"/>
       <c r="C537" s="19"/>
       <c r="D537" s="1"/>
     </row>
-    <row r="538" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B538" s="18"/>
       <c r="C538" s="19"/>
       <c r="D538" s="1"/>
     </row>
-    <row r="539" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B539" s="18"/>
       <c r="C539" s="19"/>
       <c r="D539" s="1"/>
     </row>
-    <row r="540" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B540" s="18"/>
       <c r="C540" s="19"/>
       <c r="D540" s="1"/>
     </row>
-    <row r="541" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B541" s="18"/>
       <c r="C541" s="19"/>
       <c r="D541" s="1"/>
     </row>
-    <row r="542" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B542" s="18"/>
       <c r="C542" s="19"/>
       <c r="D542" s="1"/>
     </row>
-    <row r="543" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B543" s="18"/>
       <c r="C543" s="19"/>
       <c r="D543" s="1"/>
     </row>
-    <row r="544" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B544" s="18"/>
       <c r="C544" s="19"/>
       <c r="D544" s="1"/>
     </row>
-    <row r="545" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B545" s="18"/>
       <c r="C545" s="19"/>
       <c r="D545" s="1"/>
     </row>
-    <row r="546" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B546" s="18"/>
       <c r="C546" s="19"/>
       <c r="D546" s="1"/>
     </row>
-    <row r="547" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B547" s="18"/>
       <c r="C547" s="19"/>
       <c r="D547" s="1"/>
     </row>
-    <row r="548" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B548" s="18"/>
       <c r="C548" s="19"/>
       <c r="D548" s="1"/>
     </row>
-    <row r="549" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B549" s="18"/>
       <c r="C549" s="19"/>
       <c r="D549" s="1"/>
     </row>
-    <row r="550" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B550" s="18"/>
       <c r="C550" s="19"/>
       <c r="D550" s="1"/>
     </row>
-    <row r="551" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B551" s="18"/>
       <c r="C551" s="19"/>
       <c r="D551" s="1"/>
     </row>
-    <row r="552" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B552" s="18"/>
       <c r="C552" s="19"/>
       <c r="D552" s="1"/>
     </row>
-    <row r="553" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B553" s="18"/>
       <c r="C553" s="19"/>
       <c r="D553" s="1"/>
     </row>
-    <row r="554" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B554" s="18"/>
       <c r="C554" s="19"/>
       <c r="D554" s="1"/>
     </row>
-    <row r="555" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B555" s="18"/>
       <c r="C555" s="19"/>
       <c r="D555" s="1"/>
     </row>
-    <row r="556" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B556" s="18"/>
       <c r="C556" s="19"/>
       <c r="D556" s="1"/>
     </row>
-    <row r="557" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B557" s="18"/>
       <c r="C557" s="19"/>
       <c r="D557" s="1"/>
     </row>
-    <row r="558" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B558" s="18"/>
       <c r="C558" s="19"/>
       <c r="D558" s="1"/>
     </row>
-    <row r="559" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B559" s="18"/>
       <c r="C559" s="19"/>
       <c r="D559" s="1"/>
     </row>
-    <row r="560" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B560" s="18"/>
       <c r="C560" s="19"/>
       <c r="D560" s="1"/>
     </row>
-    <row r="561" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B561" s="18"/>
       <c r="C561" s="19"/>
       <c r="D561" s="1"/>
     </row>
-    <row r="562" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B562" s="18"/>
       <c r="C562" s="19"/>
       <c r="D562" s="1"/>
     </row>
-    <row r="563" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B563" s="18"/>
       <c r="C563" s="19"/>
       <c r="D563" s="1"/>
     </row>
-    <row r="564" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B564" s="18"/>
       <c r="C564" s="19"/>
       <c r="D564" s="1"/>
     </row>
-    <row r="565" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B565" s="18"/>
       <c r="C565" s="19"/>
       <c r="D565" s="1"/>
     </row>
-    <row r="566" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B566" s="18"/>
       <c r="C566" s="19"/>
       <c r="D566" s="1"/>
     </row>
-    <row r="567" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B567" s="18"/>
       <c r="C567" s="19"/>
       <c r="D567" s="1"/>
     </row>
-    <row r="568" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B568" s="18"/>
       <c r="C568" s="19"/>
       <c r="D568" s="1"/>
     </row>
-    <row r="569" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B569" s="18"/>
       <c r="C569" s="19"/>
       <c r="D569" s="1"/>
     </row>
-    <row r="570" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B570" s="18"/>
       <c r="C570" s="19"/>
       <c r="D570" s="1"/>
     </row>
-    <row r="571" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B571" s="18"/>
       <c r="C571" s="19"/>
       <c r="D571" s="1"/>
     </row>
-    <row r="572" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B572" s="18"/>
       <c r="C572" s="19"/>
       <c r="D572" s="1"/>
     </row>
-    <row r="573" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B573" s="18"/>
       <c r="C573" s="19"/>
       <c r="D573" s="1"/>
     </row>
-    <row r="574" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B574" s="18"/>
       <c r="C574" s="19"/>
       <c r="D574" s="1"/>
     </row>
-    <row r="575" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B575" s="18"/>
       <c r="C575" s="19"/>
       <c r="D575" s="1"/>
     </row>
-    <row r="576" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B576" s="18"/>
       <c r="C576" s="19"/>
       <c r="D576" s="1"/>
     </row>
-    <row r="577" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B577" s="18"/>
       <c r="C577" s="19"/>
       <c r="D577" s="1"/>
     </row>
-    <row r="578" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B578" s="18"/>
       <c r="C578" s="19"/>
       <c r="D578" s="1"/>
     </row>
-    <row r="579" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B579" s="18"/>
       <c r="C579" s="19"/>
       <c r="D579" s="1"/>
     </row>
-    <row r="580" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B580" s="18"/>
       <c r="C580" s="19"/>
       <c r="D580" s="1"/>
     </row>
-    <row r="581" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B581" s="18"/>
       <c r="C581" s="19"/>
       <c r="D581" s="1"/>
     </row>
-    <row r="582" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B582" s="18"/>
       <c r="C582" s="19"/>
       <c r="D582" s="1"/>
     </row>
-    <row r="583" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B583" s="18"/>
       <c r="C583" s="19"/>
       <c r="D583" s="1"/>
     </row>
-    <row r="584" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B584" s="18"/>
       <c r="C584" s="19"/>
       <c r="D584" s="1"/>
     </row>
-    <row r="585" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B585" s="18"/>
       <c r="C585" s="19"/>
       <c r="D585" s="1"/>
     </row>
-    <row r="586" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B586" s="18"/>
       <c r="C586" s="19"/>
       <c r="D586" s="1"/>
     </row>
-    <row r="587" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B587" s="18"/>
       <c r="C587" s="19"/>
       <c r="D587" s="1"/>
     </row>
-    <row r="588" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B588" s="18"/>
       <c r="C588" s="19"/>
       <c r="D588" s="1"/>
     </row>
-    <row r="589" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B589" s="18"/>
       <c r="C589" s="19"/>
       <c r="D589" s="1"/>
     </row>
-    <row r="590" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B590" s="18"/>
       <c r="C590" s="19"/>
       <c r="D590" s="1"/>
     </row>
-    <row r="591" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B591" s="18"/>
       <c r="C591" s="19"/>
       <c r="D591" s="1"/>
     </row>
-    <row r="592" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B592" s="18"/>
       <c r="C592" s="19"/>
       <c r="D592" s="1"/>
     </row>
-    <row r="593" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B593" s="18"/>
       <c r="C593" s="19"/>
       <c r="D593" s="1"/>
     </row>
-    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B594" s="18"/>
       <c r="C594" s="19"/>
       <c r="D594" s="1"/>
     </row>
-    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B595" s="18"/>
       <c r="C595" s="19"/>
       <c r="D595" s="1"/>
     </row>
-    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B596" s="18"/>
       <c r="C596" s="19"/>
       <c r="D596" s="1"/>
     </row>
-    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B597" s="18"/>
       <c r="C597" s="19"/>
       <c r="D597" s="1"/>
     </row>
-    <row r="598" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B598" s="18"/>
       <c r="C598" s="19"/>
       <c r="D598" s="1"/>
     </row>
-    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B599" s="18"/>
       <c r="C599" s="19"/>
       <c r="D599" s="1"/>
     </row>
-    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B600" s="18"/>
       <c r="C600" s="19"/>
       <c r="D600" s="1"/>
     </row>
-    <row r="601" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B601" s="18"/>
       <c r="C601" s="19"/>
       <c r="D601" s="1"/>
     </row>
-    <row r="602" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B602" s="18"/>
       <c r="C602" s="19"/>
       <c r="D602" s="1"/>
     </row>
-    <row r="603" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B603" s="18"/>
       <c r="C603" s="19"/>
       <c r="D603" s="1"/>
     </row>
-    <row r="604" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B604" s="18"/>
       <c r="C604" s="19"/>
       <c r="D604" s="1"/>
     </row>
-    <row r="605" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B605" s="18"/>
       <c r="C605" s="19"/>
       <c r="D605" s="1"/>
     </row>
-    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B606" s="18"/>
       <c r="C606" s="19"/>
       <c r="D606" s="1"/>
     </row>
-    <row r="607" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B607" s="18"/>
       <c r="C607" s="19"/>
       <c r="D607" s="1"/>
     </row>
-    <row r="608" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B608" s="18"/>
       <c r="C608" s="19"/>
       <c r="D608" s="1"/>
     </row>
-    <row r="609" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B609" s="18"/>
       <c r="C609" s="19"/>
       <c r="D609" s="1"/>
     </row>
-    <row r="610" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B610" s="18"/>
       <c r="C610" s="19"/>
       <c r="D610" s="1"/>
     </row>
-    <row r="611" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B611" s="18"/>
       <c r="C611" s="19"/>
       <c r="D611" s="1"/>
     </row>
-    <row r="612" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B612" s="18"/>
       <c r="C612" s="19"/>
       <c r="D612" s="1"/>
     </row>
-    <row r="613" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B613" s="18"/>
       <c r="C613" s="19"/>
       <c r="D613" s="1"/>
     </row>
-    <row r="614" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B614" s="18"/>
       <c r="C614" s="19"/>
       <c r="D614" s="1"/>
     </row>
-    <row r="615" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B615" s="18"/>
       <c r="C615" s="19"/>
       <c r="D615" s="1"/>
     </row>
-    <row r="616" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B616" s="18"/>
       <c r="C616" s="19"/>
       <c r="D616" s="1"/>
     </row>
-    <row r="617" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B617" s="18"/>
       <c r="C617" s="19"/>
       <c r="D617" s="1"/>
     </row>
-    <row r="618" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B618" s="18"/>
       <c r="C618" s="19"/>
       <c r="D618" s="1"/>
     </row>
-    <row r="619" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B619" s="18"/>
       <c r="C619" s="19"/>
       <c r="D619" s="1"/>
     </row>
-    <row r="620" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B620" s="18"/>
       <c r="C620" s="19"/>
       <c r="D620" s="1"/>
     </row>
-    <row r="621" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B621" s="18"/>
       <c r="C621" s="19"/>
       <c r="D621" s="1"/>
     </row>
-    <row r="622" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B622" s="18"/>
       <c r="C622" s="19"/>
       <c r="D622" s="1"/>
     </row>
-    <row r="623" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B623" s="18"/>
       <c r="C623" s="19"/>
       <c r="D623" s="1"/>
     </row>
-    <row r="624" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B624" s="18"/>
       <c r="C624" s="19"/>
       <c r="D624" s="1"/>
     </row>
-    <row r="625" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B625" s="18"/>
       <c r="C625" s="19"/>
       <c r="D625" s="1"/>
     </row>
-    <row r="626" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B626" s="18"/>
       <c r="C626" s="19"/>
       <c r="D626" s="1"/>
     </row>
-    <row r="627" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B627" s="18"/>
       <c r="C627" s="19"/>
       <c r="D627" s="1"/>
     </row>
-    <row r="628" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B628" s="18"/>
       <c r="C628" s="19"/>
       <c r="D628" s="1"/>
     </row>
-    <row r="629" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B629" s="18"/>
       <c r="C629" s="19"/>
       <c r="D629" s="1"/>
     </row>
-    <row r="630" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B630" s="18"/>
       <c r="C630" s="19"/>
       <c r="D630" s="1"/>
     </row>
-    <row r="631" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B631" s="18"/>
       <c r="C631" s="19"/>
       <c r="D631" s="1"/>
     </row>
-    <row r="632" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B632" s="18"/>
       <c r="C632" s="19"/>
       <c r="D632" s="1"/>
     </row>
-    <row r="633" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B633" s="18"/>
       <c r="C633" s="19"/>
       <c r="D633" s="1"/>
     </row>
-    <row r="634" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B634" s="18"/>
       <c r="C634" s="19"/>
       <c r="D634" s="1"/>
     </row>
-    <row r="635" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B635" s="18"/>
       <c r="C635" s="19"/>
       <c r="D635" s="1"/>
     </row>
-    <row r="636" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B636" s="18"/>
       <c r="C636" s="19"/>
       <c r="D636" s="1"/>
     </row>
-    <row r="637" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B637" s="18"/>
       <c r="C637" s="19"/>
       <c r="D637" s="1"/>
     </row>
-    <row r="638" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B638" s="18"/>
       <c r="C638" s="19"/>
       <c r="D638" s="1"/>
     </row>
-    <row r="639" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B639" s="18"/>
       <c r="C639" s="19"/>
       <c r="D639" s="1"/>
     </row>
-    <row r="640" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B640" s="18"/>
       <c r="C640" s="19"/>
       <c r="D640" s="1"/>
     </row>
-    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B641" s="18"/>
       <c r="C641" s="19"/>
       <c r="D641" s="1"/>
     </row>
-    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B642" s="18"/>
       <c r="C642" s="19"/>
       <c r="D642" s="1"/>
     </row>
-    <row r="643" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B643" s="18"/>
       <c r="C643" s="19"/>
       <c r="D643" s="1"/>
     </row>
-    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B644" s="18"/>
       <c r="C644" s="19"/>
       <c r="D644" s="1"/>
     </row>
-    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B645" s="18"/>
       <c r="C645" s="19"/>
       <c r="D645" s="1"/>
     </row>
-    <row r="646" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B646" s="18"/>
       <c r="C646" s="19"/>
       <c r="D646" s="1"/>
     </row>
-    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B647" s="18"/>
       <c r="C647" s="19"/>
       <c r="D647" s="1"/>
     </row>
-    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B648" s="18"/>
       <c r="C648" s="19"/>
       <c r="D648" s="1"/>
     </row>
-    <row r="649" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B649" s="18"/>
       <c r="C649" s="19"/>
       <c r="D649" s="1"/>
     </row>
-    <row r="650" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B650" s="18"/>
       <c r="C650" s="19"/>
       <c r="D650" s="1"/>
     </row>
-    <row r="651" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B651" s="18"/>
       <c r="C651" s="19"/>
       <c r="D651" s="1"/>
     </row>
-    <row r="652" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B652" s="18"/>
       <c r="C652" s="19"/>
       <c r="D652" s="1"/>
     </row>
-    <row r="653" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B653" s="18"/>
       <c r="C653" s="19"/>
       <c r="D653" s="1"/>
     </row>
-    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B654" s="18"/>
       <c r="C654" s="19"/>
       <c r="D654" s="1"/>
     </row>
-    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B655" s="18"/>
       <c r="C655" s="19"/>
       <c r="D655" s="1"/>
     </row>
-    <row r="656" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B656" s="18"/>
       <c r="C656" s="19"/>
       <c r="D656" s="1"/>
     </row>
-    <row r="657" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B657" s="18"/>
       <c r="C657" s="19"/>
       <c r="D657" s="1"/>
     </row>
-    <row r="658" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B658" s="18"/>
       <c r="C658" s="19"/>
       <c r="D658" s="1"/>
     </row>
-    <row r="659" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B659" s="18"/>
       <c r="C659" s="19"/>
       <c r="D659" s="1"/>
     </row>
-    <row r="660" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B660" s="18"/>
       <c r="C660" s="19"/>
       <c r="D660" s="1"/>
     </row>
-    <row r="661" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B661" s="18"/>
       <c r="C661" s="19"/>
       <c r="D661" s="1"/>
     </row>
-    <row r="662" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B662" s="18"/>
       <c r="C662" s="19"/>
       <c r="D662" s="1"/>
     </row>
-    <row r="663" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B663" s="18"/>
       <c r="C663" s="19"/>
       <c r="D663" s="1"/>
     </row>
-    <row r="664" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B664" s="18"/>
       <c r="C664" s="19"/>
       <c r="D664" s="1"/>
     </row>
-    <row r="665" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B665" s="18"/>
       <c r="C665" s="19"/>
       <c r="D665" s="1"/>
     </row>
-    <row r="666" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B666" s="18"/>
       <c r="C666" s="19"/>
       <c r="D666" s="1"/>
     </row>
-    <row r="667" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B667" s="18"/>
       <c r="C667" s="19"/>
       <c r="D667" s="1"/>
     </row>
-    <row r="668" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B668" s="18"/>
       <c r="C668" s="19"/>
       <c r="D668" s="1"/>
     </row>
-    <row r="669" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B669" s="18"/>
       <c r="C669" s="19"/>
       <c r="D669" s="1"/>
     </row>
-    <row r="670" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B670" s="18"/>
       <c r="C670" s="19"/>
       <c r="D670" s="1"/>
     </row>
-    <row r="671" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B671" s="18"/>
       <c r="C671" s="19"/>
       <c r="D671" s="1"/>
     </row>
-    <row r="672" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B672" s="18"/>
       <c r="C672" s="19"/>
       <c r="D672" s="1"/>
     </row>
-    <row r="673" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B673" s="18"/>
       <c r="C673" s="19"/>
       <c r="D673" s="1"/>
     </row>
-    <row r="674" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B674" s="18"/>
       <c r="C674" s="19"/>
       <c r="D674" s="1"/>
     </row>
-    <row r="675" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B675" s="18"/>
       <c r="C675" s="19"/>
       <c r="D675" s="1"/>
     </row>
-    <row r="676" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B676" s="18"/>
       <c r="C676" s="19"/>
       <c r="D676" s="1"/>
     </row>
-    <row r="677" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B677" s="18"/>
       <c r="C677" s="19"/>
       <c r="D677" s="1"/>
     </row>
-    <row r="678" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B678" s="18"/>
       <c r="C678" s="19"/>
       <c r="D678" s="1"/>
     </row>
-    <row r="679" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B679" s="18"/>
       <c r="C679" s="19"/>
       <c r="D679" s="1"/>
     </row>
-    <row r="680" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B680" s="18"/>
       <c r="C680" s="19"/>
       <c r="D680" s="1"/>
     </row>
-    <row r="681" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B681" s="18"/>
       <c r="C681" s="19"/>
       <c r="D681" s="1"/>
     </row>
-    <row r="682" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B682" s="18"/>
       <c r="C682" s="19"/>
       <c r="D682" s="1"/>
     </row>
-    <row r="683" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B683" s="18"/>
       <c r="C683" s="19"/>
       <c r="D683" s="1"/>
     </row>
-    <row r="684" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B684" s="18"/>
       <c r="C684" s="19"/>
       <c r="D684" s="1"/>
     </row>
-    <row r="685" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B685" s="18"/>
       <c r="C685" s="19"/>
       <c r="D685" s="1"/>
     </row>
-    <row r="686" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B686" s="18"/>
       <c r="C686" s="19"/>
       <c r="D686" s="1"/>
     </row>
-    <row r="687" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B687" s="18"/>
       <c r="C687" s="19"/>
       <c r="D687" s="1"/>
     </row>
-    <row r="688" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B688" s="18"/>
       <c r="C688" s="19"/>
       <c r="D688" s="1"/>
     </row>
-    <row r="689" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B689" s="18"/>
       <c r="C689" s="19"/>
       <c r="D689" s="1"/>
     </row>
-    <row r="690" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B690" s="18"/>
       <c r="C690" s="19"/>
       <c r="D690" s="1"/>
     </row>
-    <row r="691" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B691" s="18"/>
       <c r="C691" s="19"/>
       <c r="D691" s="1"/>
     </row>
-    <row r="692" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B692" s="18"/>
       <c r="C692" s="19"/>
       <c r="D692" s="1"/>
     </row>
-    <row r="693" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B693" s="18"/>
       <c r="C693" s="19"/>
       <c r="D693" s="1"/>
     </row>
-    <row r="694" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B694" s="18"/>
       <c r="C694" s="19"/>
       <c r="D694" s="1"/>
     </row>
-    <row r="695" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B695" s="18"/>
       <c r="C695" s="19"/>
       <c r="D695" s="1"/>
     </row>
-    <row r="696" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B696" s="18"/>
       <c r="C696" s="19"/>
       <c r="D696" s="1"/>
     </row>
-    <row r="697" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B697" s="18"/>
       <c r="C697" s="19"/>
       <c r="D697" s="1"/>
     </row>
-    <row r="698" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B698" s="18"/>
       <c r="C698" s="19"/>
       <c r="D698" s="1"/>
     </row>
-    <row r="699" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B699" s="18"/>
       <c r="C699" s="19"/>
       <c r="D699" s="1"/>
     </row>
-    <row r="700" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B700" s="18"/>
       <c r="C700" s="19"/>
       <c r="D700" s="1"/>
     </row>
-    <row r="701" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B701" s="18"/>
       <c r="C701" s="19"/>
       <c r="D701" s="1"/>
     </row>
-    <row r="702" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B702" s="18"/>
       <c r="C702" s="19"/>
       <c r="D702" s="1"/>
     </row>
-    <row r="703" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B703" s="18"/>
       <c r="C703" s="19"/>
       <c r="D703" s="1"/>
     </row>
-    <row r="704" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B704" s="18"/>
       <c r="C704" s="19"/>
       <c r="D704" s="1"/>
     </row>
-    <row r="705" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B705" s="18"/>
       <c r="C705" s="19"/>
       <c r="D705" s="1"/>
     </row>
-    <row r="706" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B706" s="18"/>
       <c r="C706" s="19"/>
       <c r="D706" s="1"/>
     </row>
-    <row r="707" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B707" s="18"/>
       <c r="C707" s="19"/>
       <c r="D707" s="1"/>
     </row>
-    <row r="708" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B708" s="18"/>
       <c r="C708" s="19"/>
       <c r="D708" s="1"/>
     </row>
-    <row r="709" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B709" s="18"/>
       <c r="C709" s="19"/>
       <c r="D709" s="1"/>
     </row>
-    <row r="710" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B710" s="18"/>
       <c r="C710" s="19"/>
       <c r="D710" s="1"/>
     </row>
-    <row r="711" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B711" s="18"/>
       <c r="C711" s="19"/>
       <c r="D711" s="1"/>
     </row>
-    <row r="712" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B712" s="18"/>
       <c r="C712" s="19"/>
       <c r="D712" s="1"/>
     </row>
-    <row r="713" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B713" s="18"/>
       <c r="C713" s="19"/>
       <c r="D713" s="1"/>
     </row>
-    <row r="714" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B714" s="18"/>
       <c r="C714" s="19"/>
       <c r="D714" s="1"/>
     </row>
-    <row r="715" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B715" s="18"/>
       <c r="C715" s="19"/>
       <c r="D715" s="1"/>
     </row>
-    <row r="716" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B716" s="18"/>
       <c r="C716" s="19"/>
       <c r="D716" s="1"/>
     </row>
-    <row r="717" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B717" s="18"/>
       <c r="C717" s="19"/>
       <c r="D717" s="1"/>
     </row>
-    <row r="718" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B718" s="18"/>
       <c r="C718" s="19"/>
       <c r="D718" s="1"/>
     </row>
-    <row r="719" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B719" s="18"/>
       <c r="C719" s="19"/>
       <c r="D719" s="1"/>
     </row>
-    <row r="720" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B720" s="18"/>
       <c r="C720" s="19"/>
       <c r="D720" s="1"/>
     </row>
-    <row r="721" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B721" s="18"/>
       <c r="C721" s="19"/>
       <c r="D721" s="1"/>
     </row>
-    <row r="722" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B722" s="18"/>
       <c r="C722" s="19"/>
       <c r="D722" s="1"/>
     </row>
-    <row r="723" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B723" s="18"/>
       <c r="C723" s="19"/>
       <c r="D723" s="1"/>
     </row>
-    <row r="724" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B724" s="18"/>
       <c r="C724" s="19"/>
       <c r="D724" s="1"/>
     </row>
-    <row r="725" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B725" s="18"/>
       <c r="C725" s="19"/>
       <c r="D725" s="1"/>
     </row>
-    <row r="726" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B726" s="18"/>
       <c r="C726" s="19"/>
       <c r="D726" s="1"/>
     </row>
-    <row r="727" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B727" s="18"/>
       <c r="C727" s="19"/>
       <c r="D727" s="1"/>
     </row>
-    <row r="728" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B728" s="18"/>
       <c r="C728" s="19"/>
       <c r="D728" s="1"/>
     </row>
-    <row r="729" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B729" s="18"/>
       <c r="C729" s="19"/>
       <c r="D729" s="1"/>
     </row>
-    <row r="730" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B730" s="18"/>
       <c r="C730" s="19"/>
       <c r="D730" s="1"/>
     </row>
-    <row r="731" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B731" s="18"/>
       <c r="C731" s="19"/>
       <c r="D731" s="1"/>
     </row>
-    <row r="732" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B732" s="18"/>
       <c r="C732" s="19"/>
       <c r="D732" s="1"/>
     </row>
-    <row r="733" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B733" s="18"/>
       <c r="C733" s="19"/>
       <c r="D733" s="1"/>
     </row>
-    <row r="734" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B734" s="18"/>
       <c r="C734" s="19"/>
       <c r="D734" s="1"/>
     </row>
-    <row r="735" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B735" s="18"/>
       <c r="C735" s="19"/>
       <c r="D735" s="1"/>
     </row>
-    <row r="736" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B736" s="18"/>
       <c r="C736" s="19"/>
       <c r="D736" s="1"/>
     </row>
-    <row r="737" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B737" s="18"/>
       <c r="C737" s="19"/>
       <c r="D737" s="1"/>
     </row>
-    <row r="738" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B738" s="18"/>
       <c r="C738" s="19"/>
       <c r="D738" s="1"/>
     </row>
-    <row r="739" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B739" s="18"/>
       <c r="C739" s="19"/>
       <c r="D739" s="1"/>
     </row>
-    <row r="740" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B740" s="18"/>
       <c r="C740" s="19"/>
       <c r="D740" s="1"/>
     </row>
-    <row r="741" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B741" s="18"/>
       <c r="C741" s="19"/>
       <c r="D741" s="1"/>
     </row>
-    <row r="742" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B742" s="18"/>
       <c r="C742" s="19"/>
       <c r="D742" s="1"/>
     </row>
-    <row r="743" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B743" s="18"/>
       <c r="C743" s="19"/>
       <c r="D743" s="1"/>
     </row>
-    <row r="744" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B744" s="18"/>
       <c r="C744" s="19"/>
       <c r="D744" s="1"/>
     </row>
-    <row r="745" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B745" s="18"/>
       <c r="C745" s="19"/>
       <c r="D745" s="1"/>
     </row>
-    <row r="746" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B746" s="18"/>
       <c r="C746" s="19"/>
       <c r="D746" s="1"/>
     </row>
-    <row r="747" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B747" s="18"/>
       <c r="C747" s="19"/>
       <c r="D747" s="1"/>
     </row>
-    <row r="748" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B748" s="18"/>
       <c r="C748" s="19"/>
       <c r="D748" s="1"/>
     </row>
-    <row r="749" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B749" s="18"/>
       <c r="C749" s="19"/>
       <c r="D749" s="1"/>
     </row>
-    <row r="750" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B750" s="18"/>
       <c r="C750" s="19"/>
       <c r="D750" s="1"/>
     </row>
-    <row r="751" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B751" s="18"/>
       <c r="C751" s="19"/>
       <c r="D751" s="1"/>
     </row>
-    <row r="752" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B752" s="18"/>
       <c r="C752" s="19"/>
       <c r="D752" s="1"/>
     </row>
-    <row r="753" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B753" s="18"/>
       <c r="C753" s="19"/>
       <c r="D753" s="1"/>
     </row>
-    <row r="754" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B754" s="18"/>
       <c r="C754" s="19"/>
       <c r="D754" s="1"/>
     </row>
-    <row r="755" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B755" s="18"/>
       <c r="C755" s="19"/>
       <c r="D755" s="1"/>
     </row>
-    <row r="756" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B756" s="18"/>
       <c r="C756" s="19"/>
       <c r="D756" s="1"/>
     </row>
-    <row r="757" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B757" s="18"/>
       <c r="C757" s="19"/>
       <c r="D757" s="1"/>
     </row>
-    <row r="758" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B758" s="18"/>
       <c r="C758" s="19"/>
       <c r="D758" s="1"/>
     </row>
-    <row r="759" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B759" s="18"/>
       <c r="C759" s="19"/>
       <c r="D759" s="1"/>
     </row>
-    <row r="760" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B760" s="18"/>
       <c r="C760" s="19"/>
       <c r="D760" s="1"/>
     </row>
-    <row r="761" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B761" s="18"/>
       <c r="C761" s="19"/>
       <c r="D761" s="1"/>
     </row>
-    <row r="762" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B762" s="18"/>
       <c r="C762" s="19"/>
       <c r="D762" s="1"/>
     </row>
-    <row r="763" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B763" s="18"/>
       <c r="C763" s="19"/>
       <c r="D763" s="1"/>
     </row>
-    <row r="764" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B764" s="18"/>
       <c r="C764" s="19"/>
       <c r="D764" s="1"/>
     </row>
-    <row r="765" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B765" s="18"/>
       <c r="C765" s="19"/>
       <c r="D765" s="1"/>
     </row>
-    <row r="766" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B766" s="18"/>
       <c r="C766" s="19"/>
       <c r="D766" s="1"/>
     </row>
-    <row r="767" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B767" s="18"/>
       <c r="C767" s="19"/>
       <c r="D767" s="1"/>
     </row>
-    <row r="768" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B768" s="18"/>
       <c r="C768" s="19"/>
       <c r="D768" s="1"/>
     </row>
-    <row r="769" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B769" s="18"/>
       <c r="C769" s="19"/>
       <c r="D769" s="1"/>
     </row>
-    <row r="770" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B770" s="18"/>
       <c r="C770" s="19"/>
       <c r="D770" s="1"/>
     </row>
-    <row r="771" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B771" s="18"/>
       <c r="C771" s="19"/>
       <c r="D771" s="1"/>
     </row>
-    <row r="772" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B772" s="18"/>
       <c r="C772" s="19"/>
       <c r="D772" s="1"/>
     </row>
-    <row r="773" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B773" s="18"/>
       <c r="C773" s="19"/>
       <c r="D773" s="1"/>
     </row>
-    <row r="774" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B774" s="18"/>
       <c r="C774" s="19"/>
       <c r="D774" s="1"/>
     </row>
-    <row r="775" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B775" s="18"/>
       <c r="C775" s="19"/>
       <c r="D775" s="1"/>
     </row>
-    <row r="776" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B776" s="18"/>
       <c r="C776" s="19"/>
       <c r="D776" s="1"/>
     </row>
-    <row r="777" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B777" s="18"/>
       <c r="C777" s="19"/>
       <c r="D777" s="1"/>
     </row>
-    <row r="778" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B778" s="18"/>
       <c r="C778" s="19"/>
       <c r="D778" s="1"/>
     </row>
-    <row r="779" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B779" s="18"/>
       <c r="C779" s="19"/>
       <c r="D779" s="1"/>
     </row>
-    <row r="780" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B780" s="18"/>
       <c r="C780" s="19"/>
       <c r="D780" s="1"/>
     </row>
-    <row r="781" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B781" s="18"/>
       <c r="C781" s="19"/>
       <c r="D781" s="1"/>
     </row>
-    <row r="782" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B782" s="18"/>
       <c r="C782" s="19"/>
       <c r="D782" s="1"/>
     </row>
-    <row r="783" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B783" s="18"/>
       <c r="C783" s="19"/>
       <c r="D783" s="1"/>
     </row>
-    <row r="784" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B784" s="18"/>
       <c r="C784" s="19"/>
       <c r="D784" s="1"/>
     </row>
-    <row r="785" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B785" s="18"/>
       <c r="C785" s="19"/>
       <c r="D785" s="1"/>
     </row>
-    <row r="786" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B786" s="18"/>
       <c r="C786" s="19"/>
       <c r="D786" s="1"/>
     </row>
-    <row r="787" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B787" s="18"/>
       <c r="C787" s="19"/>
       <c r="D787" s="1"/>
     </row>
-    <row r="788" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B788" s="18"/>
       <c r="C788" s="19"/>
       <c r="D788" s="1"/>
     </row>
-    <row r="789" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B789" s="18"/>
       <c r="C789" s="19"/>
       <c r="D789" s="1"/>
     </row>
-    <row r="790" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B790" s="18"/>
       <c r="C790" s="19"/>
       <c r="D790" s="1"/>
     </row>
-    <row r="791" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B791" s="18"/>
       <c r="C791" s="19"/>
       <c r="D791" s="1"/>
     </row>
-    <row r="792" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B792" s="18"/>
       <c r="C792" s="19"/>
       <c r="D792" s="1"/>
     </row>
-    <row r="793" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B793" s="18"/>
       <c r="C793" s="19"/>
       <c r="D793" s="1"/>
     </row>
-    <row r="794" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B794" s="18"/>
       <c r="C794" s="19"/>
       <c r="D794" s="1"/>
     </row>
-    <row r="795" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B795" s="18"/>
       <c r="C795" s="19"/>
       <c r="D795" s="1"/>
     </row>
-    <row r="796" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B796" s="18"/>
       <c r="C796" s="19"/>
       <c r="D796" s="1"/>
     </row>
-    <row r="797" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B797" s="18"/>
       <c r="C797" s="19"/>
       <c r="D797" s="1"/>
     </row>
-    <row r="798" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B798" s="18"/>
       <c r="C798" s="19"/>
       <c r="D798" s="1"/>
     </row>
-    <row r="799" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B799" s="18"/>
       <c r="C799" s="19"/>
       <c r="D799" s="1"/>
     </row>
-    <row r="800" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B800" s="18"/>
       <c r="C800" s="19"/>
       <c r="D800" s="1"/>
     </row>
-    <row r="801" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B801" s="18"/>
       <c r="C801" s="19"/>
       <c r="D801" s="1"/>
     </row>
-    <row r="802" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B802" s="18"/>
       <c r="C802" s="19"/>
       <c r="D802" s="1"/>
     </row>
-    <row r="803" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B803" s="18"/>
       <c r="C803" s="19"/>
       <c r="D803" s="1"/>
     </row>
-    <row r="804" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B804" s="18"/>
       <c r="C804" s="19"/>
       <c r="D804" s="1"/>
     </row>
-    <row r="805" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B805" s="18"/>
       <c r="C805" s="19"/>
       <c r="D805" s="1"/>
     </row>
-    <row r="806" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B806" s="18"/>
       <c r="C806" s="19"/>
       <c r="D806" s="1"/>
     </row>
-    <row r="807" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B807" s="18"/>
       <c r="C807" s="19"/>
       <c r="D807" s="1"/>
     </row>
-    <row r="808" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B808" s="18"/>
       <c r="C808" s="19"/>
       <c r="D808" s="1"/>
     </row>
-    <row r="809" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B809" s="18"/>
       <c r="C809" s="19"/>
       <c r="D809" s="1"/>
     </row>
-    <row r="810" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B810" s="18"/>
       <c r="C810" s="19"/>
       <c r="D810" s="1"/>
     </row>
-    <row r="811" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B811" s="18"/>
       <c r="C811" s="19"/>
       <c r="D811" s="1"/>
     </row>
-    <row r="812" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B812" s="18"/>
       <c r="C812" s="19"/>
       <c r="D812" s="1"/>
     </row>
-    <row r="813" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B813" s="18"/>
       <c r="C813" s="19"/>
       <c r="D813" s="1"/>
     </row>
-    <row r="814" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B814" s="18"/>
       <c r="C814" s="19"/>
       <c r="D814" s="1"/>
     </row>
-    <row r="815" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B815" s="18"/>
       <c r="C815" s="19"/>
       <c r="D815" s="1"/>
     </row>
-    <row r="816" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B816" s="18"/>
       <c r="C816" s="19"/>
       <c r="D816" s="1"/>
     </row>
-    <row r="817" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B817" s="18"/>
       <c r="C817" s="19"/>
       <c r="D817" s="1"/>
     </row>
-    <row r="818" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B818" s="18"/>
       <c r="C818" s="19"/>
       <c r="D818" s="1"/>
     </row>
-    <row r="819" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B819" s="18"/>
       <c r="C819" s="19"/>
       <c r="D819" s="1"/>
     </row>
-    <row r="820" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B820" s="18"/>
       <c r="C820" s="19"/>
       <c r="D820" s="1"/>
     </row>
-    <row r="821" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B821" s="18"/>
       <c r="C821" s="19"/>
       <c r="D821" s="1"/>
     </row>
-    <row r="822" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B822" s="18"/>
       <c r="C822" s="19"/>
       <c r="D822" s="1"/>
     </row>
-    <row r="823" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B823" s="18"/>
       <c r="C823" s="19"/>
       <c r="D823" s="1"/>
     </row>
-    <row r="824" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B824" s="18"/>
       <c r="C824" s="19"/>
       <c r="D824" s="1"/>
     </row>
-    <row r="825" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B825" s="18"/>
       <c r="C825" s="19"/>
       <c r="D825" s="1"/>
     </row>
-    <row r="826" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B826" s="18"/>
       <c r="C826" s="19"/>
       <c r="D826" s="1"/>
     </row>
-    <row r="827" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B827" s="18"/>
       <c r="C827" s="19"/>
       <c r="D827" s="1"/>
     </row>
-    <row r="828" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B828" s="18"/>
       <c r="C828" s="19"/>
       <c r="D828" s="1"/>
     </row>
-    <row r="829" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B829" s="18"/>
       <c r="C829" s="19"/>
       <c r="D829" s="1"/>
     </row>
-    <row r="830" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B830" s="18"/>
       <c r="C830" s="19"/>
       <c r="D830" s="1"/>
     </row>
-    <row r="831" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B831" s="18"/>
       <c r="C831" s="19"/>
       <c r="D831" s="1"/>
     </row>
-    <row r="832" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B832" s="18"/>
       <c r="C832" s="19"/>
       <c r="D832" s="1"/>
     </row>
-    <row r="833" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B833" s="18"/>
       <c r="C833" s="19"/>
       <c r="D833" s="1"/>
     </row>
-    <row r="834" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B834" s="18"/>
       <c r="C834" s="19"/>
       <c r="D834" s="1"/>
     </row>
-    <row r="835" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B835" s="18"/>
       <c r="C835" s="19"/>
       <c r="D835" s="1"/>
     </row>
-    <row r="836" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B836" s="18"/>
       <c r="C836" s="19"/>
       <c r="D836" s="1"/>
     </row>
-    <row r="837" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B837" s="18"/>
       <c r="C837" s="19"/>
       <c r="D837" s="1"/>
     </row>
-    <row r="838" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B838" s="18"/>
       <c r="C838" s="19"/>
       <c r="D838" s="1"/>
     </row>
-    <row r="839" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B839" s="18"/>
       <c r="C839" s="19"/>
       <c r="D839" s="1"/>
     </row>
-    <row r="840" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B840" s="18"/>
       <c r="C840" s="19"/>
       <c r="D840" s="1"/>
     </row>
-    <row r="841" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B841" s="18"/>
       <c r="C841" s="19"/>
       <c r="D841" s="1"/>
     </row>
-    <row r="842" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B842" s="18"/>
       <c r="C842" s="19"/>
       <c r="D842" s="1"/>
     </row>
-    <row r="843" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B843" s="18"/>
       <c r="C843" s="19"/>
       <c r="D843" s="1"/>
     </row>
-    <row r="844" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B844" s="18"/>
       <c r="C844" s="19"/>
       <c r="D844" s="1"/>
     </row>
-    <row r="845" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B845" s="18"/>
       <c r="C845" s="19"/>
       <c r="D845" s="1"/>
     </row>
-    <row r="846" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B846" s="18"/>
       <c r="C846" s="19"/>
       <c r="D846" s="1"/>
     </row>
-    <row r="847" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B847" s="18"/>
       <c r="C847" s="19"/>
       <c r="D847" s="1"/>
     </row>
-    <row r="848" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B848" s="18"/>
       <c r="C848" s="19"/>
       <c r="D848" s="1"/>
     </row>
-    <row r="849" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B849" s="18"/>
       <c r="C849" s="19"/>
       <c r="D849" s="1"/>
     </row>
-    <row r="850" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B850" s="18"/>
       <c r="C850" s="19"/>
       <c r="D850" s="1"/>
     </row>
-    <row r="851" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B851" s="18"/>
       <c r="C851" s="19"/>
       <c r="D851" s="1"/>
     </row>
-    <row r="852" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B852" s="18"/>
       <c r="C852" s="19"/>
       <c r="D852" s="1"/>
     </row>
-    <row r="853" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B853" s="18"/>
       <c r="C853" s="19"/>
       <c r="D853" s="1"/>
     </row>
-    <row r="854" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B854" s="18"/>
       <c r="C854" s="19"/>
       <c r="D854" s="1"/>
     </row>
-    <row r="855" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B855" s="18"/>
       <c r="C855" s="19"/>
       <c r="D855" s="1"/>
     </row>
-    <row r="856" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B856" s="18"/>
       <c r="C856" s="19"/>
       <c r="D856" s="1"/>
     </row>
-    <row r="857" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B857" s="18"/>
       <c r="C857" s="19"/>
       <c r="D857" s="1"/>
     </row>
-    <row r="858" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B858" s="18"/>
       <c r="C858" s="19"/>
       <c r="D858" s="1"/>
     </row>
-    <row r="859" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B859" s="18"/>
       <c r="C859" s="19"/>
       <c r="D859" s="1"/>
     </row>
-    <row r="860" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B860" s="18"/>
       <c r="C860" s="19"/>
       <c r="D860" s="1"/>
     </row>
-    <row r="861" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B861" s="18"/>
       <c r="C861" s="19"/>
       <c r="D861" s="1"/>
     </row>
-    <row r="862" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B862" s="18"/>
       <c r="C862" s="19"/>
       <c r="D862" s="1"/>
     </row>
-    <row r="863" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B863" s="18"/>
       <c r="C863" s="19"/>
       <c r="D863" s="1"/>
     </row>
-    <row r="864" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B864" s="18"/>
       <c r="C864" s="19"/>
       <c r="D864" s="1"/>
     </row>
-    <row r="865" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B865" s="18"/>
       <c r="C865" s="19"/>
       <c r="D865" s="1"/>
     </row>
-    <row r="866" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B866" s="18"/>
       <c r="C866" s="19"/>
       <c r="D866" s="1"/>
     </row>
-    <row r="867" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B867" s="18"/>
       <c r="C867" s="19"/>
       <c r="D867" s="1"/>
     </row>
-    <row r="868" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B868" s="18"/>
       <c r="C868" s="19"/>
       <c r="D868" s="1"/>
     </row>
-    <row r="869" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B869" s="18"/>
       <c r="C869" s="19"/>
       <c r="D869" s="1"/>
     </row>
-    <row r="870" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B870" s="18"/>
       <c r="C870" s="19"/>
       <c r="D870" s="1"/>
     </row>
-    <row r="871" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B871" s="18"/>
       <c r="C871" s="19"/>
       <c r="D871" s="1"/>
     </row>
-    <row r="872" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B872" s="18"/>
       <c r="C872" s="19"/>
       <c r="D872" s="1"/>
     </row>
-    <row r="873" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B873" s="18"/>
       <c r="C873" s="19"/>
       <c r="D873" s="1"/>
     </row>
-    <row r="874" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B874" s="18"/>
       <c r="C874" s="19"/>
       <c r="D874" s="1"/>
     </row>
-    <row r="875" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B875" s="18"/>
       <c r="C875" s="19"/>
       <c r="D875" s="1"/>
     </row>
-    <row r="876" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B876" s="18"/>
       <c r="C876" s="19"/>
       <c r="D876" s="1"/>
     </row>
-    <row r="877" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B877" s="18"/>
       <c r="C877" s="19"/>
       <c r="D877" s="1"/>
     </row>
-    <row r="878" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B878" s="18"/>
       <c r="C878" s="19"/>
       <c r="D878" s="1"/>
     </row>
-    <row r="879" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B879" s="18"/>
       <c r="C879" s="19"/>
       <c r="D879" s="1"/>
     </row>
-    <row r="880" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B880" s="18"/>
       <c r="C880" s="19"/>
       <c r="D880" s="1"/>
     </row>
-    <row r="881" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B881" s="18"/>
       <c r="C881" s="19"/>
       <c r="D881" s="1"/>
     </row>
-    <row r="882" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B882" s="18"/>
       <c r="C882" s="19"/>
       <c r="D882" s="1"/>
     </row>
-    <row r="883" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B883" s="18"/>
       <c r="C883" s="19"/>
       <c r="D883" s="1"/>
     </row>
-    <row r="884" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B884" s="18"/>
       <c r="C884" s="19"/>
       <c r="D884" s="1"/>
     </row>
-    <row r="885" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B885" s="18"/>
       <c r="C885" s="19"/>
       <c r="D885" s="1"/>
     </row>
-    <row r="886" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B886" s="18"/>
       <c r="C886" s="19"/>
       <c r="D886" s="1"/>
     </row>
-    <row r="887" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B887" s="18"/>
       <c r="C887" s="19"/>
       <c r="D887" s="1"/>
     </row>
-    <row r="888" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B888" s="18"/>
       <c r="C888" s="19"/>
       <c r="D888" s="1"/>
     </row>
-    <row r="889" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B889" s="18"/>
       <c r="C889" s="19"/>
       <c r="D889" s="1"/>
     </row>
-    <row r="890" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B890" s="18"/>
       <c r="C890" s="19"/>
       <c r="D890" s="1"/>
     </row>
-    <row r="891" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B891" s="18"/>
       <c r="C891" s="19"/>
       <c r="D891" s="1"/>
     </row>
-    <row r="892" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B892" s="18"/>
       <c r="C892" s="19"/>
       <c r="D892" s="1"/>
     </row>
-    <row r="893" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B893" s="18"/>
       <c r="C893" s="19"/>
       <c r="D893" s="1"/>
     </row>
-    <row r="894" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B894" s="18"/>
       <c r="C894" s="19"/>
       <c r="D894" s="1"/>
     </row>
-    <row r="895" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B895" s="18"/>
       <c r="C895" s="19"/>
       <c r="D895" s="1"/>
     </row>
-    <row r="896" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B896" s="18"/>
       <c r="C896" s="19"/>
       <c r="D896" s="1"/>
     </row>
-    <row r="897" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B897" s="18"/>
       <c r="C897" s="19"/>
       <c r="D897" s="1"/>
     </row>
-    <row r="898" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B898" s="18"/>
       <c r="C898" s="19"/>
       <c r="D898" s="1"/>
     </row>
-    <row r="899" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B899" s="18"/>
       <c r="C899" s="19"/>
       <c r="D899" s="1"/>
     </row>
-    <row r="900" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B900" s="18"/>
       <c r="C900" s="19"/>
       <c r="D900" s="1"/>
     </row>
-    <row r="901" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B901" s="18"/>
       <c r="C901" s="19"/>
       <c r="D901" s="1"/>
     </row>
-    <row r="902" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B902" s="18"/>
       <c r="C902" s="19"/>
       <c r="D902" s="1"/>
     </row>
-    <row r="903" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B903" s="18"/>
       <c r="C903" s="19"/>
       <c r="D903" s="1"/>
     </row>
-    <row r="904" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B904" s="18"/>
       <c r="C904" s="19"/>
       <c r="D904" s="1"/>
     </row>
-    <row r="905" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B905" s="18"/>
       <c r="C905" s="19"/>
       <c r="D905" s="1"/>
     </row>
-    <row r="906" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B906" s="18"/>
       <c r="C906" s="19"/>
       <c r="D906" s="1"/>
     </row>
-    <row r="907" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B907" s="18"/>
       <c r="C907" s="19"/>
       <c r="D907" s="1"/>
     </row>
-    <row r="908" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B908" s="18"/>
       <c r="C908" s="19"/>
       <c r="D908" s="1"/>
     </row>
-    <row r="909" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B909" s="18"/>
       <c r="C909" s="19"/>
       <c r="D909" s="1"/>
     </row>
-    <row r="910" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B910" s="18"/>
       <c r="C910" s="19"/>
       <c r="D910" s="1"/>
     </row>
-    <row r="911" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B911" s="18"/>
       <c r="C911" s="19"/>
       <c r="D911" s="1"/>
     </row>
-    <row r="912" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B912" s="18"/>
       <c r="C912" s="19"/>
       <c r="D912" s="1"/>
     </row>
-    <row r="913" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B913" s="18"/>
       <c r="C913" s="19"/>
       <c r="D913" s="1"/>
     </row>
-    <row r="914" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B914" s="18"/>
       <c r="C914" s="19"/>
       <c r="D914" s="1"/>
     </row>
-    <row r="915" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B915" s="18"/>
       <c r="C915" s="19"/>
       <c r="D915" s="1"/>
     </row>
-    <row r="916" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B916" s="18"/>
       <c r="C916" s="19"/>
       <c r="D916" s="1"/>
     </row>
-    <row r="917" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B917" s="18"/>
       <c r="C917" s="19"/>
       <c r="D917" s="1"/>
     </row>
-    <row r="918" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B918" s="18"/>
       <c r="C918" s="19"/>
       <c r="D918" s="1"/>
     </row>
-    <row r="919" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B919" s="18"/>
       <c r="C919" s="19"/>
       <c r="D919" s="1"/>
     </row>
-    <row r="920" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B920" s="18"/>
       <c r="C920" s="19"/>
       <c r="D920" s="1"/>
     </row>
-    <row r="921" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B921" s="18"/>
       <c r="C921" s="19"/>
       <c r="D921" s="1"/>
     </row>
-    <row r="922" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B922" s="18"/>
       <c r="C922" s="19"/>
       <c r="D922" s="1"/>
     </row>
-    <row r="923" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B923" s="18"/>
       <c r="C923" s="19"/>
       <c r="D923" s="1"/>
     </row>
-    <row r="924" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B924" s="18"/>
       <c r="C924" s="19"/>
       <c r="D924" s="1"/>
     </row>
-    <row r="925" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B925" s="18"/>
       <c r="C925" s="19"/>
       <c r="D925" s="1"/>
     </row>
-    <row r="926" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B926" s="18"/>
       <c r="C926" s="19"/>
       <c r="D926" s="1"/>
     </row>
-    <row r="927" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B927" s="18"/>
       <c r="C927" s="19"/>
       <c r="D927" s="1"/>
     </row>
-    <row r="928" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B928" s="18"/>
       <c r="C928" s="19"/>
       <c r="D928" s="1"/>
     </row>
-    <row r="929" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B929" s="18"/>
       <c r="C929" s="19"/>
       <c r="D929" s="1"/>
     </row>
-    <row r="930" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B930" s="18"/>
       <c r="C930" s="19"/>
       <c r="D930" s="1"/>
     </row>
-    <row r="931" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B931" s="18"/>
       <c r="C931" s="19"/>
       <c r="D931" s="1"/>
     </row>
-    <row r="932" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B932" s="18"/>
       <c r="C932" s="19"/>
       <c r="D932" s="1"/>
     </row>
-    <row r="933" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B933" s="18"/>
       <c r="C933" s="19"/>
       <c r="D933" s="1"/>
     </row>
-    <row r="934" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B934" s="18"/>
       <c r="C934" s="19"/>
       <c r="D934" s="1"/>
     </row>
-    <row r="935" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B935" s="18"/>
       <c r="C935" s="19"/>
       <c r="D935" s="1"/>
     </row>
-    <row r="936" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B936" s="18"/>
       <c r="C936" s="19"/>
       <c r="D936" s="1"/>
     </row>
-    <row r="937" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B937" s="18"/>
       <c r="C937" s="19"/>
       <c r="D937" s="1"/>
     </row>
-    <row r="938" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B938" s="18"/>
       <c r="C938" s="19"/>
       <c r="D938" s="1"/>
     </row>
-    <row r="939" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B939" s="18"/>
       <c r="C939" s="19"/>
       <c r="D939" s="1"/>
     </row>
-    <row r="940" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B940" s="18"/>
       <c r="C940" s="19"/>
       <c r="D940" s="1"/>
     </row>
-    <row r="941" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B941" s="18"/>
       <c r="C941" s="19"/>
       <c r="D941" s="1"/>
     </row>
-    <row r="942" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B942" s="18"/>
       <c r="C942" s="19"/>
       <c r="D942" s="1"/>
     </row>
-    <row r="943" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B943" s="18"/>
       <c r="C943" s="19"/>
       <c r="D943" s="1"/>
     </row>
-    <row r="944" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B944" s="18"/>
       <c r="C944" s="19"/>
       <c r="D944" s="1"/>
     </row>
-    <row r="945" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B945" s="18"/>
       <c r="C945" s="19"/>
       <c r="D945" s="1"/>
     </row>
-    <row r="946" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B946" s="18"/>
       <c r="C946" s="19"/>
       <c r="D946" s="1"/>
     </row>
-    <row r="947" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B947" s="18"/>
       <c r="C947" s="19"/>
       <c r="D947" s="1"/>
     </row>
-    <row r="948" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B948" s="18"/>
       <c r="C948" s="19"/>
       <c r="D948" s="1"/>
     </row>
-    <row r="949" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B949" s="18"/>
       <c r="C949" s="19"/>
       <c r="D949" s="1"/>
     </row>
-    <row r="950" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B950" s="18"/>
       <c r="C950" s="19"/>
       <c r="D950" s="1"/>
     </row>
-    <row r="951" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B951" s="18"/>
       <c r="C951" s="19"/>
       <c r="D951" s="1"/>
     </row>
-    <row r="952" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B952" s="18"/>
       <c r="C952" s="19"/>
       <c r="D952" s="1"/>
     </row>
-    <row r="953" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B953" s="18"/>
       <c r="C953" s="19"/>
       <c r="D953" s="1"/>
     </row>
-    <row r="954" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B954" s="18"/>
       <c r="C954" s="19"/>
       <c r="D954" s="1"/>
     </row>
-    <row r="955" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B955" s="18"/>
       <c r="C955" s="19"/>
       <c r="D955" s="1"/>
     </row>
-    <row r="956" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B956" s="18"/>
       <c r="C956" s="19"/>
       <c r="D956" s="1"/>
     </row>
-    <row r="957" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B957" s="18"/>
       <c r="C957" s="19"/>
       <c r="D957" s="1"/>
     </row>
-    <row r="958" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B958" s="18"/>
       <c r="C958" s="19"/>
       <c r="D958" s="1"/>
     </row>
-    <row r="959" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B959" s="18"/>
       <c r="C959" s="19"/>
       <c r="D959" s="1"/>
     </row>
-    <row r="960" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B960" s="18"/>
       <c r="C960" s="19"/>
       <c r="D960" s="1"/>
     </row>
-    <row r="961" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B961" s="18"/>
       <c r="C961" s="19"/>
       <c r="D961" s="1"/>
     </row>
-    <row r="962" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B962" s="18"/>
       <c r="C962" s="19"/>
       <c r="D962" s="1"/>
     </row>
-    <row r="963" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B963" s="18"/>
       <c r="C963" s="19"/>
       <c r="D963" s="1"/>
     </row>
-    <row r="964" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B964" s="18"/>
       <c r="C964" s="19"/>
       <c r="D964" s="1"/>
     </row>
-    <row r="965" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B965" s="18"/>
       <c r="C965" s="19"/>
       <c r="D965" s="1"/>
     </row>
-    <row r="966" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B966" s="18"/>
       <c r="C966" s="19"/>
       <c r="D966" s="1"/>
     </row>
-    <row r="967" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B967" s="18"/>
       <c r="C967" s="19"/>
       <c r="D967" s="1"/>
     </row>
-    <row r="968" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B968" s="18"/>
       <c r="C968" s="19"/>
       <c r="D968" s="1"/>
     </row>
-    <row r="969" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B969" s="18"/>
       <c r="C969" s="19"/>
       <c r="D969" s="1"/>
     </row>
-    <row r="970" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B970" s="18"/>
       <c r="C970" s="19"/>
       <c r="D970" s="1"/>
     </row>
-    <row r="971" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B971" s="18"/>
       <c r="C971" s="19"/>
       <c r="D971" s="1"/>
     </row>
-    <row r="972" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B972" s="18"/>
       <c r="C972" s="19"/>
       <c r="D972" s="1"/>
     </row>
-    <row r="973" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B973" s="18"/>
       <c r="C973" s="19"/>
       <c r="D973" s="1"/>
     </row>
-    <row r="974" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B974" s="18"/>
       <c r="C974" s="19"/>
       <c r="D974" s="1"/>
     </row>
-    <row r="975" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B975" s="18"/>
       <c r="C975" s="19"/>
       <c r="D975" s="1"/>
     </row>
-    <row r="976" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B976" s="18"/>
       <c r="C976" s="19"/>
       <c r="D976" s="1"/>
     </row>
-    <row r="977" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B977" s="18"/>
       <c r="C977" s="19"/>
       <c r="D977" s="1"/>
     </row>
-    <row r="978" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B978" s="18"/>
       <c r="C978" s="19"/>
       <c r="D978" s="1"/>
     </row>
-    <row r="979" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B979" s="18"/>
       <c r="C979" s="19"/>
       <c r="D979" s="1"/>
     </row>
-    <row r="980" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B980" s="18"/>
       <c r="C980" s="19"/>
       <c r="D980" s="1"/>
     </row>
-    <row r="981" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B981" s="18"/>
       <c r="C981" s="19"/>
       <c r="D981" s="1"/>
     </row>
-    <row r="982" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B982" s="18"/>
       <c r="C982" s="19"/>
       <c r="D982" s="1"/>
     </row>
-    <row r="983" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B983" s="18"/>
       <c r="C983" s="19"/>
       <c r="D983" s="1"/>
     </row>
-    <row r="984" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B984" s="18"/>
       <c r="C984" s="19"/>
       <c r="D984" s="1"/>
     </row>
-    <row r="985" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B985" s="18"/>
       <c r="C985" s="19"/>
       <c r="D985" s="1"/>
     </row>
-    <row r="986" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B986" s="18"/>
       <c r="C986" s="19"/>
       <c r="D986" s="1"/>
     </row>
-    <row r="987" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B987" s="18"/>
       <c r="C987" s="19"/>
       <c r="D987" s="1"/>
     </row>
-    <row r="988" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B988" s="18"/>
       <c r="C988" s="19"/>
       <c r="D988" s="1"/>
     </row>
-    <row r="989" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B989" s="18"/>
       <c r="C989" s="19"/>
       <c r="D989" s="1"/>
     </row>
-    <row r="990" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B990" s="18"/>
       <c r="C990" s="19"/>
       <c r="D990" s="1"/>
     </row>
-    <row r="991" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B991" s="18"/>
       <c r="C991" s="19"/>
       <c r="D991" s="1"/>
     </row>
-    <row r="992" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B992" s="18"/>
       <c r="C992" s="19"/>
       <c r="D992" s="1"/>
     </row>
-    <row r="993" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B993" s="18"/>
       <c r="C993" s="19"/>
       <c r="D993" s="1"/>
     </row>
-    <row r="994" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B994" s="18"/>
       <c r="C994" s="19"/>
       <c r="D994" s="1"/>
     </row>
-    <row r="995" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B995" s="18"/>
       <c r="C995" s="19"/>
       <c r="D995" s="1"/>
     </row>
-    <row r="996" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B996" s="18"/>
       <c r="C996" s="19"/>
       <c r="D996" s="1"/>
     </row>
-    <row r="997" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B997" s="18"/>
       <c r="C997" s="19"/>
       <c r="D997" s="1"/>
     </row>
-    <row r="998" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B998" s="18"/>
       <c r="C998" s="19"/>
       <c r="D998" s="1"/>
     </row>
-    <row r="999" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B999" s="18"/>
       <c r="C999" s="19"/>
       <c r="D999" s="1"/>
     </row>
-    <row r="1000" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1000" s="18"/>
       <c r="C1000" s="19"/>
       <c r="D1000" s="1"/>
     </row>
-    <row r="1001" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1001" s="18"/>
       <c r="C1001" s="19"/>
       <c r="D1001" s="1"/>
     </row>
-    <row r="1002" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1002" s="18"/>
       <c r="C1002" s="19"/>
       <c r="D1002" s="1"/>
     </row>
-    <row r="1003" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1003" s="18"/>
       <c r="C1003" s="19"/>
       <c r="D1003" s="1"/>
     </row>
-    <row r="1004" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1004" s="18"/>
       <c r="C1004" s="19"/>
       <c r="D1004" s="1"/>
     </row>
-    <row r="1005" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1005" s="18"/>
       <c r="C1005" s="19"/>
       <c r="D1005" s="1"/>
     </row>
-    <row r="1006" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1006" s="18"/>
       <c r="C1006" s="19"/>
       <c r="D1006" s="1"/>
     </row>
-    <row r="1007" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1007" s="18"/>
       <c r="C1007" s="19"/>
       <c r="D1007" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documents/Glossary.xlsx
+++ b/Documents/Glossary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Acronym</t>
   </si>
@@ -92,7 +92,14 @@
     <t>Category</t>
   </si>
   <si>
-    <t>The category, choosen by a user from a previosely given list,  that classifies the type of text that the they will insert.</t>
+    <t>The category, choosen by a user from a previosely given list,  that classifies the type of text that the they will insert. Contains a CategoryName</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>Name of a given category. The name have validations so are not accepted names composed by only numbers, special character 
+or empty spaces</t>
   </si>
   <si>
     <t>ClassicSimilarity</t>
@@ -256,12 +263,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,21 +291,27 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF262D3D"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,29 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -342,11 +332,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,22 +364,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,14 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -443,13 +455,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,73 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,13 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,19 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,13 +581,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,32 +639,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -729,29 +741,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,11 +761,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,17 +791,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,21 +838,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,130 +859,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,34 +1006,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,6 +1104,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9E2F3"/>
@@ -1158,7 +1157,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="B2:D35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="B2:D36">
   <tableColumns count="3">
     <tableColumn id="1" name="Acronym" dataDxfId="0"/>
     <tableColumn id="2" name="Terms/Expressions" dataDxfId="1"/>
@@ -1368,23 +1367,23 @@
   <sheetPr/>
   <dimension ref="B1:H1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4380952380952" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="14.4351851851852" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.552380952381" customWidth="1"/>
-    <col min="3" max="3" width="21.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="103.885714285714" customWidth="1"/>
+    <col min="2" max="2" width="11.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="21.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="103.888888888889" customWidth="1"/>
     <col min="5" max="25" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="4:4">
+    <row r="1" ht="15.15" spans="4:4">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="2:4">
+    <row r="2" ht="15.15" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" ht="15.6" spans="2:4">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -1404,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="45" spans="2:4">
+    <row r="4" ht="46.8" spans="2:4">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
@@ -1413,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="2:4">
+    <row r="5" ht="31.2" spans="2:4">
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -1422,7 +1421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="30" spans="2:4">
+    <row r="6" ht="31.2" spans="2:4">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>9</v>
@@ -1431,7 +1430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="60" spans="2:4">
+    <row r="7" ht="62.4" spans="2:4">
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
         <v>11</v>
@@ -1440,7 +1439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="45" spans="2:4">
+    <row r="8" ht="46.8" spans="2:4">
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
@@ -1449,7 +1448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="2:4">
+    <row r="9" ht="31.2" spans="2:4">
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -1458,7 +1457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="75" spans="2:4">
+    <row r="10" ht="78" spans="2:4">
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
         <v>17</v>
@@ -1467,7 +1466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="2:4">
+    <row r="11" ht="46.8" spans="2:4">
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>19</v>
@@ -1476,7 +1475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="31.2" spans="2:4">
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
         <v>21</v>
@@ -1485,52 +1484,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" ht="46.8" spans="2:4">
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" ht="15.6" spans="2:4">
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" ht="15.6" spans="2:4">
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="2:4">
+    <row r="16" ht="15.6" spans="2:4">
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" ht="31.2" spans="2:4">
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" ht="15.6" spans="2:4">
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>33</v>
@@ -1539,7 +1538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" ht="15.6" spans="2:4">
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>35</v>
@@ -1548,28 +1547,28 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" ht="75" spans="2:4">
+    <row r="20" ht="15.6" spans="2:4">
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" ht="30" spans="2:4">
-      <c r="B21" s="5" t="s">
+    <row r="21" ht="93.6" spans="2:4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="8" t="s">
+    </row>
+    <row r="22" ht="31.2" spans="2:4">
+      <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" ht="30" spans="2:4">
-      <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" ht="31.2" spans="2:4">
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
         <v>44</v>
@@ -1586,7 +1585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="30" spans="2:4">
+    <row r="24" ht="15.6" spans="2:4">
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>46</v>
@@ -1595,39 +1594,39 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="2:4">
+    <row r="25" ht="31.2" spans="2:4">
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" ht="31.5" spans="2:4">
+    <row r="26" ht="15.6" spans="2:4">
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="45" spans="2:4">
+    <row r="27" ht="31.2" spans="2:4">
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" ht="46.8" spans="2:4">
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1636,11 +1635,11 @@
       <c r="C29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="30" spans="2:4">
+    <row r="30" ht="78" spans="2:4">
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
         <v>58</v>
@@ -1649,7 +1648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="45" spans="2:4">
+    <row r="31" ht="46.8" spans="2:4">
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
         <v>60</v>
@@ -1658,19 +1657,19 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="5" t="s">
+    <row r="32" ht="46.8" spans="2:4">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="8" t="s">
+    </row>
+    <row r="33" ht="15.6" spans="2:4">
+      <c r="B33" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
         <v>65</v>
       </c>
@@ -1678,4889 +1677,4898 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" ht="30" spans="2:4">
-      <c r="B34" s="5" t="s">
+    <row r="34" ht="31.2" spans="2:4">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="8" t="s">
+    </row>
+    <row r="35" ht="31.2" spans="2:8">
+      <c r="B35" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" ht="45.75" spans="2:8">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="1"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" ht="47.55" spans="2:4">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="1"/>
-      <c r="G37" s="18"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="16"/>
-      <c r="C79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="2:4">
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="16"/>
-      <c r="C86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="16"/>
-      <c r="C88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="16"/>
-      <c r="C89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="16"/>
-      <c r="C90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="16"/>
-      <c r="C91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="16"/>
-      <c r="C92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="2:4">
-      <c r="B93" s="16"/>
-      <c r="C93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="2:4">
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="2:4">
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="2:4">
-      <c r="B96" s="16"/>
-      <c r="C96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="16"/>
-      <c r="C97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="16"/>
-      <c r="C98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="16"/>
-      <c r="C99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="16"/>
-      <c r="C100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="16"/>
-      <c r="C101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="16"/>
-      <c r="C102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="16"/>
-      <c r="C103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="18"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="16"/>
-      <c r="C104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="18"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="16"/>
-      <c r="C105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="16"/>
-      <c r="C106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="18"/>
       <c r="D106" s="1"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="16"/>
-      <c r="C107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="18"/>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="16"/>
-      <c r="C108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="18"/>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="16"/>
-      <c r="C109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="18"/>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="16"/>
-      <c r="C110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="18"/>
       <c r="D110" s="1"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="16"/>
-      <c r="C111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="18"/>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="16"/>
-      <c r="C112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="18"/>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="2:4">
-      <c r="B113" s="16"/>
-      <c r="C113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="18"/>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="16"/>
-      <c r="C114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="18"/>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="2:4">
-      <c r="B115" s="16"/>
-      <c r="C115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="18"/>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="16"/>
-      <c r="C116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="18"/>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="16"/>
-      <c r="C117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="18"/>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="16"/>
-      <c r="C118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="18"/>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="16"/>
-      <c r="C119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="18"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="16"/>
-      <c r="C120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="18"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="16"/>
-      <c r="C121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="18"/>
       <c r="D121" s="1"/>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="16"/>
-      <c r="C122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="18"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="16"/>
-      <c r="C123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="18"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="2:4">
-      <c r="B124" s="16"/>
-      <c r="C124" s="17"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="18"/>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" s="16"/>
-      <c r="C125" s="17"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="18"/>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" s="16"/>
-      <c r="C126" s="17"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="18"/>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="2:4">
-      <c r="B127" s="16"/>
-      <c r="C127" s="17"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="18"/>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="2:4">
-      <c r="B128" s="16"/>
-      <c r="C128" s="17"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="18"/>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="2:4">
-      <c r="B129" s="16"/>
-      <c r="C129" s="17"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="18"/>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="16"/>
-      <c r="C130" s="17"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="18"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" s="16"/>
-      <c r="C131" s="17"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="18"/>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="16"/>
-      <c r="C132" s="17"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="18"/>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" s="16"/>
-      <c r="C133" s="17"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="18"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="2:4">
-      <c r="B134" s="16"/>
-      <c r="C134" s="17"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="18"/>
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="2:4">
-      <c r="B135" s="16"/>
-      <c r="C135" s="17"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="18"/>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="2:4">
-      <c r="B136" s="16"/>
-      <c r="C136" s="17"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="18"/>
       <c r="D136" s="1"/>
     </row>
     <row r="137" spans="2:4">
-      <c r="B137" s="16"/>
-      <c r="C137" s="17"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="18"/>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="2:4">
-      <c r="B138" s="16"/>
-      <c r="C138" s="17"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="18"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="2:4">
-      <c r="B139" s="16"/>
-      <c r="C139" s="17"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="18"/>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="2:4">
-      <c r="B140" s="16"/>
-      <c r="C140" s="17"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="18"/>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" s="16"/>
-      <c r="C141" s="17"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="18"/>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="2:4">
-      <c r="B142" s="16"/>
-      <c r="C142" s="17"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="18"/>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="2:4">
-      <c r="B143" s="16"/>
-      <c r="C143" s="17"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="18"/>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="2:4">
-      <c r="B144" s="16"/>
-      <c r="C144" s="17"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="18"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="2:4">
-      <c r="B145" s="16"/>
-      <c r="C145" s="17"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="18"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="2:4">
-      <c r="B146" s="16"/>
-      <c r="C146" s="17"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="18"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="2:4">
-      <c r="B147" s="16"/>
-      <c r="C147" s="17"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="18"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="2:4">
-      <c r="B148" s="16"/>
-      <c r="C148" s="17"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="18"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="2:4">
-      <c r="B149" s="16"/>
-      <c r="C149" s="17"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="18"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="2:4">
-      <c r="B150" s="16"/>
-      <c r="C150" s="17"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="18"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="2:4">
-      <c r="B151" s="16"/>
-      <c r="C151" s="17"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="18"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="2:4">
-      <c r="B152" s="16"/>
-      <c r="C152" s="17"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="18"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="2:4">
-      <c r="B153" s="16"/>
-      <c r="C153" s="17"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="18"/>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="2:4">
-      <c r="B154" s="16"/>
-      <c r="C154" s="17"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="18"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="2:4">
-      <c r="B155" s="16"/>
-      <c r="C155" s="17"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="18"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="2:4">
-      <c r="B156" s="16"/>
-      <c r="C156" s="17"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="18"/>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="2:4">
-      <c r="B157" s="16"/>
-      <c r="C157" s="17"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="18"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="2:4">
-      <c r="B158" s="16"/>
-      <c r="C158" s="17"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="18"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="2:4">
-      <c r="B159" s="16"/>
-      <c r="C159" s="17"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="18"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="2:4">
-      <c r="B160" s="16"/>
-      <c r="C160" s="17"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="18"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="2:4">
-      <c r="B161" s="16"/>
-      <c r="C161" s="17"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="18"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="2:4">
-      <c r="B162" s="16"/>
-      <c r="C162" s="17"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="18"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="2:4">
-      <c r="B163" s="16"/>
-      <c r="C163" s="17"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="18"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="2:4">
-      <c r="B164" s="16"/>
-      <c r="C164" s="17"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="18"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="16"/>
-      <c r="C165" s="17"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="18"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="2:4">
-      <c r="B166" s="16"/>
-      <c r="C166" s="17"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="18"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="2:4">
-      <c r="B167" s="16"/>
-      <c r="C167" s="17"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="18"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="2:4">
-      <c r="B168" s="16"/>
-      <c r="C168" s="17"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="18"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="2:4">
-      <c r="B169" s="16"/>
-      <c r="C169" s="17"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="18"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="2:4">
-      <c r="B170" s="16"/>
-      <c r="C170" s="17"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="18"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="2:4">
-      <c r="B171" s="16"/>
-      <c r="C171" s="17"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="18"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="2:4">
-      <c r="B172" s="16"/>
-      <c r="C172" s="17"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="18"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="2:4">
-      <c r="B173" s="16"/>
-      <c r="C173" s="17"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="18"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="2:4">
-      <c r="B174" s="16"/>
-      <c r="C174" s="17"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="18"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="16"/>
-      <c r="C175" s="17"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="18"/>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="16"/>
-      <c r="C176" s="17"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="18"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="16"/>
-      <c r="C177" s="17"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="18"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="16"/>
-      <c r="C178" s="17"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="18"/>
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="16"/>
-      <c r="C179" s="17"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="18"/>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="16"/>
-      <c r="C180" s="17"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="18"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="16"/>
-      <c r="C181" s="17"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="18"/>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="16"/>
-      <c r="C182" s="17"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="18"/>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="16"/>
-      <c r="C183" s="17"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="18"/>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="16"/>
-      <c r="C184" s="17"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="18"/>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="16"/>
-      <c r="C185" s="17"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="18"/>
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="16"/>
-      <c r="C186" s="17"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="18"/>
       <c r="D186" s="1"/>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="16"/>
-      <c r="C187" s="17"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="18"/>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="16"/>
-      <c r="C188" s="17"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="18"/>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="16"/>
-      <c r="C189" s="17"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="18"/>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="16"/>
-      <c r="C190" s="17"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="18"/>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="16"/>
-      <c r="C191" s="17"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="18"/>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="16"/>
-      <c r="C192" s="17"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="18"/>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="16"/>
-      <c r="C193" s="17"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="18"/>
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="16"/>
-      <c r="C194" s="17"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="18"/>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="16"/>
-      <c r="C195" s="17"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="18"/>
       <c r="D195" s="1"/>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="16"/>
-      <c r="C196" s="17"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="18"/>
       <c r="D196" s="1"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="16"/>
-      <c r="C197" s="17"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="18"/>
       <c r="D197" s="1"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="16"/>
-      <c r="C198" s="17"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="18"/>
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="16"/>
-      <c r="C199" s="17"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="18"/>
       <c r="D199" s="1"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="16"/>
-      <c r="C200" s="17"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="18"/>
       <c r="D200" s="1"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="16"/>
-      <c r="C201" s="17"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="18"/>
       <c r="D201" s="1"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="16"/>
-      <c r="C202" s="17"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="18"/>
       <c r="D202" s="1"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="16"/>
-      <c r="C203" s="17"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="18"/>
       <c r="D203" s="1"/>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="16"/>
-      <c r="C204" s="17"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="18"/>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="16"/>
-      <c r="C205" s="17"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="18"/>
       <c r="D205" s="1"/>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="16"/>
-      <c r="C206" s="17"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="18"/>
       <c r="D206" s="1"/>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="16"/>
-      <c r="C207" s="17"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="18"/>
       <c r="D207" s="1"/>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="16"/>
-      <c r="C208" s="17"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="18"/>
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="16"/>
-      <c r="C209" s="17"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="18"/>
       <c r="D209" s="1"/>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="16"/>
-      <c r="C210" s="17"/>
+      <c r="B210" s="17"/>
+      <c r="C210" s="18"/>
       <c r="D210" s="1"/>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="16"/>
-      <c r="C211" s="17"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="18"/>
       <c r="D211" s="1"/>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="16"/>
-      <c r="C212" s="17"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="18"/>
       <c r="D212" s="1"/>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="16"/>
-      <c r="C213" s="17"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="18"/>
       <c r="D213" s="1"/>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="16"/>
-      <c r="C214" s="17"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="18"/>
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="16"/>
-      <c r="C215" s="17"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="18"/>
       <c r="D215" s="1"/>
     </row>
     <row r="216" spans="2:4">
-      <c r="B216" s="16"/>
-      <c r="C216" s="17"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="18"/>
       <c r="D216" s="1"/>
     </row>
     <row r="217" spans="2:4">
-      <c r="B217" s="16"/>
-      <c r="C217" s="17"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="18"/>
       <c r="D217" s="1"/>
     </row>
     <row r="218" spans="2:4">
-      <c r="B218" s="16"/>
-      <c r="C218" s="17"/>
+      <c r="B218" s="17"/>
+      <c r="C218" s="18"/>
       <c r="D218" s="1"/>
     </row>
     <row r="219" spans="2:4">
-      <c r="B219" s="16"/>
-      <c r="C219" s="17"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="18"/>
       <c r="D219" s="1"/>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" s="16"/>
-      <c r="C220" s="17"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="18"/>
       <c r="D220" s="1"/>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="16"/>
-      <c r="C221" s="17"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="18"/>
       <c r="D221" s="1"/>
     </row>
     <row r="222" spans="2:4">
-      <c r="B222" s="16"/>
-      <c r="C222" s="17"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="18"/>
       <c r="D222" s="1"/>
     </row>
     <row r="223" spans="2:4">
-      <c r="B223" s="16"/>
-      <c r="C223" s="17"/>
+      <c r="B223" s="17"/>
+      <c r="C223" s="18"/>
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="16"/>
-      <c r="C224" s="17"/>
+      <c r="B224" s="17"/>
+      <c r="C224" s="18"/>
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="16"/>
-      <c r="C225" s="17"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="18"/>
       <c r="D225" s="1"/>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="16"/>
-      <c r="C226" s="17"/>
+      <c r="B226" s="17"/>
+      <c r="C226" s="18"/>
       <c r="D226" s="1"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="16"/>
-      <c r="C227" s="17"/>
+      <c r="B227" s="17"/>
+      <c r="C227" s="18"/>
       <c r="D227" s="1"/>
     </row>
     <row r="228" spans="2:4">
-      <c r="B228" s="16"/>
-      <c r="C228" s="17"/>
+      <c r="B228" s="17"/>
+      <c r="C228" s="18"/>
       <c r="D228" s="1"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="16"/>
-      <c r="C229" s="17"/>
+      <c r="B229" s="17"/>
+      <c r="C229" s="18"/>
       <c r="D229" s="1"/>
     </row>
     <row r="230" spans="2:4">
-      <c r="B230" s="16"/>
-      <c r="C230" s="17"/>
+      <c r="B230" s="17"/>
+      <c r="C230" s="18"/>
       <c r="D230" s="1"/>
     </row>
     <row r="231" spans="2:4">
-      <c r="B231" s="16"/>
-      <c r="C231" s="17"/>
+      <c r="B231" s="17"/>
+      <c r="C231" s="18"/>
       <c r="D231" s="1"/>
     </row>
     <row r="232" spans="2:4">
-      <c r="B232" s="16"/>
-      <c r="C232" s="17"/>
+      <c r="B232" s="17"/>
+      <c r="C232" s="18"/>
       <c r="D232" s="1"/>
     </row>
     <row r="233" spans="2:4">
-      <c r="B233" s="16"/>
-      <c r="C233" s="17"/>
+      <c r="B233" s="17"/>
+      <c r="C233" s="18"/>
       <c r="D233" s="1"/>
     </row>
     <row r="234" spans="2:4">
-      <c r="B234" s="16"/>
-      <c r="C234" s="17"/>
+      <c r="B234" s="17"/>
+      <c r="C234" s="18"/>
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="2:4">
-      <c r="B235" s="16"/>
-      <c r="C235" s="17"/>
+      <c r="B235" s="17"/>
+      <c r="C235" s="18"/>
       <c r="D235" s="1"/>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="16"/>
-      <c r="C236" s="17"/>
+      <c r="B236" s="17"/>
+      <c r="C236" s="18"/>
       <c r="D236" s="1"/>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" s="16"/>
-      <c r="C237" s="17"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="18"/>
       <c r="D237" s="1"/>
     </row>
     <row r="238" spans="2:4">
-      <c r="B238" s="16"/>
-      <c r="C238" s="17"/>
+      <c r="B238" s="17"/>
+      <c r="C238" s="18"/>
       <c r="D238" s="1"/>
     </row>
     <row r="239" spans="2:4">
-      <c r="B239" s="16"/>
-      <c r="C239" s="17"/>
+      <c r="B239" s="17"/>
+      <c r="C239" s="18"/>
       <c r="D239" s="1"/>
     </row>
     <row r="240" spans="2:4">
-      <c r="B240" s="16"/>
-      <c r="C240" s="17"/>
+      <c r="B240" s="17"/>
+      <c r="C240" s="18"/>
       <c r="D240" s="1"/>
     </row>
     <row r="241" spans="2:4">
-      <c r="B241" s="16"/>
-      <c r="C241" s="17"/>
+      <c r="B241" s="17"/>
+      <c r="C241" s="18"/>
       <c r="D241" s="1"/>
     </row>
     <row r="242" spans="2:4">
-      <c r="B242" s="16"/>
-      <c r="C242" s="17"/>
+      <c r="B242" s="17"/>
+      <c r="C242" s="18"/>
       <c r="D242" s="1"/>
     </row>
     <row r="243" spans="2:4">
-      <c r="B243" s="16"/>
-      <c r="C243" s="17"/>
+      <c r="B243" s="17"/>
+      <c r="C243" s="18"/>
       <c r="D243" s="1"/>
     </row>
     <row r="244" spans="2:4">
-      <c r="B244" s="16"/>
-      <c r="C244" s="17"/>
+      <c r="B244" s="17"/>
+      <c r="C244" s="18"/>
       <c r="D244" s="1"/>
     </row>
     <row r="245" spans="2:4">
-      <c r="B245" s="16"/>
-      <c r="C245" s="17"/>
+      <c r="B245" s="17"/>
+      <c r="C245" s="18"/>
       <c r="D245" s="1"/>
     </row>
     <row r="246" spans="2:4">
-      <c r="B246" s="16"/>
-      <c r="C246" s="17"/>
+      <c r="B246" s="17"/>
+      <c r="C246" s="18"/>
       <c r="D246" s="1"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="16"/>
-      <c r="C247" s="17"/>
+      <c r="B247" s="17"/>
+      <c r="C247" s="18"/>
       <c r="D247" s="1"/>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="16"/>
-      <c r="C248" s="17"/>
+      <c r="B248" s="17"/>
+      <c r="C248" s="18"/>
       <c r="D248" s="1"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="16"/>
-      <c r="C249" s="17"/>
+      <c r="B249" s="17"/>
+      <c r="C249" s="18"/>
       <c r="D249" s="1"/>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="16"/>
-      <c r="C250" s="17"/>
+      <c r="B250" s="17"/>
+      <c r="C250" s="18"/>
       <c r="D250" s="1"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="16"/>
-      <c r="C251" s="17"/>
+      <c r="B251" s="17"/>
+      <c r="C251" s="18"/>
       <c r="D251" s="1"/>
     </row>
     <row r="252" spans="2:4">
-      <c r="B252" s="16"/>
-      <c r="C252" s="17"/>
+      <c r="B252" s="17"/>
+      <c r="C252" s="18"/>
       <c r="D252" s="1"/>
     </row>
     <row r="253" spans="2:4">
-      <c r="B253" s="16"/>
-      <c r="C253" s="17"/>
+      <c r="B253" s="17"/>
+      <c r="C253" s="18"/>
       <c r="D253" s="1"/>
     </row>
     <row r="254" spans="2:4">
-      <c r="B254" s="16"/>
-      <c r="C254" s="17"/>
+      <c r="B254" s="17"/>
+      <c r="C254" s="18"/>
       <c r="D254" s="1"/>
     </row>
     <row r="255" spans="2:4">
-      <c r="B255" s="16"/>
-      <c r="C255" s="17"/>
+      <c r="B255" s="17"/>
+      <c r="C255" s="18"/>
       <c r="D255" s="1"/>
     </row>
     <row r="256" spans="2:4">
-      <c r="B256" s="16"/>
-      <c r="C256" s="17"/>
+      <c r="B256" s="17"/>
+      <c r="C256" s="18"/>
       <c r="D256" s="1"/>
     </row>
     <row r="257" spans="2:4">
-      <c r="B257" s="16"/>
-      <c r="C257" s="17"/>
+      <c r="B257" s="17"/>
+      <c r="C257" s="18"/>
       <c r="D257" s="1"/>
     </row>
     <row r="258" spans="2:4">
-      <c r="B258" s="16"/>
-      <c r="C258" s="17"/>
+      <c r="B258" s="17"/>
+      <c r="C258" s="18"/>
       <c r="D258" s="1"/>
     </row>
     <row r="259" spans="2:4">
-      <c r="B259" s="16"/>
-      <c r="C259" s="17"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="18"/>
       <c r="D259" s="1"/>
     </row>
     <row r="260" spans="2:4">
-      <c r="B260" s="16"/>
-      <c r="C260" s="17"/>
+      <c r="B260" s="17"/>
+      <c r="C260" s="18"/>
       <c r="D260" s="1"/>
     </row>
     <row r="261" spans="2:4">
-      <c r="B261" s="16"/>
-      <c r="C261" s="17"/>
+      <c r="B261" s="17"/>
+      <c r="C261" s="18"/>
       <c r="D261" s="1"/>
     </row>
     <row r="262" spans="2:4">
-      <c r="B262" s="16"/>
-      <c r="C262" s="17"/>
+      <c r="B262" s="17"/>
+      <c r="C262" s="18"/>
       <c r="D262" s="1"/>
     </row>
     <row r="263" spans="2:4">
-      <c r="B263" s="16"/>
-      <c r="C263" s="17"/>
+      <c r="B263" s="17"/>
+      <c r="C263" s="18"/>
       <c r="D263" s="1"/>
     </row>
     <row r="264" spans="2:4">
-      <c r="B264" s="16"/>
-      <c r="C264" s="17"/>
+      <c r="B264" s="17"/>
+      <c r="C264" s="18"/>
       <c r="D264" s="1"/>
     </row>
     <row r="265" spans="2:4">
-      <c r="B265" s="16"/>
-      <c r="C265" s="17"/>
+      <c r="B265" s="17"/>
+      <c r="C265" s="18"/>
       <c r="D265" s="1"/>
     </row>
     <row r="266" spans="2:4">
-      <c r="B266" s="16"/>
-      <c r="C266" s="17"/>
+      <c r="B266" s="17"/>
+      <c r="C266" s="18"/>
       <c r="D266" s="1"/>
     </row>
     <row r="267" spans="2:4">
-      <c r="B267" s="16"/>
-      <c r="C267" s="17"/>
+      <c r="B267" s="17"/>
+      <c r="C267" s="18"/>
       <c r="D267" s="1"/>
     </row>
     <row r="268" spans="2:4">
-      <c r="B268" s="16"/>
-      <c r="C268" s="17"/>
+      <c r="B268" s="17"/>
+      <c r="C268" s="18"/>
       <c r="D268" s="1"/>
     </row>
     <row r="269" spans="2:4">
-      <c r="B269" s="16"/>
-      <c r="C269" s="17"/>
+      <c r="B269" s="17"/>
+      <c r="C269" s="18"/>
       <c r="D269" s="1"/>
     </row>
     <row r="270" spans="2:4">
-      <c r="B270" s="16"/>
-      <c r="C270" s="17"/>
+      <c r="B270" s="17"/>
+      <c r="C270" s="18"/>
       <c r="D270" s="1"/>
     </row>
     <row r="271" spans="2:4">
-      <c r="B271" s="16"/>
-      <c r="C271" s="17"/>
+      <c r="B271" s="17"/>
+      <c r="C271" s="18"/>
       <c r="D271" s="1"/>
     </row>
     <row r="272" spans="2:4">
-      <c r="B272" s="16"/>
-      <c r="C272" s="17"/>
+      <c r="B272" s="17"/>
+      <c r="C272" s="18"/>
       <c r="D272" s="1"/>
     </row>
     <row r="273" spans="2:4">
-      <c r="B273" s="16"/>
-      <c r="C273" s="17"/>
+      <c r="B273" s="17"/>
+      <c r="C273" s="18"/>
       <c r="D273" s="1"/>
     </row>
     <row r="274" spans="2:4">
-      <c r="B274" s="16"/>
-      <c r="C274" s="17"/>
+      <c r="B274" s="17"/>
+      <c r="C274" s="18"/>
       <c r="D274" s="1"/>
     </row>
     <row r="275" spans="2:4">
-      <c r="B275" s="16"/>
-      <c r="C275" s="17"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="18"/>
       <c r="D275" s="1"/>
     </row>
     <row r="276" spans="2:4">
-      <c r="B276" s="16"/>
-      <c r="C276" s="17"/>
+      <c r="B276" s="17"/>
+      <c r="C276" s="18"/>
       <c r="D276" s="1"/>
     </row>
     <row r="277" spans="2:4">
-      <c r="B277" s="16"/>
-      <c r="C277" s="17"/>
+      <c r="B277" s="17"/>
+      <c r="C277" s="18"/>
       <c r="D277" s="1"/>
     </row>
     <row r="278" spans="2:4">
-      <c r="B278" s="16"/>
-      <c r="C278" s="17"/>
+      <c r="B278" s="17"/>
+      <c r="C278" s="18"/>
       <c r="D278" s="1"/>
     </row>
     <row r="279" spans="2:4">
-      <c r="B279" s="16"/>
-      <c r="C279" s="17"/>
+      <c r="B279" s="17"/>
+      <c r="C279" s="18"/>
       <c r="D279" s="1"/>
     </row>
     <row r="280" spans="2:4">
-      <c r="B280" s="16"/>
-      <c r="C280" s="17"/>
+      <c r="B280" s="17"/>
+      <c r="C280" s="18"/>
       <c r="D280" s="1"/>
     </row>
     <row r="281" spans="2:4">
-      <c r="B281" s="16"/>
-      <c r="C281" s="17"/>
+      <c r="B281" s="17"/>
+      <c r="C281" s="18"/>
       <c r="D281" s="1"/>
     </row>
     <row r="282" spans="2:4">
-      <c r="B282" s="16"/>
-      <c r="C282" s="17"/>
+      <c r="B282" s="17"/>
+      <c r="C282" s="18"/>
       <c r="D282" s="1"/>
     </row>
     <row r="283" spans="2:4">
-      <c r="B283" s="16"/>
-      <c r="C283" s="17"/>
+      <c r="B283" s="17"/>
+      <c r="C283" s="18"/>
       <c r="D283" s="1"/>
     </row>
     <row r="284" spans="2:4">
-      <c r="B284" s="16"/>
-      <c r="C284" s="17"/>
+      <c r="B284" s="17"/>
+      <c r="C284" s="18"/>
       <c r="D284" s="1"/>
     </row>
     <row r="285" spans="2:4">
-      <c r="B285" s="16"/>
-      <c r="C285" s="17"/>
+      <c r="B285" s="17"/>
+      <c r="C285" s="18"/>
       <c r="D285" s="1"/>
     </row>
     <row r="286" spans="2:4">
-      <c r="B286" s="16"/>
-      <c r="C286" s="17"/>
+      <c r="B286" s="17"/>
+      <c r="C286" s="18"/>
       <c r="D286" s="1"/>
     </row>
     <row r="287" spans="2:4">
-      <c r="B287" s="16"/>
-      <c r="C287" s="17"/>
+      <c r="B287" s="17"/>
+      <c r="C287" s="18"/>
       <c r="D287" s="1"/>
     </row>
     <row r="288" spans="2:4">
-      <c r="B288" s="16"/>
-      <c r="C288" s="17"/>
+      <c r="B288" s="17"/>
+      <c r="C288" s="18"/>
       <c r="D288" s="1"/>
     </row>
     <row r="289" spans="2:4">
-      <c r="B289" s="16"/>
-      <c r="C289" s="17"/>
+      <c r="B289" s="17"/>
+      <c r="C289" s="18"/>
       <c r="D289" s="1"/>
     </row>
     <row r="290" spans="2:4">
-      <c r="B290" s="16"/>
-      <c r="C290" s="17"/>
+      <c r="B290" s="17"/>
+      <c r="C290" s="18"/>
       <c r="D290" s="1"/>
     </row>
     <row r="291" spans="2:4">
-      <c r="B291" s="16"/>
-      <c r="C291" s="17"/>
+      <c r="B291" s="17"/>
+      <c r="C291" s="18"/>
       <c r="D291" s="1"/>
     </row>
     <row r="292" spans="2:4">
-      <c r="B292" s="16"/>
-      <c r="C292" s="17"/>
+      <c r="B292" s="17"/>
+      <c r="C292" s="18"/>
       <c r="D292" s="1"/>
     </row>
     <row r="293" spans="2:4">
-      <c r="B293" s="16"/>
-      <c r="C293" s="17"/>
+      <c r="B293" s="17"/>
+      <c r="C293" s="18"/>
       <c r="D293" s="1"/>
     </row>
     <row r="294" spans="2:4">
-      <c r="B294" s="16"/>
-      <c r="C294" s="17"/>
+      <c r="B294" s="17"/>
+      <c r="C294" s="18"/>
       <c r="D294" s="1"/>
     </row>
     <row r="295" spans="2:4">
-      <c r="B295" s="16"/>
-      <c r="C295" s="17"/>
+      <c r="B295" s="17"/>
+      <c r="C295" s="18"/>
       <c r="D295" s="1"/>
     </row>
     <row r="296" spans="2:4">
-      <c r="B296" s="16"/>
-      <c r="C296" s="17"/>
+      <c r="B296" s="17"/>
+      <c r="C296" s="18"/>
       <c r="D296" s="1"/>
     </row>
     <row r="297" spans="2:4">
-      <c r="B297" s="16"/>
-      <c r="C297" s="17"/>
+      <c r="B297" s="17"/>
+      <c r="C297" s="18"/>
       <c r="D297" s="1"/>
     </row>
     <row r="298" spans="2:4">
-      <c r="B298" s="16"/>
-      <c r="C298" s="17"/>
+      <c r="B298" s="17"/>
+      <c r="C298" s="18"/>
       <c r="D298" s="1"/>
     </row>
     <row r="299" spans="2:4">
-      <c r="B299" s="16"/>
-      <c r="C299" s="17"/>
+      <c r="B299" s="17"/>
+      <c r="C299" s="18"/>
       <c r="D299" s="1"/>
     </row>
     <row r="300" spans="2:4">
-      <c r="B300" s="16"/>
-      <c r="C300" s="17"/>
+      <c r="B300" s="17"/>
+      <c r="C300" s="18"/>
       <c r="D300" s="1"/>
     </row>
     <row r="301" spans="2:4">
-      <c r="B301" s="16"/>
-      <c r="C301" s="17"/>
+      <c r="B301" s="17"/>
+      <c r="C301" s="18"/>
       <c r="D301" s="1"/>
     </row>
     <row r="302" spans="2:4">
-      <c r="B302" s="16"/>
-      <c r="C302" s="17"/>
+      <c r="B302" s="17"/>
+      <c r="C302" s="18"/>
       <c r="D302" s="1"/>
     </row>
     <row r="303" spans="2:4">
-      <c r="B303" s="16"/>
-      <c r="C303" s="17"/>
+      <c r="B303" s="17"/>
+      <c r="C303" s="18"/>
       <c r="D303" s="1"/>
     </row>
     <row r="304" spans="2:4">
-      <c r="B304" s="16"/>
-      <c r="C304" s="17"/>
+      <c r="B304" s="17"/>
+      <c r="C304" s="18"/>
       <c r="D304" s="1"/>
     </row>
     <row r="305" spans="2:4">
-      <c r="B305" s="16"/>
-      <c r="C305" s="17"/>
+      <c r="B305" s="17"/>
+      <c r="C305" s="18"/>
       <c r="D305" s="1"/>
     </row>
     <row r="306" spans="2:4">
-      <c r="B306" s="16"/>
-      <c r="C306" s="17"/>
+      <c r="B306" s="17"/>
+      <c r="C306" s="18"/>
       <c r="D306" s="1"/>
     </row>
     <row r="307" spans="2:4">
-      <c r="B307" s="16"/>
-      <c r="C307" s="17"/>
+      <c r="B307" s="17"/>
+      <c r="C307" s="18"/>
       <c r="D307" s="1"/>
     </row>
     <row r="308" spans="2:4">
-      <c r="B308" s="16"/>
-      <c r="C308" s="17"/>
+      <c r="B308" s="17"/>
+      <c r="C308" s="18"/>
       <c r="D308" s="1"/>
     </row>
     <row r="309" spans="2:4">
-      <c r="B309" s="16"/>
-      <c r="C309" s="17"/>
+      <c r="B309" s="17"/>
+      <c r="C309" s="18"/>
       <c r="D309" s="1"/>
     </row>
     <row r="310" spans="2:4">
-      <c r="B310" s="16"/>
-      <c r="C310" s="17"/>
+      <c r="B310" s="17"/>
+      <c r="C310" s="18"/>
       <c r="D310" s="1"/>
     </row>
     <row r="311" spans="2:4">
-      <c r="B311" s="16"/>
-      <c r="C311" s="17"/>
+      <c r="B311" s="17"/>
+      <c r="C311" s="18"/>
       <c r="D311" s="1"/>
     </row>
     <row r="312" spans="2:4">
-      <c r="B312" s="16"/>
-      <c r="C312" s="17"/>
+      <c r="B312" s="17"/>
+      <c r="C312" s="18"/>
       <c r="D312" s="1"/>
     </row>
     <row r="313" spans="2:4">
-      <c r="B313" s="16"/>
-      <c r="C313" s="17"/>
+      <c r="B313" s="17"/>
+      <c r="C313" s="18"/>
       <c r="D313" s="1"/>
     </row>
     <row r="314" spans="2:4">
-      <c r="B314" s="16"/>
-      <c r="C314" s="17"/>
+      <c r="B314" s="17"/>
+      <c r="C314" s="18"/>
       <c r="D314" s="1"/>
     </row>
     <row r="315" spans="2:4">
-      <c r="B315" s="16"/>
-      <c r="C315" s="17"/>
+      <c r="B315" s="17"/>
+      <c r="C315" s="18"/>
       <c r="D315" s="1"/>
     </row>
     <row r="316" spans="2:4">
-      <c r="B316" s="16"/>
-      <c r="C316" s="17"/>
+      <c r="B316" s="17"/>
+      <c r="C316" s="18"/>
       <c r="D316" s="1"/>
     </row>
     <row r="317" spans="2:4">
-      <c r="B317" s="16"/>
-      <c r="C317" s="17"/>
+      <c r="B317" s="17"/>
+      <c r="C317" s="18"/>
       <c r="D317" s="1"/>
     </row>
     <row r="318" spans="2:4">
-      <c r="B318" s="16"/>
-      <c r="C318" s="17"/>
+      <c r="B318" s="17"/>
+      <c r="C318" s="18"/>
       <c r="D318" s="1"/>
     </row>
     <row r="319" spans="2:4">
-      <c r="B319" s="16"/>
-      <c r="C319" s="17"/>
+      <c r="B319" s="17"/>
+      <c r="C319" s="18"/>
       <c r="D319" s="1"/>
     </row>
     <row r="320" spans="2:4">
-      <c r="B320" s="16"/>
-      <c r="C320" s="17"/>
+      <c r="B320" s="17"/>
+      <c r="C320" s="18"/>
       <c r="D320" s="1"/>
     </row>
     <row r="321" spans="2:4">
-      <c r="B321" s="16"/>
-      <c r="C321" s="17"/>
+      <c r="B321" s="17"/>
+      <c r="C321" s="18"/>
       <c r="D321" s="1"/>
     </row>
     <row r="322" spans="2:4">
-      <c r="B322" s="16"/>
-      <c r="C322" s="17"/>
+      <c r="B322" s="17"/>
+      <c r="C322" s="18"/>
       <c r="D322" s="1"/>
     </row>
     <row r="323" spans="2:4">
-      <c r="B323" s="16"/>
-      <c r="C323" s="17"/>
+      <c r="B323" s="17"/>
+      <c r="C323" s="18"/>
       <c r="D323" s="1"/>
     </row>
     <row r="324" spans="2:4">
-      <c r="B324" s="16"/>
-      <c r="C324" s="17"/>
+      <c r="B324" s="17"/>
+      <c r="C324" s="18"/>
       <c r="D324" s="1"/>
     </row>
     <row r="325" spans="2:4">
-      <c r="B325" s="16"/>
-      <c r="C325" s="17"/>
+      <c r="B325" s="17"/>
+      <c r="C325" s="18"/>
       <c r="D325" s="1"/>
     </row>
     <row r="326" spans="2:4">
-      <c r="B326" s="16"/>
-      <c r="C326" s="17"/>
+      <c r="B326" s="17"/>
+      <c r="C326" s="18"/>
       <c r="D326" s="1"/>
     </row>
     <row r="327" spans="2:4">
-      <c r="B327" s="16"/>
-      <c r="C327" s="17"/>
+      <c r="B327" s="17"/>
+      <c r="C327" s="18"/>
       <c r="D327" s="1"/>
     </row>
     <row r="328" spans="2:4">
-      <c r="B328" s="16"/>
-      <c r="C328" s="17"/>
+      <c r="B328" s="17"/>
+      <c r="C328" s="18"/>
       <c r="D328" s="1"/>
     </row>
     <row r="329" spans="2:4">
-      <c r="B329" s="16"/>
-      <c r="C329" s="17"/>
+      <c r="B329" s="17"/>
+      <c r="C329" s="18"/>
       <c r="D329" s="1"/>
     </row>
     <row r="330" spans="2:4">
-      <c r="B330" s="16"/>
-      <c r="C330" s="17"/>
+      <c r="B330" s="17"/>
+      <c r="C330" s="18"/>
       <c r="D330" s="1"/>
     </row>
     <row r="331" spans="2:4">
-      <c r="B331" s="16"/>
-      <c r="C331" s="17"/>
+      <c r="B331" s="17"/>
+      <c r="C331" s="18"/>
       <c r="D331" s="1"/>
     </row>
     <row r="332" spans="2:4">
-      <c r="B332" s="16"/>
-      <c r="C332" s="17"/>
+      <c r="B332" s="17"/>
+      <c r="C332" s="18"/>
       <c r="D332" s="1"/>
     </row>
     <row r="333" spans="2:4">
-      <c r="B333" s="16"/>
-      <c r="C333" s="17"/>
+      <c r="B333" s="17"/>
+      <c r="C333" s="18"/>
       <c r="D333" s="1"/>
     </row>
     <row r="334" spans="2:4">
-      <c r="B334" s="16"/>
-      <c r="C334" s="17"/>
+      <c r="B334" s="17"/>
+      <c r="C334" s="18"/>
       <c r="D334" s="1"/>
     </row>
     <row r="335" spans="2:4">
-      <c r="B335" s="16"/>
-      <c r="C335" s="17"/>
+      <c r="B335" s="17"/>
+      <c r="C335" s="18"/>
       <c r="D335" s="1"/>
     </row>
     <row r="336" spans="2:4">
-      <c r="B336" s="16"/>
-      <c r="C336" s="17"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="18"/>
       <c r="D336" s="1"/>
     </row>
     <row r="337" spans="2:4">
-      <c r="B337" s="16"/>
-      <c r="C337" s="17"/>
+      <c r="B337" s="17"/>
+      <c r="C337" s="18"/>
       <c r="D337" s="1"/>
     </row>
     <row r="338" spans="2:4">
-      <c r="B338" s="16"/>
-      <c r="C338" s="17"/>
+      <c r="B338" s="17"/>
+      <c r="C338" s="18"/>
       <c r="D338" s="1"/>
     </row>
     <row r="339" spans="2:4">
-      <c r="B339" s="16"/>
-      <c r="C339" s="17"/>
+      <c r="B339" s="17"/>
+      <c r="C339" s="18"/>
       <c r="D339" s="1"/>
     </row>
     <row r="340" spans="2:4">
-      <c r="B340" s="16"/>
-      <c r="C340" s="17"/>
+      <c r="B340" s="17"/>
+      <c r="C340" s="18"/>
       <c r="D340" s="1"/>
     </row>
     <row r="341" spans="2:4">
-      <c r="B341" s="16"/>
-      <c r="C341" s="17"/>
+      <c r="B341" s="17"/>
+      <c r="C341" s="18"/>
       <c r="D341" s="1"/>
     </row>
     <row r="342" spans="2:4">
-      <c r="B342" s="16"/>
-      <c r="C342" s="17"/>
+      <c r="B342" s="17"/>
+      <c r="C342" s="18"/>
       <c r="D342" s="1"/>
     </row>
     <row r="343" spans="2:4">
-      <c r="B343" s="16"/>
-      <c r="C343" s="17"/>
+      <c r="B343" s="17"/>
+      <c r="C343" s="18"/>
       <c r="D343" s="1"/>
     </row>
     <row r="344" spans="2:4">
-      <c r="B344" s="16"/>
-      <c r="C344" s="17"/>
+      <c r="B344" s="17"/>
+      <c r="C344" s="18"/>
       <c r="D344" s="1"/>
     </row>
     <row r="345" spans="2:4">
-      <c r="B345" s="16"/>
-      <c r="C345" s="17"/>
+      <c r="B345" s="17"/>
+      <c r="C345" s="18"/>
       <c r="D345" s="1"/>
     </row>
     <row r="346" spans="2:4">
-      <c r="B346" s="16"/>
-      <c r="C346" s="17"/>
+      <c r="B346" s="17"/>
+      <c r="C346" s="18"/>
       <c r="D346" s="1"/>
     </row>
     <row r="347" spans="2:4">
-      <c r="B347" s="16"/>
-      <c r="C347" s="17"/>
+      <c r="B347" s="17"/>
+      <c r="C347" s="18"/>
       <c r="D347" s="1"/>
     </row>
     <row r="348" spans="2:4">
-      <c r="B348" s="16"/>
-      <c r="C348" s="17"/>
+      <c r="B348" s="17"/>
+      <c r="C348" s="18"/>
       <c r="D348" s="1"/>
     </row>
     <row r="349" spans="2:4">
-      <c r="B349" s="16"/>
-      <c r="C349" s="17"/>
+      <c r="B349" s="17"/>
+      <c r="C349" s="18"/>
       <c r="D349" s="1"/>
     </row>
     <row r="350" spans="2:4">
-      <c r="B350" s="16"/>
-      <c r="C350" s="17"/>
+      <c r="B350" s="17"/>
+      <c r="C350" s="18"/>
       <c r="D350" s="1"/>
     </row>
     <row r="351" spans="2:4">
-      <c r="B351" s="16"/>
-      <c r="C351" s="17"/>
+      <c r="B351" s="17"/>
+      <c r="C351" s="18"/>
       <c r="D351" s="1"/>
     </row>
     <row r="352" spans="2:4">
-      <c r="B352" s="16"/>
-      <c r="C352" s="17"/>
+      <c r="B352" s="17"/>
+      <c r="C352" s="18"/>
       <c r="D352" s="1"/>
     </row>
     <row r="353" spans="2:4">
-      <c r="B353" s="16"/>
-      <c r="C353" s="17"/>
+      <c r="B353" s="17"/>
+      <c r="C353" s="18"/>
       <c r="D353" s="1"/>
     </row>
     <row r="354" spans="2:4">
-      <c r="B354" s="16"/>
-      <c r="C354" s="17"/>
+      <c r="B354" s="17"/>
+      <c r="C354" s="18"/>
       <c r="D354" s="1"/>
     </row>
     <row r="355" spans="2:4">
-      <c r="B355" s="16"/>
-      <c r="C355" s="17"/>
+      <c r="B355" s="17"/>
+      <c r="C355" s="18"/>
       <c r="D355" s="1"/>
     </row>
     <row r="356" spans="2:4">
-      <c r="B356" s="16"/>
-      <c r="C356" s="17"/>
+      <c r="B356" s="17"/>
+      <c r="C356" s="18"/>
       <c r="D356" s="1"/>
     </row>
     <row r="357" spans="2:4">
-      <c r="B357" s="16"/>
-      <c r="C357" s="17"/>
+      <c r="B357" s="17"/>
+      <c r="C357" s="18"/>
       <c r="D357" s="1"/>
     </row>
     <row r="358" spans="2:4">
-      <c r="B358" s="16"/>
-      <c r="C358" s="17"/>
+      <c r="B358" s="17"/>
+      <c r="C358" s="18"/>
       <c r="D358" s="1"/>
     </row>
     <row r="359" spans="2:4">
-      <c r="B359" s="16"/>
-      <c r="C359" s="17"/>
+      <c r="B359" s="17"/>
+      <c r="C359" s="18"/>
       <c r="D359" s="1"/>
     </row>
     <row r="360" spans="2:4">
-      <c r="B360" s="16"/>
-      <c r="C360" s="17"/>
+      <c r="B360" s="17"/>
+      <c r="C360" s="18"/>
       <c r="D360" s="1"/>
     </row>
     <row r="361" spans="2:4">
-      <c r="B361" s="16"/>
-      <c r="C361" s="17"/>
+      <c r="B361" s="17"/>
+      <c r="C361" s="18"/>
       <c r="D361" s="1"/>
     </row>
     <row r="362" spans="2:4">
-      <c r="B362" s="16"/>
-      <c r="C362" s="17"/>
+      <c r="B362" s="17"/>
+      <c r="C362" s="18"/>
       <c r="D362" s="1"/>
     </row>
     <row r="363" spans="2:4">
-      <c r="B363" s="16"/>
-      <c r="C363" s="17"/>
+      <c r="B363" s="17"/>
+      <c r="C363" s="18"/>
       <c r="D363" s="1"/>
     </row>
     <row r="364" spans="2:4">
-      <c r="B364" s="16"/>
-      <c r="C364" s="17"/>
+      <c r="B364" s="17"/>
+      <c r="C364" s="18"/>
       <c r="D364" s="1"/>
     </row>
     <row r="365" spans="2:4">
-      <c r="B365" s="16"/>
-      <c r="C365" s="17"/>
+      <c r="B365" s="17"/>
+      <c r="C365" s="18"/>
       <c r="D365" s="1"/>
     </row>
     <row r="366" spans="2:4">
-      <c r="B366" s="16"/>
-      <c r="C366" s="17"/>
+      <c r="B366" s="17"/>
+      <c r="C366" s="18"/>
       <c r="D366" s="1"/>
     </row>
     <row r="367" spans="2:4">
-      <c r="B367" s="16"/>
-      <c r="C367" s="17"/>
+      <c r="B367" s="17"/>
+      <c r="C367" s="18"/>
       <c r="D367" s="1"/>
     </row>
     <row r="368" spans="2:4">
-      <c r="B368" s="16"/>
-      <c r="C368" s="17"/>
+      <c r="B368" s="17"/>
+      <c r="C368" s="18"/>
       <c r="D368" s="1"/>
     </row>
     <row r="369" spans="2:4">
-      <c r="B369" s="16"/>
-      <c r="C369" s="17"/>
+      <c r="B369" s="17"/>
+      <c r="C369" s="18"/>
       <c r="D369" s="1"/>
     </row>
     <row r="370" spans="2:4">
-      <c r="B370" s="16"/>
-      <c r="C370" s="17"/>
+      <c r="B370" s="17"/>
+      <c r="C370" s="18"/>
       <c r="D370" s="1"/>
     </row>
     <row r="371" spans="2:4">
-      <c r="B371" s="16"/>
-      <c r="C371" s="17"/>
+      <c r="B371" s="17"/>
+      <c r="C371" s="18"/>
       <c r="D371" s="1"/>
     </row>
     <row r="372" spans="2:4">
-      <c r="B372" s="16"/>
-      <c r="C372" s="17"/>
+      <c r="B372" s="17"/>
+      <c r="C372" s="18"/>
       <c r="D372" s="1"/>
     </row>
     <row r="373" spans="2:4">
-      <c r="B373" s="16"/>
-      <c r="C373" s="17"/>
+      <c r="B373" s="17"/>
+      <c r="C373" s="18"/>
       <c r="D373" s="1"/>
     </row>
     <row r="374" spans="2:4">
-      <c r="B374" s="16"/>
-      <c r="C374" s="17"/>
+      <c r="B374" s="17"/>
+      <c r="C374" s="18"/>
       <c r="D374" s="1"/>
     </row>
     <row r="375" spans="2:4">
-      <c r="B375" s="16"/>
-      <c r="C375" s="17"/>
+      <c r="B375" s="17"/>
+      <c r="C375" s="18"/>
       <c r="D375" s="1"/>
     </row>
     <row r="376" spans="2:4">
-      <c r="B376" s="16"/>
-      <c r="C376" s="17"/>
+      <c r="B376" s="17"/>
+      <c r="C376" s="18"/>
       <c r="D376" s="1"/>
     </row>
     <row r="377" spans="2:4">
-      <c r="B377" s="16"/>
-      <c r="C377" s="17"/>
+      <c r="B377" s="17"/>
+      <c r="C377" s="18"/>
       <c r="D377" s="1"/>
     </row>
     <row r="378" spans="2:4">
-      <c r="B378" s="16"/>
-      <c r="C378" s="17"/>
+      <c r="B378" s="17"/>
+      <c r="C378" s="18"/>
       <c r="D378" s="1"/>
     </row>
     <row r="379" spans="2:4">
-      <c r="B379" s="16"/>
-      <c r="C379" s="17"/>
+      <c r="B379" s="17"/>
+      <c r="C379" s="18"/>
       <c r="D379" s="1"/>
     </row>
     <row r="380" spans="2:4">
-      <c r="B380" s="16"/>
-      <c r="C380" s="17"/>
+      <c r="B380" s="17"/>
+      <c r="C380" s="18"/>
       <c r="D380" s="1"/>
     </row>
     <row r="381" spans="2:4">
-      <c r="B381" s="16"/>
-      <c r="C381" s="17"/>
+      <c r="B381" s="17"/>
+      <c r="C381" s="18"/>
       <c r="D381" s="1"/>
     </row>
     <row r="382" spans="2:4">
-      <c r="B382" s="16"/>
-      <c r="C382" s="17"/>
+      <c r="B382" s="17"/>
+      <c r="C382" s="18"/>
       <c r="D382" s="1"/>
     </row>
     <row r="383" spans="2:4">
-      <c r="B383" s="16"/>
-      <c r="C383" s="17"/>
+      <c r="B383" s="17"/>
+      <c r="C383" s="18"/>
       <c r="D383" s="1"/>
     </row>
     <row r="384" spans="2:4">
-      <c r="B384" s="16"/>
-      <c r="C384" s="17"/>
+      <c r="B384" s="17"/>
+      <c r="C384" s="18"/>
       <c r="D384" s="1"/>
     </row>
     <row r="385" spans="2:4">
-      <c r="B385" s="16"/>
-      <c r="C385" s="17"/>
+      <c r="B385" s="17"/>
+      <c r="C385" s="18"/>
       <c r="D385" s="1"/>
     </row>
     <row r="386" spans="2:4">
-      <c r="B386" s="16"/>
-      <c r="C386" s="17"/>
+      <c r="B386" s="17"/>
+      <c r="C386" s="18"/>
       <c r="D386" s="1"/>
     </row>
     <row r="387" spans="2:4">
-      <c r="B387" s="16"/>
-      <c r="C387" s="17"/>
+      <c r="B387" s="17"/>
+      <c r="C387" s="18"/>
       <c r="D387" s="1"/>
     </row>
     <row r="388" spans="2:4">
-      <c r="B388" s="16"/>
-      <c r="C388" s="17"/>
+      <c r="B388" s="17"/>
+      <c r="C388" s="18"/>
       <c r="D388" s="1"/>
     </row>
     <row r="389" spans="2:4">
-      <c r="B389" s="16"/>
-      <c r="C389" s="17"/>
+      <c r="B389" s="17"/>
+      <c r="C389" s="18"/>
       <c r="D389" s="1"/>
     </row>
     <row r="390" spans="2:4">
-      <c r="B390" s="16"/>
-      <c r="C390" s="17"/>
+      <c r="B390" s="17"/>
+      <c r="C390" s="18"/>
       <c r="D390" s="1"/>
     </row>
     <row r="391" spans="2:4">
-      <c r="B391" s="16"/>
-      <c r="C391" s="17"/>
+      <c r="B391" s="17"/>
+      <c r="C391" s="18"/>
       <c r="D391" s="1"/>
     </row>
     <row r="392" spans="2:4">
-      <c r="B392" s="16"/>
-      <c r="C392" s="17"/>
+      <c r="B392" s="17"/>
+      <c r="C392" s="18"/>
       <c r="D392" s="1"/>
     </row>
     <row r="393" spans="2:4">
-      <c r="B393" s="16"/>
-      <c r="C393" s="17"/>
+      <c r="B393" s="17"/>
+      <c r="C393" s="18"/>
       <c r="D393" s="1"/>
     </row>
     <row r="394" spans="2:4">
-      <c r="B394" s="16"/>
-      <c r="C394" s="17"/>
+      <c r="B394" s="17"/>
+      <c r="C394" s="18"/>
       <c r="D394" s="1"/>
     </row>
     <row r="395" spans="2:4">
-      <c r="B395" s="16"/>
-      <c r="C395" s="17"/>
+      <c r="B395" s="17"/>
+      <c r="C395" s="18"/>
       <c r="D395" s="1"/>
     </row>
     <row r="396" spans="2:4">
-      <c r="B396" s="16"/>
-      <c r="C396" s="17"/>
+      <c r="B396" s="17"/>
+      <c r="C396" s="18"/>
       <c r="D396" s="1"/>
     </row>
     <row r="397" spans="2:4">
-      <c r="B397" s="16"/>
-      <c r="C397" s="17"/>
+      <c r="B397" s="17"/>
+      <c r="C397" s="18"/>
       <c r="D397" s="1"/>
     </row>
     <row r="398" spans="2:4">
-      <c r="B398" s="16"/>
-      <c r="C398" s="17"/>
+      <c r="B398" s="17"/>
+      <c r="C398" s="18"/>
       <c r="D398" s="1"/>
     </row>
     <row r="399" spans="2:4">
-      <c r="B399" s="16"/>
-      <c r="C399" s="17"/>
+      <c r="B399" s="17"/>
+      <c r="C399" s="18"/>
       <c r="D399" s="1"/>
     </row>
     <row r="400" spans="2:4">
-      <c r="B400" s="16"/>
-      <c r="C400" s="17"/>
+      <c r="B400" s="17"/>
+      <c r="C400" s="18"/>
       <c r="D400" s="1"/>
     </row>
     <row r="401" spans="2:4">
-      <c r="B401" s="16"/>
-      <c r="C401" s="17"/>
+      <c r="B401" s="17"/>
+      <c r="C401" s="18"/>
       <c r="D401" s="1"/>
     </row>
     <row r="402" spans="2:4">
-      <c r="B402" s="16"/>
-      <c r="C402" s="17"/>
+      <c r="B402" s="17"/>
+      <c r="C402" s="18"/>
       <c r="D402" s="1"/>
     </row>
     <row r="403" spans="2:4">
-      <c r="B403" s="16"/>
-      <c r="C403" s="17"/>
+      <c r="B403" s="17"/>
+      <c r="C403" s="18"/>
       <c r="D403" s="1"/>
     </row>
     <row r="404" spans="2:4">
-      <c r="B404" s="16"/>
-      <c r="C404" s="17"/>
+      <c r="B404" s="17"/>
+      <c r="C404" s="18"/>
       <c r="D404" s="1"/>
     </row>
     <row r="405" spans="2:4">
-      <c r="B405" s="16"/>
-      <c r="C405" s="17"/>
+      <c r="B405" s="17"/>
+      <c r="C405" s="18"/>
       <c r="D405" s="1"/>
     </row>
     <row r="406" spans="2:4">
-      <c r="B406" s="16"/>
-      <c r="C406" s="17"/>
+      <c r="B406" s="17"/>
+      <c r="C406" s="18"/>
       <c r="D406" s="1"/>
     </row>
     <row r="407" spans="2:4">
-      <c r="B407" s="16"/>
-      <c r="C407" s="17"/>
+      <c r="B407" s="17"/>
+      <c r="C407" s="18"/>
       <c r="D407" s="1"/>
     </row>
     <row r="408" spans="2:4">
-      <c r="B408" s="16"/>
-      <c r="C408" s="17"/>
+      <c r="B408" s="17"/>
+      <c r="C408" s="18"/>
       <c r="D408" s="1"/>
     </row>
     <row r="409" spans="2:4">
-      <c r="B409" s="16"/>
-      <c r="C409" s="17"/>
+      <c r="B409" s="17"/>
+      <c r="C409" s="18"/>
       <c r="D409" s="1"/>
     </row>
     <row r="410" spans="2:4">
-      <c r="B410" s="16"/>
-      <c r="C410" s="17"/>
+      <c r="B410" s="17"/>
+      <c r="C410" s="18"/>
       <c r="D410" s="1"/>
     </row>
     <row r="411" spans="2:4">
-      <c r="B411" s="16"/>
-      <c r="C411" s="17"/>
+      <c r="B411" s="17"/>
+      <c r="C411" s="18"/>
       <c r="D411" s="1"/>
     </row>
     <row r="412" spans="2:4">
-      <c r="B412" s="16"/>
-      <c r="C412" s="17"/>
+      <c r="B412" s="17"/>
+      <c r="C412" s="18"/>
       <c r="D412" s="1"/>
     </row>
     <row r="413" spans="2:4">
-      <c r="B413" s="16"/>
-      <c r="C413" s="17"/>
+      <c r="B413" s="17"/>
+      <c r="C413" s="18"/>
       <c r="D413" s="1"/>
     </row>
     <row r="414" spans="2:4">
-      <c r="B414" s="16"/>
-      <c r="C414" s="17"/>
+      <c r="B414" s="17"/>
+      <c r="C414" s="18"/>
       <c r="D414" s="1"/>
     </row>
     <row r="415" spans="2:4">
-      <c r="B415" s="16"/>
-      <c r="C415" s="17"/>
+      <c r="B415" s="17"/>
+      <c r="C415" s="18"/>
       <c r="D415" s="1"/>
     </row>
     <row r="416" spans="2:4">
-      <c r="B416" s="16"/>
-      <c r="C416" s="17"/>
+      <c r="B416" s="17"/>
+      <c r="C416" s="18"/>
       <c r="D416" s="1"/>
     </row>
     <row r="417" spans="2:4">
-      <c r="B417" s="16"/>
-      <c r="C417" s="17"/>
+      <c r="B417" s="17"/>
+      <c r="C417" s="18"/>
       <c r="D417" s="1"/>
     </row>
     <row r="418" spans="2:4">
-      <c r="B418" s="16"/>
-      <c r="C418" s="17"/>
+      <c r="B418" s="17"/>
+      <c r="C418" s="18"/>
       <c r="D418" s="1"/>
     </row>
     <row r="419" spans="2:4">
-      <c r="B419" s="16"/>
-      <c r="C419" s="17"/>
+      <c r="B419" s="17"/>
+      <c r="C419" s="18"/>
       <c r="D419" s="1"/>
     </row>
     <row r="420" spans="2:4">
-      <c r="B420" s="16"/>
-      <c r="C420" s="17"/>
+      <c r="B420" s="17"/>
+      <c r="C420" s="18"/>
       <c r="D420" s="1"/>
     </row>
     <row r="421" spans="2:4">
-      <c r="B421" s="16"/>
-      <c r="C421" s="17"/>
+      <c r="B421" s="17"/>
+      <c r="C421" s="18"/>
       <c r="D421" s="1"/>
     </row>
     <row r="422" spans="2:4">
-      <c r="B422" s="16"/>
-      <c r="C422" s="17"/>
+      <c r="B422" s="17"/>
+      <c r="C422" s="18"/>
       <c r="D422" s="1"/>
     </row>
     <row r="423" spans="2:4">
-      <c r="B423" s="16"/>
-      <c r="C423" s="17"/>
+      <c r="B423" s="17"/>
+      <c r="C423" s="18"/>
       <c r="D423" s="1"/>
     </row>
     <row r="424" spans="2:4">
-      <c r="B424" s="16"/>
-      <c r="C424" s="17"/>
+      <c r="B424" s="17"/>
+      <c r="C424" s="18"/>
       <c r="D424" s="1"/>
     </row>
     <row r="425" spans="2:4">
-      <c r="B425" s="16"/>
-      <c r="C425" s="17"/>
+      <c r="B425" s="17"/>
+      <c r="C425" s="18"/>
       <c r="D425" s="1"/>
     </row>
     <row r="426" spans="2:4">
-      <c r="B426" s="16"/>
-      <c r="C426" s="17"/>
+      <c r="B426" s="17"/>
+      <c r="C426" s="18"/>
       <c r="D426" s="1"/>
     </row>
     <row r="427" spans="2:4">
-      <c r="B427" s="16"/>
-      <c r="C427" s="17"/>
+      <c r="B427" s="17"/>
+      <c r="C427" s="18"/>
       <c r="D427" s="1"/>
     </row>
     <row r="428" spans="2:4">
-      <c r="B428" s="16"/>
-      <c r="C428" s="17"/>
+      <c r="B428" s="17"/>
+      <c r="C428" s="18"/>
       <c r="D428" s="1"/>
     </row>
     <row r="429" spans="2:4">
-      <c r="B429" s="16"/>
-      <c r="C429" s="17"/>
+      <c r="B429" s="17"/>
+      <c r="C429" s="18"/>
       <c r="D429" s="1"/>
     </row>
     <row r="430" spans="2:4">
-      <c r="B430" s="16"/>
-      <c r="C430" s="17"/>
+      <c r="B430" s="17"/>
+      <c r="C430" s="18"/>
       <c r="D430" s="1"/>
     </row>
     <row r="431" spans="2:4">
-      <c r="B431" s="16"/>
-      <c r="C431" s="17"/>
+      <c r="B431" s="17"/>
+      <c r="C431" s="18"/>
       <c r="D431" s="1"/>
     </row>
     <row r="432" spans="2:4">
-      <c r="B432" s="16"/>
-      <c r="C432" s="17"/>
+      <c r="B432" s="17"/>
+      <c r="C432" s="18"/>
       <c r="D432" s="1"/>
     </row>
     <row r="433" spans="2:4">
-      <c r="B433" s="16"/>
-      <c r="C433" s="17"/>
+      <c r="B433" s="17"/>
+      <c r="C433" s="18"/>
       <c r="D433" s="1"/>
     </row>
     <row r="434" spans="2:4">
-      <c r="B434" s="16"/>
-      <c r="C434" s="17"/>
+      <c r="B434" s="17"/>
+      <c r="C434" s="18"/>
       <c r="D434" s="1"/>
     </row>
     <row r="435" spans="2:4">
-      <c r="B435" s="16"/>
-      <c r="C435" s="17"/>
+      <c r="B435" s="17"/>
+      <c r="C435" s="18"/>
       <c r="D435" s="1"/>
     </row>
     <row r="436" spans="2:4">
-      <c r="B436" s="16"/>
-      <c r="C436" s="17"/>
+      <c r="B436" s="17"/>
+      <c r="C436" s="18"/>
       <c r="D436" s="1"/>
     </row>
     <row r="437" spans="2:4">
-      <c r="B437" s="16"/>
-      <c r="C437" s="17"/>
+      <c r="B437" s="17"/>
+      <c r="C437" s="18"/>
       <c r="D437" s="1"/>
     </row>
     <row r="438" spans="2:4">
-      <c r="B438" s="16"/>
-      <c r="C438" s="17"/>
+      <c r="B438" s="17"/>
+      <c r="C438" s="18"/>
       <c r="D438" s="1"/>
     </row>
     <row r="439" spans="2:4">
-      <c r="B439" s="16"/>
-      <c r="C439" s="17"/>
+      <c r="B439" s="17"/>
+      <c r="C439" s="18"/>
       <c r="D439" s="1"/>
     </row>
     <row r="440" spans="2:4">
-      <c r="B440" s="16"/>
-      <c r="C440" s="17"/>
+      <c r="B440" s="17"/>
+      <c r="C440" s="18"/>
       <c r="D440" s="1"/>
     </row>
     <row r="441" spans="2:4">
-      <c r="B441" s="16"/>
-      <c r="C441" s="17"/>
+      <c r="B441" s="17"/>
+      <c r="C441" s="18"/>
       <c r="D441" s="1"/>
     </row>
     <row r="442" spans="2:4">
-      <c r="B442" s="16"/>
-      <c r="C442" s="17"/>
+      <c r="B442" s="17"/>
+      <c r="C442" s="18"/>
       <c r="D442" s="1"/>
     </row>
     <row r="443" spans="2:4">
-      <c r="B443" s="16"/>
-      <c r="C443" s="17"/>
+      <c r="B443" s="17"/>
+      <c r="C443" s="18"/>
       <c r="D443" s="1"/>
     </row>
     <row r="444" spans="2:4">
-      <c r="B444" s="16"/>
-      <c r="C444" s="17"/>
+      <c r="B444" s="17"/>
+      <c r="C444" s="18"/>
       <c r="D444" s="1"/>
     </row>
     <row r="445" spans="2:4">
-      <c r="B445" s="16"/>
-      <c r="C445" s="17"/>
+      <c r="B445" s="17"/>
+      <c r="C445" s="18"/>
       <c r="D445" s="1"/>
     </row>
     <row r="446" spans="2:4">
-      <c r="B446" s="16"/>
-      <c r="C446" s="17"/>
+      <c r="B446" s="17"/>
+      <c r="C446" s="18"/>
       <c r="D446" s="1"/>
     </row>
     <row r="447" spans="2:4">
-      <c r="B447" s="16"/>
-      <c r="C447" s="17"/>
+      <c r="B447" s="17"/>
+      <c r="C447" s="18"/>
       <c r="D447" s="1"/>
     </row>
     <row r="448" spans="2:4">
-      <c r="B448" s="16"/>
-      <c r="C448" s="17"/>
+      <c r="B448" s="17"/>
+      <c r="C448" s="18"/>
       <c r="D448" s="1"/>
     </row>
     <row r="449" spans="2:4">
-      <c r="B449" s="16"/>
-      <c r="C449" s="17"/>
+      <c r="B449" s="17"/>
+      <c r="C449" s="18"/>
       <c r="D449" s="1"/>
     </row>
     <row r="450" spans="2:4">
-      <c r="B450" s="16"/>
-      <c r="C450" s="17"/>
+      <c r="B450" s="17"/>
+      <c r="C450" s="18"/>
       <c r="D450" s="1"/>
     </row>
     <row r="451" spans="2:4">
-      <c r="B451" s="16"/>
-      <c r="C451" s="17"/>
+      <c r="B451" s="17"/>
+      <c r="C451" s="18"/>
       <c r="D451" s="1"/>
     </row>
     <row r="452" spans="2:4">
-      <c r="B452" s="16"/>
-      <c r="C452" s="17"/>
+      <c r="B452" s="17"/>
+      <c r="C452" s="18"/>
       <c r="D452" s="1"/>
     </row>
     <row r="453" spans="2:4">
-      <c r="B453" s="16"/>
-      <c r="C453" s="17"/>
+      <c r="B453" s="17"/>
+      <c r="C453" s="18"/>
       <c r="D453" s="1"/>
     </row>
     <row r="454" spans="2:4">
-      <c r="B454" s="16"/>
-      <c r="C454" s="17"/>
+      <c r="B454" s="17"/>
+      <c r="C454" s="18"/>
       <c r="D454" s="1"/>
     </row>
     <row r="455" spans="2:4">
-      <c r="B455" s="16"/>
-      <c r="C455" s="17"/>
+      <c r="B455" s="17"/>
+      <c r="C455" s="18"/>
       <c r="D455" s="1"/>
     </row>
     <row r="456" spans="2:4">
-      <c r="B456" s="16"/>
-      <c r="C456" s="17"/>
+      <c r="B456" s="17"/>
+      <c r="C456" s="18"/>
       <c r="D456" s="1"/>
     </row>
     <row r="457" spans="2:4">
-      <c r="B457" s="16"/>
-      <c r="C457" s="17"/>
+      <c r="B457" s="17"/>
+      <c r="C457" s="18"/>
       <c r="D457" s="1"/>
     </row>
     <row r="458" spans="2:4">
-      <c r="B458" s="16"/>
-      <c r="C458" s="17"/>
+      <c r="B458" s="17"/>
+      <c r="C458" s="18"/>
       <c r="D458" s="1"/>
     </row>
     <row r="459" spans="2:4">
-      <c r="B459" s="16"/>
-      <c r="C459" s="17"/>
+      <c r="B459" s="17"/>
+      <c r="C459" s="18"/>
       <c r="D459" s="1"/>
     </row>
     <row r="460" spans="2:4">
-      <c r="B460" s="16"/>
-      <c r="C460" s="17"/>
+      <c r="B460" s="17"/>
+      <c r="C460" s="18"/>
       <c r="D460" s="1"/>
     </row>
     <row r="461" spans="2:4">
-      <c r="B461" s="16"/>
-      <c r="C461" s="17"/>
+      <c r="B461" s="17"/>
+      <c r="C461" s="18"/>
       <c r="D461" s="1"/>
     </row>
     <row r="462" spans="2:4">
-      <c r="B462" s="16"/>
-      <c r="C462" s="17"/>
+      <c r="B462" s="17"/>
+      <c r="C462" s="18"/>
       <c r="D462" s="1"/>
     </row>
     <row r="463" spans="2:4">
-      <c r="B463" s="16"/>
-      <c r="C463" s="17"/>
+      <c r="B463" s="17"/>
+      <c r="C463" s="18"/>
       <c r="D463" s="1"/>
     </row>
     <row r="464" spans="2:4">
-      <c r="B464" s="16"/>
-      <c r="C464" s="17"/>
+      <c r="B464" s="17"/>
+      <c r="C464" s="18"/>
       <c r="D464" s="1"/>
     </row>
     <row r="465" spans="2:4">
-      <c r="B465" s="16"/>
-      <c r="C465" s="17"/>
+      <c r="B465" s="17"/>
+      <c r="C465" s="18"/>
       <c r="D465" s="1"/>
     </row>
     <row r="466" spans="2:4">
-      <c r="B466" s="16"/>
-      <c r="C466" s="17"/>
+      <c r="B466" s="17"/>
+      <c r="C466" s="18"/>
       <c r="D466" s="1"/>
     </row>
     <row r="467" spans="2:4">
-      <c r="B467" s="16"/>
-      <c r="C467" s="17"/>
+      <c r="B467" s="17"/>
+      <c r="C467" s="18"/>
       <c r="D467" s="1"/>
     </row>
     <row r="468" spans="2:4">
-      <c r="B468" s="16"/>
-      <c r="C468" s="17"/>
+      <c r="B468" s="17"/>
+      <c r="C468" s="18"/>
       <c r="D468" s="1"/>
     </row>
     <row r="469" spans="2:4">
-      <c r="B469" s="16"/>
-      <c r="C469" s="17"/>
+      <c r="B469" s="17"/>
+      <c r="C469" s="18"/>
       <c r="D469" s="1"/>
     </row>
     <row r="470" spans="2:4">
-      <c r="B470" s="16"/>
-      <c r="C470" s="17"/>
+      <c r="B470" s="17"/>
+      <c r="C470" s="18"/>
       <c r="D470" s="1"/>
     </row>
     <row r="471" spans="2:4">
-      <c r="B471" s="16"/>
-      <c r="C471" s="17"/>
+      <c r="B471" s="17"/>
+      <c r="C471" s="18"/>
       <c r="D471" s="1"/>
     </row>
     <row r="472" spans="2:4">
-      <c r="B472" s="16"/>
-      <c r="C472" s="17"/>
+      <c r="B472" s="17"/>
+      <c r="C472" s="18"/>
       <c r="D472" s="1"/>
     </row>
     <row r="473" spans="2:4">
-      <c r="B473" s="16"/>
-      <c r="C473" s="17"/>
+      <c r="B473" s="17"/>
+      <c r="C473" s="18"/>
       <c r="D473" s="1"/>
     </row>
     <row r="474" spans="2:4">
-      <c r="B474" s="16"/>
-      <c r="C474" s="17"/>
+      <c r="B474" s="17"/>
+      <c r="C474" s="18"/>
       <c r="D474" s="1"/>
     </row>
     <row r="475" spans="2:4">
-      <c r="B475" s="16"/>
-      <c r="C475" s="17"/>
+      <c r="B475" s="17"/>
+      <c r="C475" s="18"/>
       <c r="D475" s="1"/>
     </row>
     <row r="476" spans="2:4">
-      <c r="B476" s="16"/>
-      <c r="C476" s="17"/>
+      <c r="B476" s="17"/>
+      <c r="C476" s="18"/>
       <c r="D476" s="1"/>
     </row>
     <row r="477" spans="2:4">
-      <c r="B477" s="16"/>
-      <c r="C477" s="17"/>
+      <c r="B477" s="17"/>
+      <c r="C477" s="18"/>
       <c r="D477" s="1"/>
     </row>
     <row r="478" spans="2:4">
-      <c r="B478" s="16"/>
-      <c r="C478" s="17"/>
+      <c r="B478" s="17"/>
+      <c r="C478" s="18"/>
       <c r="D478" s="1"/>
     </row>
     <row r="479" spans="2:4">
-      <c r="B479" s="16"/>
-      <c r="C479" s="17"/>
+      <c r="B479" s="17"/>
+      <c r="C479" s="18"/>
       <c r="D479" s="1"/>
     </row>
     <row r="480" spans="2:4">
-      <c r="B480" s="16"/>
-      <c r="C480" s="17"/>
+      <c r="B480" s="17"/>
+      <c r="C480" s="18"/>
       <c r="D480" s="1"/>
     </row>
     <row r="481" spans="2:4">
-      <c r="B481" s="16"/>
-      <c r="C481" s="17"/>
+      <c r="B481" s="17"/>
+      <c r="C481" s="18"/>
       <c r="D481" s="1"/>
     </row>
     <row r="482" spans="2:4">
-      <c r="B482" s="16"/>
-      <c r="C482" s="17"/>
+      <c r="B482" s="17"/>
+      <c r="C482" s="18"/>
       <c r="D482" s="1"/>
     </row>
     <row r="483" spans="2:4">
-      <c r="B483" s="16"/>
-      <c r="C483" s="17"/>
+      <c r="B483" s="17"/>
+      <c r="C483" s="18"/>
       <c r="D483" s="1"/>
     </row>
     <row r="484" spans="2:4">
-      <c r="B484" s="16"/>
-      <c r="C484" s="17"/>
+      <c r="B484" s="17"/>
+      <c r="C484" s="18"/>
       <c r="D484" s="1"/>
     </row>
     <row r="485" spans="2:4">
-      <c r="B485" s="16"/>
-      <c r="C485" s="17"/>
+      <c r="B485" s="17"/>
+      <c r="C485" s="18"/>
       <c r="D485" s="1"/>
     </row>
     <row r="486" spans="2:4">
-      <c r="B486" s="16"/>
-      <c r="C486" s="17"/>
+      <c r="B486" s="17"/>
+      <c r="C486" s="18"/>
       <c r="D486" s="1"/>
     </row>
     <row r="487" spans="2:4">
-      <c r="B487" s="16"/>
-      <c r="C487" s="17"/>
+      <c r="B487" s="17"/>
+      <c r="C487" s="18"/>
       <c r="D487" s="1"/>
     </row>
     <row r="488" spans="2:4">
-      <c r="B488" s="16"/>
-      <c r="C488" s="17"/>
+      <c r="B488" s="17"/>
+      <c r="C488" s="18"/>
       <c r="D488" s="1"/>
     </row>
     <row r="489" spans="2:4">
-      <c r="B489" s="16"/>
-      <c r="C489" s="17"/>
+      <c r="B489" s="17"/>
+      <c r="C489" s="18"/>
       <c r="D489" s="1"/>
     </row>
     <row r="490" spans="2:4">
-      <c r="B490" s="16"/>
-      <c r="C490" s="17"/>
+      <c r="B490" s="17"/>
+      <c r="C490" s="18"/>
       <c r="D490" s="1"/>
     </row>
     <row r="491" spans="2:4">
-      <c r="B491" s="16"/>
-      <c r="C491" s="17"/>
+      <c r="B491" s="17"/>
+      <c r="C491" s="18"/>
       <c r="D491" s="1"/>
     </row>
     <row r="492" spans="2:4">
-      <c r="B492" s="16"/>
-      <c r="C492" s="17"/>
+      <c r="B492" s="17"/>
+      <c r="C492" s="18"/>
       <c r="D492" s="1"/>
     </row>
     <row r="493" spans="2:4">
-      <c r="B493" s="16"/>
-      <c r="C493" s="17"/>
+      <c r="B493" s="17"/>
+      <c r="C493" s="18"/>
       <c r="D493" s="1"/>
     </row>
     <row r="494" spans="2:4">
-      <c r="B494" s="16"/>
-      <c r="C494" s="17"/>
+      <c r="B494" s="17"/>
+      <c r="C494" s="18"/>
       <c r="D494" s="1"/>
     </row>
     <row r="495" spans="2:4">
-      <c r="B495" s="16"/>
-      <c r="C495" s="17"/>
+      <c r="B495" s="17"/>
+      <c r="C495" s="18"/>
       <c r="D495" s="1"/>
     </row>
     <row r="496" spans="2:4">
-      <c r="B496" s="16"/>
-      <c r="C496" s="17"/>
+      <c r="B496" s="17"/>
+      <c r="C496" s="18"/>
       <c r="D496" s="1"/>
     </row>
     <row r="497" spans="2:4">
-      <c r="B497" s="16"/>
-      <c r="C497" s="17"/>
+      <c r="B497" s="17"/>
+      <c r="C497" s="18"/>
       <c r="D497" s="1"/>
     </row>
     <row r="498" spans="2:4">
-      <c r="B498" s="16"/>
-      <c r="C498" s="17"/>
+      <c r="B498" s="17"/>
+      <c r="C498" s="18"/>
       <c r="D498" s="1"/>
     </row>
     <row r="499" spans="2:4">
-      <c r="B499" s="16"/>
-      <c r="C499" s="17"/>
+      <c r="B499" s="17"/>
+      <c r="C499" s="18"/>
       <c r="D499" s="1"/>
     </row>
     <row r="500" spans="2:4">
-      <c r="B500" s="16"/>
-      <c r="C500" s="17"/>
+      <c r="B500" s="17"/>
+      <c r="C500" s="18"/>
       <c r="D500" s="1"/>
     </row>
     <row r="501" spans="2:4">
-      <c r="B501" s="16"/>
-      <c r="C501" s="17"/>
+      <c r="B501" s="17"/>
+      <c r="C501" s="18"/>
       <c r="D501" s="1"/>
     </row>
     <row r="502" spans="2:4">
-      <c r="B502" s="16"/>
-      <c r="C502" s="17"/>
+      <c r="B502" s="17"/>
+      <c r="C502" s="18"/>
       <c r="D502" s="1"/>
     </row>
     <row r="503" spans="2:4">
-      <c r="B503" s="16"/>
-      <c r="C503" s="17"/>
+      <c r="B503" s="17"/>
+      <c r="C503" s="18"/>
       <c r="D503" s="1"/>
     </row>
     <row r="504" spans="2:4">
-      <c r="B504" s="16"/>
-      <c r="C504" s="17"/>
+      <c r="B504" s="17"/>
+      <c r="C504" s="18"/>
       <c r="D504" s="1"/>
     </row>
     <row r="505" spans="2:4">
-      <c r="B505" s="16"/>
-      <c r="C505" s="17"/>
+      <c r="B505" s="17"/>
+      <c r="C505" s="18"/>
       <c r="D505" s="1"/>
     </row>
     <row r="506" spans="2:4">
-      <c r="B506" s="16"/>
-      <c r="C506" s="17"/>
+      <c r="B506" s="17"/>
+      <c r="C506" s="18"/>
       <c r="D506" s="1"/>
     </row>
     <row r="507" spans="2:4">
-      <c r="B507" s="16"/>
-      <c r="C507" s="17"/>
+      <c r="B507" s="17"/>
+      <c r="C507" s="18"/>
       <c r="D507" s="1"/>
     </row>
     <row r="508" spans="2:4">
-      <c r="B508" s="16"/>
-      <c r="C508" s="17"/>
+      <c r="B508" s="17"/>
+      <c r="C508" s="18"/>
       <c r="D508" s="1"/>
     </row>
     <row r="509" spans="2:4">
-      <c r="B509" s="16"/>
-      <c r="C509" s="17"/>
+      <c r="B509" s="17"/>
+      <c r="C509" s="18"/>
       <c r="D509" s="1"/>
     </row>
     <row r="510" spans="2:4">
-      <c r="B510" s="16"/>
-      <c r="C510" s="17"/>
+      <c r="B510" s="17"/>
+      <c r="C510" s="18"/>
       <c r="D510" s="1"/>
     </row>
     <row r="511" spans="2:4">
-      <c r="B511" s="16"/>
-      <c r="C511" s="17"/>
+      <c r="B511" s="17"/>
+      <c r="C511" s="18"/>
       <c r="D511" s="1"/>
     </row>
     <row r="512" spans="2:4">
-      <c r="B512" s="16"/>
-      <c r="C512" s="17"/>
+      <c r="B512" s="17"/>
+      <c r="C512" s="18"/>
       <c r="D512" s="1"/>
     </row>
     <row r="513" spans="2:4">
-      <c r="B513" s="16"/>
-      <c r="C513" s="17"/>
+      <c r="B513" s="17"/>
+      <c r="C513" s="18"/>
       <c r="D513" s="1"/>
     </row>
     <row r="514" spans="2:4">
-      <c r="B514" s="16"/>
-      <c r="C514" s="17"/>
+      <c r="B514" s="17"/>
+      <c r="C514" s="18"/>
       <c r="D514" s="1"/>
     </row>
     <row r="515" spans="2:4">
-      <c r="B515" s="16"/>
-      <c r="C515" s="17"/>
+      <c r="B515" s="17"/>
+      <c r="C515" s="18"/>
       <c r="D515" s="1"/>
     </row>
     <row r="516" spans="2:4">
-      <c r="B516" s="16"/>
-      <c r="C516" s="17"/>
+      <c r="B516" s="17"/>
+      <c r="C516" s="18"/>
       <c r="D516" s="1"/>
     </row>
     <row r="517" spans="2:4">
-      <c r="B517" s="16"/>
-      <c r="C517" s="17"/>
+      <c r="B517" s="17"/>
+      <c r="C517" s="18"/>
       <c r="D517" s="1"/>
     </row>
     <row r="518" spans="2:4">
-      <c r="B518" s="16"/>
-      <c r="C518" s="17"/>
+      <c r="B518" s="17"/>
+      <c r="C518" s="18"/>
       <c r="D518" s="1"/>
     </row>
     <row r="519" spans="2:4">
-      <c r="B519" s="16"/>
-      <c r="C519" s="17"/>
+      <c r="B519" s="17"/>
+      <c r="C519" s="18"/>
       <c r="D519" s="1"/>
     </row>
     <row r="520" spans="2:4">
-      <c r="B520" s="16"/>
-      <c r="C520" s="17"/>
+      <c r="B520" s="17"/>
+      <c r="C520" s="18"/>
       <c r="D520" s="1"/>
     </row>
     <row r="521" spans="2:4">
-      <c r="B521" s="16"/>
-      <c r="C521" s="17"/>
+      <c r="B521" s="17"/>
+      <c r="C521" s="18"/>
       <c r="D521" s="1"/>
     </row>
     <row r="522" spans="2:4">
-      <c r="B522" s="16"/>
-      <c r="C522" s="17"/>
+      <c r="B522" s="17"/>
+      <c r="C522" s="18"/>
       <c r="D522" s="1"/>
     </row>
     <row r="523" spans="2:4">
-      <c r="B523" s="16"/>
-      <c r="C523" s="17"/>
+      <c r="B523" s="17"/>
+      <c r="C523" s="18"/>
       <c r="D523" s="1"/>
     </row>
     <row r="524" spans="2:4">
-      <c r="B524" s="16"/>
-      <c r="C524" s="17"/>
+      <c r="B524" s="17"/>
+      <c r="C524" s="18"/>
       <c r="D524" s="1"/>
     </row>
     <row r="525" spans="2:4">
-      <c r="B525" s="16"/>
-      <c r="C525" s="17"/>
+      <c r="B525" s="17"/>
+      <c r="C525" s="18"/>
       <c r="D525" s="1"/>
     </row>
     <row r="526" spans="2:4">
-      <c r="B526" s="16"/>
-      <c r="C526" s="17"/>
+      <c r="B526" s="17"/>
+      <c r="C526" s="18"/>
       <c r="D526" s="1"/>
     </row>
     <row r="527" spans="2:4">
-      <c r="B527" s="16"/>
-      <c r="C527" s="17"/>
+      <c r="B527" s="17"/>
+      <c r="C527" s="18"/>
       <c r="D527" s="1"/>
     </row>
     <row r="528" spans="2:4">
-      <c r="B528" s="16"/>
-      <c r="C528" s="17"/>
+      <c r="B528" s="17"/>
+      <c r="C528" s="18"/>
       <c r="D528" s="1"/>
     </row>
     <row r="529" spans="2:4">
-      <c r="B529" s="16"/>
-      <c r="C529" s="17"/>
+      <c r="B529" s="17"/>
+      <c r="C529" s="18"/>
       <c r="D529" s="1"/>
     </row>
     <row r="530" spans="2:4">
-      <c r="B530" s="16"/>
-      <c r="C530" s="17"/>
+      <c r="B530" s="17"/>
+      <c r="C530" s="18"/>
       <c r="D530" s="1"/>
     </row>
     <row r="531" spans="2:4">
-      <c r="B531" s="16"/>
-      <c r="C531" s="17"/>
+      <c r="B531" s="17"/>
+      <c r="C531" s="18"/>
       <c r="D531" s="1"/>
     </row>
     <row r="532" spans="2:4">
-      <c r="B532" s="16"/>
-      <c r="C532" s="17"/>
+      <c r="B532" s="17"/>
+      <c r="C532" s="18"/>
       <c r="D532" s="1"/>
     </row>
     <row r="533" spans="2:4">
-      <c r="B533" s="16"/>
-      <c r="C533" s="17"/>
+      <c r="B533" s="17"/>
+      <c r="C533" s="18"/>
       <c r="D533" s="1"/>
     </row>
     <row r="534" spans="2:4">
-      <c r="B534" s="16"/>
-      <c r="C534" s="17"/>
+      <c r="B534" s="17"/>
+      <c r="C534" s="18"/>
       <c r="D534" s="1"/>
     </row>
     <row r="535" spans="2:4">
-      <c r="B535" s="16"/>
-      <c r="C535" s="17"/>
+      <c r="B535" s="17"/>
+      <c r="C535" s="18"/>
       <c r="D535" s="1"/>
     </row>
     <row r="536" spans="2:4">
-      <c r="B536" s="16"/>
-      <c r="C536" s="17"/>
+      <c r="B536" s="17"/>
+      <c r="C536" s="18"/>
       <c r="D536" s="1"/>
     </row>
     <row r="537" spans="2:4">
-      <c r="B537" s="16"/>
-      <c r="C537" s="17"/>
+      <c r="B537" s="17"/>
+      <c r="C537" s="18"/>
       <c r="D537" s="1"/>
     </row>
     <row r="538" spans="2:4">
-      <c r="B538" s="16"/>
-      <c r="C538" s="17"/>
+      <c r="B538" s="17"/>
+      <c r="C538" s="18"/>
       <c r="D538" s="1"/>
     </row>
     <row r="539" spans="2:4">
-      <c r="B539" s="16"/>
-      <c r="C539" s="17"/>
+      <c r="B539" s="17"/>
+      <c r="C539" s="18"/>
       <c r="D539" s="1"/>
     </row>
     <row r="540" spans="2:4">
-      <c r="B540" s="16"/>
-      <c r="C540" s="17"/>
+      <c r="B540" s="17"/>
+      <c r="C540" s="18"/>
       <c r="D540" s="1"/>
     </row>
     <row r="541" spans="2:4">
-      <c r="B541" s="16"/>
-      <c r="C541" s="17"/>
+      <c r="B541" s="17"/>
+      <c r="C541" s="18"/>
       <c r="D541" s="1"/>
     </row>
     <row r="542" spans="2:4">
-      <c r="B542" s="16"/>
-      <c r="C542" s="17"/>
+      <c r="B542" s="17"/>
+      <c r="C542" s="18"/>
       <c r="D542" s="1"/>
     </row>
     <row r="543" spans="2:4">
-      <c r="B543" s="16"/>
-      <c r="C543" s="17"/>
+      <c r="B543" s="17"/>
+      <c r="C543" s="18"/>
       <c r="D543" s="1"/>
     </row>
     <row r="544" spans="2:4">
-      <c r="B544" s="16"/>
-      <c r="C544" s="17"/>
+      <c r="B544" s="17"/>
+      <c r="C544" s="18"/>
       <c r="D544" s="1"/>
     </row>
     <row r="545" spans="2:4">
-      <c r="B545" s="16"/>
-      <c r="C545" s="17"/>
+      <c r="B545" s="17"/>
+      <c r="C545" s="18"/>
       <c r="D545" s="1"/>
     </row>
     <row r="546" spans="2:4">
-      <c r="B546" s="16"/>
-      <c r="C546" s="17"/>
+      <c r="B546" s="17"/>
+      <c r="C546" s="18"/>
       <c r="D546" s="1"/>
     </row>
     <row r="547" spans="2:4">
-      <c r="B547" s="16"/>
-      <c r="C547" s="17"/>
+      <c r="B547" s="17"/>
+      <c r="C547" s="18"/>
       <c r="D547" s="1"/>
     </row>
     <row r="548" spans="2:4">
-      <c r="B548" s="16"/>
-      <c r="C548" s="17"/>
+      <c r="B548" s="17"/>
+      <c r="C548" s="18"/>
       <c r="D548" s="1"/>
     </row>
     <row r="549" spans="2:4">
-      <c r="B549" s="16"/>
-      <c r="C549" s="17"/>
+      <c r="B549" s="17"/>
+      <c r="C549" s="18"/>
       <c r="D549" s="1"/>
     </row>
     <row r="550" spans="2:4">
-      <c r="B550" s="16"/>
-      <c r="C550" s="17"/>
+      <c r="B550" s="17"/>
+      <c r="C550" s="18"/>
       <c r="D550" s="1"/>
     </row>
     <row r="551" spans="2:4">
-      <c r="B551" s="16"/>
-      <c r="C551" s="17"/>
+      <c r="B551" s="17"/>
+      <c r="C551" s="18"/>
       <c r="D551" s="1"/>
     </row>
     <row r="552" spans="2:4">
-      <c r="B552" s="16"/>
-      <c r="C552" s="17"/>
+      <c r="B552" s="17"/>
+      <c r="C552" s="18"/>
       <c r="D552" s="1"/>
     </row>
     <row r="553" spans="2:4">
-      <c r="B553" s="16"/>
-      <c r="C553" s="17"/>
+      <c r="B553" s="17"/>
+      <c r="C553" s="18"/>
       <c r="D553" s="1"/>
     </row>
     <row r="554" spans="2:4">
-      <c r="B554" s="16"/>
-      <c r="C554" s="17"/>
+      <c r="B554" s="17"/>
+      <c r="C554" s="18"/>
       <c r="D554" s="1"/>
     </row>
     <row r="555" spans="2:4">
-      <c r="B555" s="16"/>
-      <c r="C555" s="17"/>
+      <c r="B555" s="17"/>
+      <c r="C555" s="18"/>
       <c r="D555" s="1"/>
     </row>
     <row r="556" spans="2:4">
-      <c r="B556" s="16"/>
-      <c r="C556" s="17"/>
+      <c r="B556" s="17"/>
+      <c r="C556" s="18"/>
       <c r="D556" s="1"/>
     </row>
     <row r="557" spans="2:4">
-      <c r="B557" s="16"/>
-      <c r="C557" s="17"/>
+      <c r="B557" s="17"/>
+      <c r="C557" s="18"/>
       <c r="D557" s="1"/>
     </row>
     <row r="558" spans="2:4">
-      <c r="B558" s="16"/>
-      <c r="C558" s="17"/>
+      <c r="B558" s="17"/>
+      <c r="C558" s="18"/>
       <c r="D558" s="1"/>
     </row>
     <row r="559" spans="2:4">
-      <c r="B559" s="16"/>
-      <c r="C559" s="17"/>
+      <c r="B559" s="17"/>
+      <c r="C559" s="18"/>
       <c r="D559" s="1"/>
     </row>
     <row r="560" spans="2:4">
-      <c r="B560" s="16"/>
-      <c r="C560" s="17"/>
+      <c r="B560" s="17"/>
+      <c r="C560" s="18"/>
       <c r="D560" s="1"/>
     </row>
     <row r="561" spans="2:4">
-      <c r="B561" s="16"/>
-      <c r="C561" s="17"/>
+      <c r="B561" s="17"/>
+      <c r="C561" s="18"/>
       <c r="D561" s="1"/>
     </row>
     <row r="562" spans="2:4">
-      <c r="B562" s="16"/>
-      <c r="C562" s="17"/>
+      <c r="B562" s="17"/>
+      <c r="C562" s="18"/>
       <c r="D562" s="1"/>
     </row>
     <row r="563" spans="2:4">
-      <c r="B563" s="16"/>
-      <c r="C563" s="17"/>
+      <c r="B563" s="17"/>
+      <c r="C563" s="18"/>
       <c r="D563" s="1"/>
     </row>
     <row r="564" spans="2:4">
-      <c r="B564" s="16"/>
-      <c r="C564" s="17"/>
+      <c r="B564" s="17"/>
+      <c r="C564" s="18"/>
       <c r="D564" s="1"/>
     </row>
     <row r="565" spans="2:4">
-      <c r="B565" s="16"/>
-      <c r="C565" s="17"/>
+      <c r="B565" s="17"/>
+      <c r="C565" s="18"/>
       <c r="D565" s="1"/>
     </row>
     <row r="566" spans="2:4">
-      <c r="B566" s="16"/>
-      <c r="C566" s="17"/>
+      <c r="B566" s="17"/>
+      <c r="C566" s="18"/>
       <c r="D566" s="1"/>
     </row>
     <row r="567" spans="2:4">
-      <c r="B567" s="16"/>
-      <c r="C567" s="17"/>
+      <c r="B567" s="17"/>
+      <c r="C567" s="18"/>
       <c r="D567" s="1"/>
     </row>
     <row r="568" spans="2:4">
-      <c r="B568" s="16"/>
-      <c r="C568" s="17"/>
+      <c r="B568" s="17"/>
+      <c r="C568" s="18"/>
       <c r="D568" s="1"/>
     </row>
     <row r="569" spans="2:4">
-      <c r="B569" s="16"/>
-      <c r="C569" s="17"/>
+      <c r="B569" s="17"/>
+      <c r="C569" s="18"/>
       <c r="D569" s="1"/>
     </row>
     <row r="570" spans="2:4">
-      <c r="B570" s="16"/>
-      <c r="C570" s="17"/>
+      <c r="B570" s="17"/>
+      <c r="C570" s="18"/>
       <c r="D570" s="1"/>
     </row>
     <row r="571" spans="2:4">
-      <c r="B571" s="16"/>
-      <c r="C571" s="17"/>
+      <c r="B571" s="17"/>
+      <c r="C571" s="18"/>
       <c r="D571" s="1"/>
     </row>
     <row r="572" spans="2:4">
-      <c r="B572" s="16"/>
-      <c r="C572" s="17"/>
+      <c r="B572" s="17"/>
+      <c r="C572" s="18"/>
       <c r="D572" s="1"/>
     </row>
     <row r="573" spans="2:4">
-      <c r="B573" s="16"/>
-      <c r="C573" s="17"/>
+      <c r="B573" s="17"/>
+      <c r="C573" s="18"/>
       <c r="D573" s="1"/>
     </row>
     <row r="574" spans="2:4">
-      <c r="B574" s="16"/>
-      <c r="C574" s="17"/>
+      <c r="B574" s="17"/>
+      <c r="C574" s="18"/>
       <c r="D574" s="1"/>
     </row>
     <row r="575" spans="2:4">
-      <c r="B575" s="16"/>
-      <c r="C575" s="17"/>
+      <c r="B575" s="17"/>
+      <c r="C575" s="18"/>
       <c r="D575" s="1"/>
     </row>
     <row r="576" spans="2:4">
-      <c r="B576" s="16"/>
-      <c r="C576" s="17"/>
+      <c r="B576" s="17"/>
+      <c r="C576" s="18"/>
       <c r="D576" s="1"/>
     </row>
     <row r="577" spans="2:4">
-      <c r="B577" s="16"/>
-      <c r="C577" s="17"/>
+      <c r="B577" s="17"/>
+      <c r="C577" s="18"/>
       <c r="D577" s="1"/>
     </row>
     <row r="578" spans="2:4">
-      <c r="B578" s="16"/>
-      <c r="C578" s="17"/>
+      <c r="B578" s="17"/>
+      <c r="C578" s="18"/>
       <c r="D578" s="1"/>
     </row>
     <row r="579" spans="2:4">
-      <c r="B579" s="16"/>
-      <c r="C579" s="17"/>
+      <c r="B579" s="17"/>
+      <c r="C579" s="18"/>
       <c r="D579" s="1"/>
     </row>
     <row r="580" spans="2:4">
-      <c r="B580" s="16"/>
-      <c r="C580" s="17"/>
+      <c r="B580" s="17"/>
+      <c r="C580" s="18"/>
       <c r="D580" s="1"/>
     </row>
     <row r="581" spans="2:4">
-      <c r="B581" s="16"/>
-      <c r="C581" s="17"/>
+      <c r="B581" s="17"/>
+      <c r="C581" s="18"/>
       <c r="D581" s="1"/>
     </row>
     <row r="582" spans="2:4">
-      <c r="B582" s="16"/>
-      <c r="C582" s="17"/>
+      <c r="B582" s="17"/>
+      <c r="C582" s="18"/>
       <c r="D582" s="1"/>
     </row>
     <row r="583" spans="2:4">
-      <c r="B583" s="16"/>
-      <c r="C583" s="17"/>
+      <c r="B583" s="17"/>
+      <c r="C583" s="18"/>
       <c r="D583" s="1"/>
     </row>
     <row r="584" spans="2:4">
-      <c r="B584" s="16"/>
-      <c r="C584" s="17"/>
+      <c r="B584" s="17"/>
+      <c r="C584" s="18"/>
       <c r="D584" s="1"/>
     </row>
     <row r="585" spans="2:4">
-      <c r="B585" s="16"/>
-      <c r="C585" s="17"/>
+      <c r="B585" s="17"/>
+      <c r="C585" s="18"/>
       <c r="D585" s="1"/>
     </row>
     <row r="586" spans="2:4">
-      <c r="B586" s="16"/>
-      <c r="C586" s="17"/>
+      <c r="B586" s="17"/>
+      <c r="C586" s="18"/>
       <c r="D586" s="1"/>
     </row>
     <row r="587" spans="2:4">
-      <c r="B587" s="16"/>
-      <c r="C587" s="17"/>
+      <c r="B587" s="17"/>
+      <c r="C587" s="18"/>
       <c r="D587" s="1"/>
     </row>
     <row r="588" spans="2:4">
-      <c r="B588" s="16"/>
-      <c r="C588" s="17"/>
+      <c r="B588" s="17"/>
+      <c r="C588" s="18"/>
       <c r="D588" s="1"/>
     </row>
     <row r="589" spans="2:4">
-      <c r="B589" s="16"/>
-      <c r="C589" s="17"/>
+      <c r="B589" s="17"/>
+      <c r="C589" s="18"/>
       <c r="D589" s="1"/>
     </row>
     <row r="590" spans="2:4">
-      <c r="B590" s="16"/>
-      <c r="C590" s="17"/>
+      <c r="B590" s="17"/>
+      <c r="C590" s="18"/>
       <c r="D590" s="1"/>
     </row>
     <row r="591" spans="2:4">
-      <c r="B591" s="16"/>
-      <c r="C591" s="17"/>
+      <c r="B591" s="17"/>
+      <c r="C591" s="18"/>
       <c r="D591" s="1"/>
     </row>
     <row r="592" spans="2:4">
-      <c r="B592" s="16"/>
-      <c r="C592" s="17"/>
+      <c r="B592" s="17"/>
+      <c r="C592" s="18"/>
       <c r="D592" s="1"/>
     </row>
     <row r="593" spans="2:4">
-      <c r="B593" s="16"/>
-      <c r="C593" s="17"/>
+      <c r="B593" s="17"/>
+      <c r="C593" s="18"/>
       <c r="D593" s="1"/>
     </row>
     <row r="594" spans="2:4">
-      <c r="B594" s="16"/>
-      <c r="C594" s="17"/>
+      <c r="B594" s="17"/>
+      <c r="C594" s="18"/>
       <c r="D594" s="1"/>
     </row>
     <row r="595" spans="2:4">
-      <c r="B595" s="16"/>
-      <c r="C595" s="17"/>
+      <c r="B595" s="17"/>
+      <c r="C595" s="18"/>
       <c r="D595" s="1"/>
     </row>
     <row r="596" spans="2:4">
-      <c r="B596" s="16"/>
-      <c r="C596" s="17"/>
+      <c r="B596" s="17"/>
+      <c r="C596" s="18"/>
       <c r="D596" s="1"/>
     </row>
     <row r="597" spans="2:4">
-      <c r="B597" s="16"/>
-      <c r="C597" s="17"/>
+      <c r="B597" s="17"/>
+      <c r="C597" s="18"/>
       <c r="D597" s="1"/>
     </row>
     <row r="598" spans="2:4">
-      <c r="B598" s="16"/>
-      <c r="C598" s="17"/>
+      <c r="B598" s="17"/>
+      <c r="C598" s="18"/>
       <c r="D598" s="1"/>
     </row>
     <row r="599" spans="2:4">
-      <c r="B599" s="16"/>
-      <c r="C599" s="17"/>
+      <c r="B599" s="17"/>
+      <c r="C599" s="18"/>
       <c r="D599" s="1"/>
     </row>
     <row r="600" spans="2:4">
-      <c r="B600" s="16"/>
-      <c r="C600" s="17"/>
+      <c r="B600" s="17"/>
+      <c r="C600" s="18"/>
       <c r="D600" s="1"/>
     </row>
     <row r="601" spans="2:4">
-      <c r="B601" s="16"/>
-      <c r="C601" s="17"/>
+      <c r="B601" s="17"/>
+      <c r="C601" s="18"/>
       <c r="D601" s="1"/>
     </row>
     <row r="602" spans="2:4">
-      <c r="B602" s="16"/>
-      <c r="C602" s="17"/>
+      <c r="B602" s="17"/>
+      <c r="C602" s="18"/>
       <c r="D602" s="1"/>
     </row>
     <row r="603" spans="2:4">
-      <c r="B603" s="16"/>
-      <c r="C603" s="17"/>
+      <c r="B603" s="17"/>
+      <c r="C603" s="18"/>
       <c r="D603" s="1"/>
     </row>
     <row r="604" spans="2:4">
-      <c r="B604" s="16"/>
-      <c r="C604" s="17"/>
+      <c r="B604" s="17"/>
+      <c r="C604" s="18"/>
       <c r="D604" s="1"/>
     </row>
     <row r="605" spans="2:4">
-      <c r="B605" s="16"/>
-      <c r="C605" s="17"/>
+      <c r="B605" s="17"/>
+      <c r="C605" s="18"/>
       <c r="D605" s="1"/>
     </row>
     <row r="606" spans="2:4">
-      <c r="B606" s="16"/>
-      <c r="C606" s="17"/>
+      <c r="B606" s="17"/>
+      <c r="C606" s="18"/>
       <c r="D606" s="1"/>
     </row>
     <row r="607" spans="2:4">
-      <c r="B607" s="16"/>
-      <c r="C607" s="17"/>
+      <c r="B607" s="17"/>
+      <c r="C607" s="18"/>
       <c r="D607" s="1"/>
     </row>
     <row r="608" spans="2:4">
-      <c r="B608" s="16"/>
-      <c r="C608" s="17"/>
+      <c r="B608" s="17"/>
+      <c r="C608" s="18"/>
       <c r="D608" s="1"/>
     </row>
     <row r="609" spans="2:4">
-      <c r="B609" s="16"/>
-      <c r="C609" s="17"/>
+      <c r="B609" s="17"/>
+      <c r="C609" s="18"/>
       <c r="D609" s="1"/>
     </row>
     <row r="610" spans="2:4">
-      <c r="B610" s="16"/>
-      <c r="C610" s="17"/>
+      <c r="B610" s="17"/>
+      <c r="C610" s="18"/>
       <c r="D610" s="1"/>
     </row>
     <row r="611" spans="2:4">
-      <c r="B611" s="16"/>
-      <c r="C611" s="17"/>
+      <c r="B611" s="17"/>
+      <c r="C611" s="18"/>
       <c r="D611" s="1"/>
     </row>
     <row r="612" spans="2:4">
-      <c r="B612" s="16"/>
-      <c r="C612" s="17"/>
+      <c r="B612" s="17"/>
+      <c r="C612" s="18"/>
       <c r="D612" s="1"/>
     </row>
     <row r="613" spans="2:4">
-      <c r="B613" s="16"/>
-      <c r="C613" s="17"/>
+      <c r="B613" s="17"/>
+      <c r="C613" s="18"/>
       <c r="D613" s="1"/>
     </row>
     <row r="614" spans="2:4">
-      <c r="B614" s="16"/>
-      <c r="C614" s="17"/>
+      <c r="B614" s="17"/>
+      <c r="C614" s="18"/>
       <c r="D614" s="1"/>
     </row>
     <row r="615" spans="2:4">
-      <c r="B615" s="16"/>
-      <c r="C615" s="17"/>
+      <c r="B615" s="17"/>
+      <c r="C615" s="18"/>
       <c r="D615" s="1"/>
     </row>
     <row r="616" spans="2:4">
-      <c r="B616" s="16"/>
-      <c r="C616" s="17"/>
+      <c r="B616" s="17"/>
+      <c r="C616" s="18"/>
       <c r="D616" s="1"/>
     </row>
     <row r="617" spans="2:4">
-      <c r="B617" s="16"/>
-      <c r="C617" s="17"/>
+      <c r="B617" s="17"/>
+      <c r="C617" s="18"/>
       <c r="D617" s="1"/>
     </row>
     <row r="618" spans="2:4">
-      <c r="B618" s="16"/>
-      <c r="C618" s="17"/>
+      <c r="B618" s="17"/>
+      <c r="C618" s="18"/>
       <c r="D618" s="1"/>
     </row>
     <row r="619" spans="2:4">
-      <c r="B619" s="16"/>
-      <c r="C619" s="17"/>
+      <c r="B619" s="17"/>
+      <c r="C619" s="18"/>
       <c r="D619" s="1"/>
     </row>
     <row r="620" spans="2:4">
-      <c r="B620" s="16"/>
-      <c r="C620" s="17"/>
+      <c r="B620" s="17"/>
+      <c r="C620" s="18"/>
       <c r="D620" s="1"/>
     </row>
     <row r="621" spans="2:4">
-      <c r="B621" s="16"/>
-      <c r="C621" s="17"/>
+      <c r="B621" s="17"/>
+      <c r="C621" s="18"/>
       <c r="D621" s="1"/>
     </row>
     <row r="622" spans="2:4">
-      <c r="B622" s="16"/>
-      <c r="C622" s="17"/>
+      <c r="B622" s="17"/>
+      <c r="C622" s="18"/>
       <c r="D622" s="1"/>
     </row>
     <row r="623" spans="2:4">
-      <c r="B623" s="16"/>
-      <c r="C623" s="17"/>
+      <c r="B623" s="17"/>
+      <c r="C623" s="18"/>
       <c r="D623" s="1"/>
     </row>
     <row r="624" spans="2:4">
-      <c r="B624" s="16"/>
-      <c r="C624" s="17"/>
+      <c r="B624" s="17"/>
+      <c r="C624" s="18"/>
       <c r="D624" s="1"/>
     </row>
     <row r="625" spans="2:4">
-      <c r="B625" s="16"/>
-      <c r="C625" s="17"/>
+      <c r="B625" s="17"/>
+      <c r="C625" s="18"/>
       <c r="D625" s="1"/>
     </row>
     <row r="626" spans="2:4">
-      <c r="B626" s="16"/>
-      <c r="C626" s="17"/>
+      <c r="B626" s="17"/>
+      <c r="C626" s="18"/>
       <c r="D626" s="1"/>
     </row>
     <row r="627" spans="2:4">
-      <c r="B627" s="16"/>
-      <c r="C627" s="17"/>
+      <c r="B627" s="17"/>
+      <c r="C627" s="18"/>
       <c r="D627" s="1"/>
     </row>
     <row r="628" spans="2:4">
-      <c r="B628" s="16"/>
-      <c r="C628" s="17"/>
+      <c r="B628" s="17"/>
+      <c r="C628" s="18"/>
       <c r="D628" s="1"/>
     </row>
     <row r="629" spans="2:4">
-      <c r="B629" s="16"/>
-      <c r="C629" s="17"/>
+      <c r="B629" s="17"/>
+      <c r="C629" s="18"/>
       <c r="D629" s="1"/>
     </row>
     <row r="630" spans="2:4">
-      <c r="B630" s="16"/>
-      <c r="C630" s="17"/>
+      <c r="B630" s="17"/>
+      <c r="C630" s="18"/>
       <c r="D630" s="1"/>
     </row>
     <row r="631" spans="2:4">
-      <c r="B631" s="16"/>
-      <c r="C631" s="17"/>
+      <c r="B631" s="17"/>
+      <c r="C631" s="18"/>
       <c r="D631" s="1"/>
     </row>
     <row r="632" spans="2:4">
-      <c r="B632" s="16"/>
-      <c r="C632" s="17"/>
+      <c r="B632" s="17"/>
+      <c r="C632" s="18"/>
       <c r="D632" s="1"/>
     </row>
     <row r="633" spans="2:4">
-      <c r="B633" s="16"/>
-      <c r="C633" s="17"/>
+      <c r="B633" s="17"/>
+      <c r="C633" s="18"/>
       <c r="D633" s="1"/>
     </row>
     <row r="634" spans="2:4">
-      <c r="B634" s="16"/>
-      <c r="C634" s="17"/>
+      <c r="B634" s="17"/>
+      <c r="C634" s="18"/>
       <c r="D634" s="1"/>
     </row>
     <row r="635" spans="2:4">
-      <c r="B635" s="16"/>
-      <c r="C635" s="17"/>
+      <c r="B635" s="17"/>
+      <c r="C635" s="18"/>
       <c r="D635" s="1"/>
     </row>
     <row r="636" spans="2:4">
-      <c r="B636" s="16"/>
-      <c r="C636" s="17"/>
+      <c r="B636" s="17"/>
+      <c r="C636" s="18"/>
       <c r="D636" s="1"/>
     </row>
     <row r="637" spans="2:4">
-      <c r="B637" s="16"/>
-      <c r="C637" s="17"/>
+      <c r="B637" s="17"/>
+      <c r="C637" s="18"/>
       <c r="D637" s="1"/>
     </row>
     <row r="638" spans="2:4">
-      <c r="B638" s="16"/>
-      <c r="C638" s="17"/>
+      <c r="B638" s="17"/>
+      <c r="C638" s="18"/>
       <c r="D638" s="1"/>
     </row>
     <row r="639" spans="2:4">
-      <c r="B639" s="16"/>
-      <c r="C639" s="17"/>
+      <c r="B639" s="17"/>
+      <c r="C639" s="18"/>
       <c r="D639" s="1"/>
     </row>
     <row r="640" spans="2:4">
-      <c r="B640" s="16"/>
-      <c r="C640" s="17"/>
+      <c r="B640" s="17"/>
+      <c r="C640" s="18"/>
       <c r="D640" s="1"/>
     </row>
     <row r="641" spans="2:4">
-      <c r="B641" s="16"/>
-      <c r="C641" s="17"/>
+      <c r="B641" s="17"/>
+      <c r="C641" s="18"/>
       <c r="D641" s="1"/>
     </row>
     <row r="642" spans="2:4">
-      <c r="B642" s="16"/>
-      <c r="C642" s="17"/>
+      <c r="B642" s="17"/>
+      <c r="C642" s="18"/>
       <c r="D642" s="1"/>
     </row>
     <row r="643" spans="2:4">
-      <c r="B643" s="16"/>
-      <c r="C643" s="17"/>
+      <c r="B643" s="17"/>
+      <c r="C643" s="18"/>
       <c r="D643" s="1"/>
     </row>
     <row r="644" spans="2:4">
-      <c r="B644" s="16"/>
-      <c r="C644" s="17"/>
+      <c r="B644" s="17"/>
+      <c r="C644" s="18"/>
       <c r="D644" s="1"/>
     </row>
     <row r="645" spans="2:4">
-      <c r="B645" s="16"/>
-      <c r="C645" s="17"/>
+      <c r="B645" s="17"/>
+      <c r="C645" s="18"/>
       <c r="D645" s="1"/>
     </row>
     <row r="646" spans="2:4">
-      <c r="B646" s="16"/>
-      <c r="C646" s="17"/>
+      <c r="B646" s="17"/>
+      <c r="C646" s="18"/>
       <c r="D646" s="1"/>
     </row>
     <row r="647" spans="2:4">
-      <c r="B647" s="16"/>
-      <c r="C647" s="17"/>
+      <c r="B647" s="17"/>
+      <c r="C647" s="18"/>
       <c r="D647" s="1"/>
     </row>
     <row r="648" spans="2:4">
-      <c r="B648" s="16"/>
-      <c r="C648" s="17"/>
+      <c r="B648" s="17"/>
+      <c r="C648" s="18"/>
       <c r="D648" s="1"/>
     </row>
     <row r="649" spans="2:4">
-      <c r="B649" s="16"/>
-      <c r="C649" s="17"/>
+      <c r="B649" s="17"/>
+      <c r="C649" s="18"/>
       <c r="D649" s="1"/>
     </row>
     <row r="650" spans="2:4">
-      <c r="B650" s="16"/>
-      <c r="C650" s="17"/>
+      <c r="B650" s="17"/>
+      <c r="C650" s="18"/>
       <c r="D650" s="1"/>
     </row>
     <row r="651" spans="2:4">
-      <c r="B651" s="16"/>
-      <c r="C651" s="17"/>
+      <c r="B651" s="17"/>
+      <c r="C651" s="18"/>
       <c r="D651" s="1"/>
     </row>
     <row r="652" spans="2:4">
-      <c r="B652" s="16"/>
-      <c r="C652" s="17"/>
+      <c r="B652" s="17"/>
+      <c r="C652" s="18"/>
       <c r="D652" s="1"/>
     </row>
     <row r="653" spans="2:4">
-      <c r="B653" s="16"/>
-      <c r="C653" s="17"/>
+      <c r="B653" s="17"/>
+      <c r="C653" s="18"/>
       <c r="D653" s="1"/>
     </row>
     <row r="654" spans="2:4">
-      <c r="B654" s="16"/>
-      <c r="C654" s="17"/>
+      <c r="B654" s="17"/>
+      <c r="C654" s="18"/>
       <c r="D654" s="1"/>
     </row>
     <row r="655" spans="2:4">
-      <c r="B655" s="16"/>
-      <c r="C655" s="17"/>
+      <c r="B655" s="17"/>
+      <c r="C655" s="18"/>
       <c r="D655" s="1"/>
     </row>
     <row r="656" spans="2:4">
-      <c r="B656" s="16"/>
-      <c r="C656" s="17"/>
+      <c r="B656" s="17"/>
+      <c r="C656" s="18"/>
       <c r="D656" s="1"/>
     </row>
     <row r="657" spans="2:4">
-      <c r="B657" s="16"/>
-      <c r="C657" s="17"/>
+      <c r="B657" s="17"/>
+      <c r="C657" s="18"/>
       <c r="D657" s="1"/>
     </row>
     <row r="658" spans="2:4">
-      <c r="B658" s="16"/>
-      <c r="C658" s="17"/>
+      <c r="B658" s="17"/>
+      <c r="C658" s="18"/>
       <c r="D658" s="1"/>
     </row>
     <row r="659" spans="2:4">
-      <c r="B659" s="16"/>
-      <c r="C659" s="17"/>
+      <c r="B659" s="17"/>
+      <c r="C659" s="18"/>
       <c r="D659" s="1"/>
     </row>
     <row r="660" spans="2:4">
-      <c r="B660" s="16"/>
-      <c r="C660" s="17"/>
+      <c r="B660" s="17"/>
+      <c r="C660" s="18"/>
       <c r="D660" s="1"/>
     </row>
     <row r="661" spans="2:4">
-      <c r="B661" s="16"/>
-      <c r="C661" s="17"/>
+      <c r="B661" s="17"/>
+      <c r="C661" s="18"/>
       <c r="D661" s="1"/>
     </row>
     <row r="662" spans="2:4">
-      <c r="B662" s="16"/>
-      <c r="C662" s="17"/>
+      <c r="B662" s="17"/>
+      <c r="C662" s="18"/>
       <c r="D662" s="1"/>
     </row>
     <row r="663" spans="2:4">
-      <c r="B663" s="16"/>
-      <c r="C663" s="17"/>
+      <c r="B663" s="17"/>
+      <c r="C663" s="18"/>
       <c r="D663" s="1"/>
     </row>
     <row r="664" spans="2:4">
-      <c r="B664" s="16"/>
-      <c r="C664" s="17"/>
+      <c r="B664" s="17"/>
+      <c r="C664" s="18"/>
       <c r="D664" s="1"/>
     </row>
     <row r="665" spans="2:4">
-      <c r="B665" s="16"/>
-      <c r="C665" s="17"/>
+      <c r="B665" s="17"/>
+      <c r="C665" s="18"/>
       <c r="D665" s="1"/>
     </row>
     <row r="666" spans="2:4">
-      <c r="B666" s="16"/>
-      <c r="C666" s="17"/>
+      <c r="B666" s="17"/>
+      <c r="C666" s="18"/>
       <c r="D666" s="1"/>
     </row>
     <row r="667" spans="2:4">
-      <c r="B667" s="16"/>
-      <c r="C667" s="17"/>
+      <c r="B667" s="17"/>
+      <c r="C667" s="18"/>
       <c r="D667" s="1"/>
     </row>
     <row r="668" spans="2:4">
-      <c r="B668" s="16"/>
-      <c r="C668" s="17"/>
+      <c r="B668" s="17"/>
+      <c r="C668" s="18"/>
       <c r="D668" s="1"/>
     </row>
     <row r="669" spans="2:4">
-      <c r="B669" s="16"/>
-      <c r="C669" s="17"/>
+      <c r="B669" s="17"/>
+      <c r="C669" s="18"/>
       <c r="D669" s="1"/>
     </row>
     <row r="670" spans="2:4">
-      <c r="B670" s="16"/>
-      <c r="C670" s="17"/>
+      <c r="B670" s="17"/>
+      <c r="C670" s="18"/>
       <c r="D670" s="1"/>
     </row>
     <row r="671" spans="2:4">
-      <c r="B671" s="16"/>
-      <c r="C671" s="17"/>
+      <c r="B671" s="17"/>
+      <c r="C671" s="18"/>
       <c r="D671" s="1"/>
     </row>
     <row r="672" spans="2:4">
-      <c r="B672" s="16"/>
-      <c r="C672" s="17"/>
+      <c r="B672" s="17"/>
+      <c r="C672" s="18"/>
       <c r="D672" s="1"/>
     </row>
     <row r="673" spans="2:4">
-      <c r="B673" s="16"/>
-      <c r="C673" s="17"/>
+      <c r="B673" s="17"/>
+      <c r="C673" s="18"/>
       <c r="D673" s="1"/>
     </row>
     <row r="674" spans="2:4">
-      <c r="B674" s="16"/>
-      <c r="C674" s="17"/>
+      <c r="B674" s="17"/>
+      <c r="C674" s="18"/>
       <c r="D674" s="1"/>
     </row>
     <row r="675" spans="2:4">
-      <c r="B675" s="16"/>
-      <c r="C675" s="17"/>
+      <c r="B675" s="17"/>
+      <c r="C675" s="18"/>
       <c r="D675" s="1"/>
     </row>
     <row r="676" spans="2:4">
-      <c r="B676" s="16"/>
-      <c r="C676" s="17"/>
+      <c r="B676" s="17"/>
+      <c r="C676" s="18"/>
       <c r="D676" s="1"/>
     </row>
     <row r="677" spans="2:4">
-      <c r="B677" s="16"/>
-      <c r="C677" s="17"/>
+      <c r="B677" s="17"/>
+      <c r="C677" s="18"/>
       <c r="D677" s="1"/>
     </row>
     <row r="678" spans="2:4">
-      <c r="B678" s="16"/>
-      <c r="C678" s="17"/>
+      <c r="B678" s="17"/>
+      <c r="C678" s="18"/>
       <c r="D678" s="1"/>
     </row>
     <row r="679" spans="2:4">
-      <c r="B679" s="16"/>
-      <c r="C679" s="17"/>
+      <c r="B679" s="17"/>
+      <c r="C679" s="18"/>
       <c r="D679" s="1"/>
     </row>
     <row r="680" spans="2:4">
-      <c r="B680" s="16"/>
-      <c r="C680" s="17"/>
+      <c r="B680" s="17"/>
+      <c r="C680" s="18"/>
       <c r="D680" s="1"/>
     </row>
     <row r="681" spans="2:4">
-      <c r="B681" s="16"/>
-      <c r="C681" s="17"/>
+      <c r="B681" s="17"/>
+      <c r="C681" s="18"/>
       <c r="D681" s="1"/>
     </row>
     <row r="682" spans="2:4">
-      <c r="B682" s="16"/>
-      <c r="C682" s="17"/>
+      <c r="B682" s="17"/>
+      <c r="C682" s="18"/>
       <c r="D682" s="1"/>
     </row>
     <row r="683" spans="2:4">
-      <c r="B683" s="16"/>
-      <c r="C683" s="17"/>
+      <c r="B683" s="17"/>
+      <c r="C683" s="18"/>
       <c r="D683" s="1"/>
     </row>
     <row r="684" spans="2:4">
-      <c r="B684" s="16"/>
-      <c r="C684" s="17"/>
+      <c r="B684" s="17"/>
+      <c r="C684" s="18"/>
       <c r="D684" s="1"/>
     </row>
     <row r="685" spans="2:4">
-      <c r="B685" s="16"/>
-      <c r="C685" s="17"/>
+      <c r="B685" s="17"/>
+      <c r="C685" s="18"/>
       <c r="D685" s="1"/>
     </row>
     <row r="686" spans="2:4">
-      <c r="B686" s="16"/>
-      <c r="C686" s="17"/>
+      <c r="B686" s="17"/>
+      <c r="C686" s="18"/>
       <c r="D686" s="1"/>
     </row>
     <row r="687" spans="2:4">
-      <c r="B687" s="16"/>
-      <c r="C687" s="17"/>
+      <c r="B687" s="17"/>
+      <c r="C687" s="18"/>
       <c r="D687" s="1"/>
     </row>
     <row r="688" spans="2:4">
-      <c r="B688" s="16"/>
-      <c r="C688" s="17"/>
+      <c r="B688" s="17"/>
+      <c r="C688" s="18"/>
       <c r="D688" s="1"/>
     </row>
     <row r="689" spans="2:4">
-      <c r="B689" s="16"/>
-      <c r="C689" s="17"/>
+      <c r="B689" s="17"/>
+      <c r="C689" s="18"/>
       <c r="D689" s="1"/>
     </row>
     <row r="690" spans="2:4">
-      <c r="B690" s="16"/>
-      <c r="C690" s="17"/>
+      <c r="B690" s="17"/>
+      <c r="C690" s="18"/>
       <c r="D690" s="1"/>
     </row>
     <row r="691" spans="2:4">
-      <c r="B691" s="16"/>
-      <c r="C691" s="17"/>
+      <c r="B691" s="17"/>
+      <c r="C691" s="18"/>
       <c r="D691" s="1"/>
     </row>
     <row r="692" spans="2:4">
-      <c r="B692" s="16"/>
-      <c r="C692" s="17"/>
+      <c r="B692" s="17"/>
+      <c r="C692" s="18"/>
       <c r="D692" s="1"/>
     </row>
     <row r="693" spans="2:4">
-      <c r="B693" s="16"/>
-      <c r="C693" s="17"/>
+      <c r="B693" s="17"/>
+      <c r="C693" s="18"/>
       <c r="D693" s="1"/>
     </row>
     <row r="694" spans="2:4">
-      <c r="B694" s="16"/>
-      <c r="C694" s="17"/>
+      <c r="B694" s="17"/>
+      <c r="C694" s="18"/>
       <c r="D694" s="1"/>
     </row>
     <row r="695" spans="2:4">
-      <c r="B695" s="16"/>
-      <c r="C695" s="17"/>
+      <c r="B695" s="17"/>
+      <c r="C695" s="18"/>
       <c r="D695" s="1"/>
     </row>
     <row r="696" spans="2:4">
-      <c r="B696" s="16"/>
-      <c r="C696" s="17"/>
+      <c r="B696" s="17"/>
+      <c r="C696" s="18"/>
       <c r="D696" s="1"/>
     </row>
     <row r="697" spans="2:4">
-      <c r="B697" s="16"/>
-      <c r="C697" s="17"/>
+      <c r="B697" s="17"/>
+      <c r="C697" s="18"/>
       <c r="D697" s="1"/>
     </row>
     <row r="698" spans="2:4">
-      <c r="B698" s="16"/>
-      <c r="C698" s="17"/>
+      <c r="B698" s="17"/>
+      <c r="C698" s="18"/>
       <c r="D698" s="1"/>
     </row>
     <row r="699" spans="2:4">
-      <c r="B699" s="16"/>
-      <c r="C699" s="17"/>
+      <c r="B699" s="17"/>
+      <c r="C699" s="18"/>
       <c r="D699" s="1"/>
     </row>
     <row r="700" spans="2:4">
-      <c r="B700" s="16"/>
-      <c r="C700" s="17"/>
+      <c r="B700" s="17"/>
+      <c r="C700" s="18"/>
       <c r="D700" s="1"/>
     </row>
     <row r="701" spans="2:4">
-      <c r="B701" s="16"/>
-      <c r="C701" s="17"/>
+      <c r="B701" s="17"/>
+      <c r="C701" s="18"/>
       <c r="D701" s="1"/>
     </row>
     <row r="702" spans="2:4">
-      <c r="B702" s="16"/>
-      <c r="C702" s="17"/>
+      <c r="B702" s="17"/>
+      <c r="C702" s="18"/>
       <c r="D702" s="1"/>
     </row>
     <row r="703" spans="2:4">
-      <c r="B703" s="16"/>
-      <c r="C703" s="17"/>
+      <c r="B703" s="17"/>
+      <c r="C703" s="18"/>
       <c r="D703" s="1"/>
     </row>
     <row r="704" spans="2:4">
-      <c r="B704" s="16"/>
-      <c r="C704" s="17"/>
+      <c r="B704" s="17"/>
+      <c r="C704" s="18"/>
       <c r="D704" s="1"/>
     </row>
     <row r="705" spans="2:4">
-      <c r="B705" s="16"/>
-      <c r="C705" s="17"/>
+      <c r="B705" s="17"/>
+      <c r="C705" s="18"/>
       <c r="D705" s="1"/>
     </row>
     <row r="706" spans="2:4">
-      <c r="B706" s="16"/>
-      <c r="C706" s="17"/>
+      <c r="B706" s="17"/>
+      <c r="C706" s="18"/>
       <c r="D706" s="1"/>
     </row>
     <row r="707" spans="2:4">
-      <c r="B707" s="16"/>
-      <c r="C707" s="17"/>
+      <c r="B707" s="17"/>
+      <c r="C707" s="18"/>
       <c r="D707" s="1"/>
     </row>
     <row r="708" spans="2:4">
-      <c r="B708" s="16"/>
-      <c r="C708" s="17"/>
+      <c r="B708" s="17"/>
+      <c r="C708" s="18"/>
       <c r="D708" s="1"/>
     </row>
     <row r="709" spans="2:4">
-      <c r="B709" s="16"/>
-      <c r="C709" s="17"/>
+      <c r="B709" s="17"/>
+      <c r="C709" s="18"/>
       <c r="D709" s="1"/>
     </row>
     <row r="710" spans="2:4">
-      <c r="B710" s="16"/>
-      <c r="C710" s="17"/>
+      <c r="B710" s="17"/>
+      <c r="C710" s="18"/>
       <c r="D710" s="1"/>
     </row>
     <row r="711" spans="2:4">
-      <c r="B711" s="16"/>
-      <c r="C711" s="17"/>
+      <c r="B711" s="17"/>
+      <c r="C711" s="18"/>
       <c r="D711" s="1"/>
     </row>
     <row r="712" spans="2:4">
-      <c r="B712" s="16"/>
-      <c r="C712" s="17"/>
+      <c r="B712" s="17"/>
+      <c r="C712" s="18"/>
       <c r="D712" s="1"/>
     </row>
     <row r="713" spans="2:4">
-      <c r="B713" s="16"/>
-      <c r="C713" s="17"/>
+      <c r="B713" s="17"/>
+      <c r="C713" s="18"/>
       <c r="D713" s="1"/>
     </row>
     <row r="714" spans="2:4">
-      <c r="B714" s="16"/>
-      <c r="C714" s="17"/>
+      <c r="B714" s="17"/>
+      <c r="C714" s="18"/>
       <c r="D714" s="1"/>
     </row>
     <row r="715" spans="2:4">
-      <c r="B715" s="16"/>
-      <c r="C715" s="17"/>
+      <c r="B715" s="17"/>
+      <c r="C715" s="18"/>
       <c r="D715" s="1"/>
     </row>
     <row r="716" spans="2:4">
-      <c r="B716" s="16"/>
-      <c r="C716" s="17"/>
+      <c r="B716" s="17"/>
+      <c r="C716" s="18"/>
       <c r="D716" s="1"/>
     </row>
     <row r="717" spans="2:4">
-      <c r="B717" s="16"/>
-      <c r="C717" s="17"/>
+      <c r="B717" s="17"/>
+      <c r="C717" s="18"/>
       <c r="D717" s="1"/>
     </row>
     <row r="718" spans="2:4">
-      <c r="B718" s="16"/>
-      <c r="C718" s="17"/>
+      <c r="B718" s="17"/>
+      <c r="C718" s="18"/>
       <c r="D718" s="1"/>
     </row>
     <row r="719" spans="2:4">
-      <c r="B719" s="16"/>
-      <c r="C719" s="17"/>
+      <c r="B719" s="17"/>
+      <c r="C719" s="18"/>
       <c r="D719" s="1"/>
     </row>
     <row r="720" spans="2:4">
-      <c r="B720" s="16"/>
-      <c r="C720" s="17"/>
+      <c r="B720" s="17"/>
+      <c r="C720" s="18"/>
       <c r="D720" s="1"/>
     </row>
     <row r="721" spans="2:4">
-      <c r="B721" s="16"/>
-      <c r="C721" s="17"/>
+      <c r="B721" s="17"/>
+      <c r="C721" s="18"/>
       <c r="D721" s="1"/>
     </row>
     <row r="722" spans="2:4">
-      <c r="B722" s="16"/>
-      <c r="C722" s="17"/>
+      <c r="B722" s="17"/>
+      <c r="C722" s="18"/>
       <c r="D722" s="1"/>
     </row>
     <row r="723" spans="2:4">
-      <c r="B723" s="16"/>
-      <c r="C723" s="17"/>
+      <c r="B723" s="17"/>
+      <c r="C723" s="18"/>
       <c r="D723" s="1"/>
     </row>
     <row r="724" spans="2:4">
-      <c r="B724" s="16"/>
-      <c r="C724" s="17"/>
+      <c r="B724" s="17"/>
+      <c r="C724" s="18"/>
       <c r="D724" s="1"/>
     </row>
     <row r="725" spans="2:4">
-      <c r="B725" s="16"/>
-      <c r="C725" s="17"/>
+      <c r="B725" s="17"/>
+      <c r="C725" s="18"/>
       <c r="D725" s="1"/>
     </row>
     <row r="726" spans="2:4">
-      <c r="B726" s="16"/>
-      <c r="C726" s="17"/>
+      <c r="B726" s="17"/>
+      <c r="C726" s="18"/>
       <c r="D726" s="1"/>
     </row>
     <row r="727" spans="2:4">
-      <c r="B727" s="16"/>
-      <c r="C727" s="17"/>
+      <c r="B727" s="17"/>
+      <c r="C727" s="18"/>
       <c r="D727" s="1"/>
     </row>
     <row r="728" spans="2:4">
-      <c r="B728" s="16"/>
-      <c r="C728" s="17"/>
+      <c r="B728" s="17"/>
+      <c r="C728" s="18"/>
       <c r="D728" s="1"/>
     </row>
     <row r="729" spans="2:4">
-      <c r="B729" s="16"/>
-      <c r="C729" s="17"/>
+      <c r="B729" s="17"/>
+      <c r="C729" s="18"/>
       <c r="D729" s="1"/>
     </row>
     <row r="730" spans="2:4">
-      <c r="B730" s="16"/>
-      <c r="C730" s="17"/>
+      <c r="B730" s="17"/>
+      <c r="C730" s="18"/>
       <c r="D730" s="1"/>
     </row>
     <row r="731" spans="2:4">
-      <c r="B731" s="16"/>
-      <c r="C731" s="17"/>
+      <c r="B731" s="17"/>
+      <c r="C731" s="18"/>
       <c r="D731" s="1"/>
     </row>
     <row r="732" spans="2:4">
-      <c r="B732" s="16"/>
-      <c r="C732" s="17"/>
+      <c r="B732" s="17"/>
+      <c r="C732" s="18"/>
       <c r="D732" s="1"/>
     </row>
     <row r="733" spans="2:4">
-      <c r="B733" s="16"/>
-      <c r="C733" s="17"/>
+      <c r="B733" s="17"/>
+      <c r="C733" s="18"/>
       <c r="D733" s="1"/>
     </row>
     <row r="734" spans="2:4">
-      <c r="B734" s="16"/>
-      <c r="C734" s="17"/>
+      <c r="B734" s="17"/>
+      <c r="C734" s="18"/>
       <c r="D734" s="1"/>
     </row>
     <row r="735" spans="2:4">
-      <c r="B735" s="16"/>
-      <c r="C735" s="17"/>
+      <c r="B735" s="17"/>
+      <c r="C735" s="18"/>
       <c r="D735" s="1"/>
     </row>
     <row r="736" spans="2:4">
-      <c r="B736" s="16"/>
-      <c r="C736" s="17"/>
+      <c r="B736" s="17"/>
+      <c r="C736" s="18"/>
       <c r="D736" s="1"/>
     </row>
     <row r="737" spans="2:4">
-      <c r="B737" s="16"/>
-      <c r="C737" s="17"/>
+      <c r="B737" s="17"/>
+      <c r="C737" s="18"/>
       <c r="D737" s="1"/>
     </row>
     <row r="738" spans="2:4">
-      <c r="B738" s="16"/>
-      <c r="C738" s="17"/>
+      <c r="B738" s="17"/>
+      <c r="C738" s="18"/>
       <c r="D738" s="1"/>
     </row>
     <row r="739" spans="2:4">
-      <c r="B739" s="16"/>
-      <c r="C739" s="17"/>
+      <c r="B739" s="17"/>
+      <c r="C739" s="18"/>
       <c r="D739" s="1"/>
     </row>
     <row r="740" spans="2:4">
-      <c r="B740" s="16"/>
-      <c r="C740" s="17"/>
+      <c r="B740" s="17"/>
+      <c r="C740" s="18"/>
       <c r="D740" s="1"/>
     </row>
     <row r="741" spans="2:4">
-      <c r="B741" s="16"/>
-      <c r="C741" s="17"/>
+      <c r="B741" s="17"/>
+      <c r="C741" s="18"/>
       <c r="D741" s="1"/>
     </row>
     <row r="742" spans="2:4">
-      <c r="B742" s="16"/>
-      <c r="C742" s="17"/>
+      <c r="B742" s="17"/>
+      <c r="C742" s="18"/>
       <c r="D742" s="1"/>
     </row>
     <row r="743" spans="2:4">
-      <c r="B743" s="16"/>
-      <c r="C743" s="17"/>
+      <c r="B743" s="17"/>
+      <c r="C743" s="18"/>
       <c r="D743" s="1"/>
     </row>
     <row r="744" spans="2:4">
-      <c r="B744" s="16"/>
-      <c r="C744" s="17"/>
+      <c r="B744" s="17"/>
+      <c r="C744" s="18"/>
       <c r="D744" s="1"/>
     </row>
     <row r="745" spans="2:4">
-      <c r="B745" s="16"/>
-      <c r="C745" s="17"/>
+      <c r="B745" s="17"/>
+      <c r="C745" s="18"/>
       <c r="D745" s="1"/>
     </row>
     <row r="746" spans="2:4">
-      <c r="B746" s="16"/>
-      <c r="C746" s="17"/>
+      <c r="B746" s="17"/>
+      <c r="C746" s="18"/>
       <c r="D746" s="1"/>
     </row>
     <row r="747" spans="2:4">
-      <c r="B747" s="16"/>
-      <c r="C747" s="17"/>
+      <c r="B747" s="17"/>
+      <c r="C747" s="18"/>
       <c r="D747" s="1"/>
     </row>
     <row r="748" spans="2:4">
-      <c r="B748" s="16"/>
-      <c r="C748" s="17"/>
+      <c r="B748" s="17"/>
+      <c r="C748" s="18"/>
       <c r="D748" s="1"/>
     </row>
     <row r="749" spans="2:4">
-      <c r="B749" s="16"/>
-      <c r="C749" s="17"/>
+      <c r="B749" s="17"/>
+      <c r="C749" s="18"/>
       <c r="D749" s="1"/>
     </row>
     <row r="750" spans="2:4">
-      <c r="B750" s="16"/>
-      <c r="C750" s="17"/>
+      <c r="B750" s="17"/>
+      <c r="C750" s="18"/>
       <c r="D750" s="1"/>
     </row>
     <row r="751" spans="2:4">
-      <c r="B751" s="16"/>
-      <c r="C751" s="17"/>
+      <c r="B751" s="17"/>
+      <c r="C751" s="18"/>
       <c r="D751" s="1"/>
     </row>
     <row r="752" spans="2:4">
-      <c r="B752" s="16"/>
-      <c r="C752" s="17"/>
+      <c r="B752" s="17"/>
+      <c r="C752" s="18"/>
       <c r="D752" s="1"/>
     </row>
     <row r="753" spans="2:4">
-      <c r="B753" s="16"/>
-      <c r="C753" s="17"/>
+      <c r="B753" s="17"/>
+      <c r="C753" s="18"/>
       <c r="D753" s="1"/>
     </row>
     <row r="754" spans="2:4">
-      <c r="B754" s="16"/>
-      <c r="C754" s="17"/>
+      <c r="B754" s="17"/>
+      <c r="C754" s="18"/>
       <c r="D754" s="1"/>
     </row>
     <row r="755" spans="2:4">
-      <c r="B755" s="16"/>
-      <c r="C755" s="17"/>
+      <c r="B755" s="17"/>
+      <c r="C755" s="18"/>
       <c r="D755" s="1"/>
     </row>
     <row r="756" spans="2:4">
-      <c r="B756" s="16"/>
-      <c r="C756" s="17"/>
+      <c r="B756" s="17"/>
+      <c r="C756" s="18"/>
       <c r="D756" s="1"/>
     </row>
     <row r="757" spans="2:4">
-      <c r="B757" s="16"/>
-      <c r="C757" s="17"/>
+      <c r="B757" s="17"/>
+      <c r="C757" s="18"/>
       <c r="D757" s="1"/>
     </row>
     <row r="758" spans="2:4">
-      <c r="B758" s="16"/>
-      <c r="C758" s="17"/>
+      <c r="B758" s="17"/>
+      <c r="C758" s="18"/>
       <c r="D758" s="1"/>
     </row>
     <row r="759" spans="2:4">
-      <c r="B759" s="16"/>
-      <c r="C759" s="17"/>
+      <c r="B759" s="17"/>
+      <c r="C759" s="18"/>
       <c r="D759" s="1"/>
     </row>
     <row r="760" spans="2:4">
-      <c r="B760" s="16"/>
-      <c r="C760" s="17"/>
+      <c r="B760" s="17"/>
+      <c r="C760" s="18"/>
       <c r="D760" s="1"/>
     </row>
     <row r="761" spans="2:4">
-      <c r="B761" s="16"/>
-      <c r="C761" s="17"/>
+      <c r="B761" s="17"/>
+      <c r="C761" s="18"/>
       <c r="D761" s="1"/>
     </row>
     <row r="762" spans="2:4">
-      <c r="B762" s="16"/>
-      <c r="C762" s="17"/>
+      <c r="B762" s="17"/>
+      <c r="C762" s="18"/>
       <c r="D762" s="1"/>
     </row>
     <row r="763" spans="2:4">
-      <c r="B763" s="16"/>
-      <c r="C763" s="17"/>
+      <c r="B763" s="17"/>
+      <c r="C763" s="18"/>
       <c r="D763" s="1"/>
     </row>
     <row r="764" spans="2:4">
-      <c r="B764" s="16"/>
-      <c r="C764" s="17"/>
+      <c r="B764" s="17"/>
+      <c r="C764" s="18"/>
       <c r="D764" s="1"/>
     </row>
     <row r="765" spans="2:4">
-      <c r="B765" s="16"/>
-      <c r="C765" s="17"/>
+      <c r="B765" s="17"/>
+      <c r="C765" s="18"/>
       <c r="D765" s="1"/>
     </row>
     <row r="766" spans="2:4">
-      <c r="B766" s="16"/>
-      <c r="C766" s="17"/>
+      <c r="B766" s="17"/>
+      <c r="C766" s="18"/>
       <c r="D766" s="1"/>
     </row>
     <row r="767" spans="2:4">
-      <c r="B767" s="16"/>
-      <c r="C767" s="17"/>
+      <c r="B767" s="17"/>
+      <c r="C767" s="18"/>
       <c r="D767" s="1"/>
     </row>
     <row r="768" spans="2:4">
-      <c r="B768" s="16"/>
-      <c r="C768" s="17"/>
+      <c r="B768" s="17"/>
+      <c r="C768" s="18"/>
       <c r="D768" s="1"/>
     </row>
     <row r="769" spans="2:4">
-      <c r="B769" s="16"/>
-      <c r="C769" s="17"/>
+      <c r="B769" s="17"/>
+      <c r="C769" s="18"/>
       <c r="D769" s="1"/>
     </row>
     <row r="770" spans="2:4">
-      <c r="B770" s="16"/>
-      <c r="C770" s="17"/>
+      <c r="B770" s="17"/>
+      <c r="C770" s="18"/>
       <c r="D770" s="1"/>
     </row>
     <row r="771" spans="2:4">
-      <c r="B771" s="16"/>
-      <c r="C771" s="17"/>
+      <c r="B771" s="17"/>
+      <c r="C771" s="18"/>
       <c r="D771" s="1"/>
     </row>
     <row r="772" spans="2:4">
-      <c r="B772" s="16"/>
-      <c r="C772" s="17"/>
+      <c r="B772" s="17"/>
+      <c r="C772" s="18"/>
       <c r="D772" s="1"/>
     </row>
     <row r="773" spans="2:4">
-      <c r="B773" s="16"/>
-      <c r="C773" s="17"/>
+      <c r="B773" s="17"/>
+      <c r="C773" s="18"/>
       <c r="D773" s="1"/>
     </row>
     <row r="774" spans="2:4">
-      <c r="B774" s="16"/>
-      <c r="C774" s="17"/>
+      <c r="B774" s="17"/>
+      <c r="C774" s="18"/>
       <c r="D774" s="1"/>
     </row>
     <row r="775" spans="2:4">
-      <c r="B775" s="16"/>
-      <c r="C775" s="17"/>
+      <c r="B775" s="17"/>
+      <c r="C775" s="18"/>
       <c r="D775" s="1"/>
     </row>
     <row r="776" spans="2:4">
-      <c r="B776" s="16"/>
-      <c r="C776" s="17"/>
+      <c r="B776" s="17"/>
+      <c r="C776" s="18"/>
       <c r="D776" s="1"/>
     </row>
     <row r="777" spans="2:4">
-      <c r="B777" s="16"/>
-      <c r="C777" s="17"/>
+      <c r="B777" s="17"/>
+      <c r="C777" s="18"/>
       <c r="D777" s="1"/>
     </row>
     <row r="778" spans="2:4">
-      <c r="B778" s="16"/>
-      <c r="C778" s="17"/>
+      <c r="B778" s="17"/>
+      <c r="C778" s="18"/>
       <c r="D778" s="1"/>
     </row>
     <row r="779" spans="2:4">
-      <c r="B779" s="16"/>
-      <c r="C779" s="17"/>
+      <c r="B779" s="17"/>
+      <c r="C779" s="18"/>
       <c r="D779" s="1"/>
     </row>
     <row r="780" spans="2:4">
-      <c r="B780" s="16"/>
-      <c r="C780" s="17"/>
+      <c r="B780" s="17"/>
+      <c r="C780" s="18"/>
       <c r="D780" s="1"/>
     </row>
     <row r="781" spans="2:4">
-      <c r="B781" s="16"/>
-      <c r="C781" s="17"/>
+      <c r="B781" s="17"/>
+      <c r="C781" s="18"/>
       <c r="D781" s="1"/>
     </row>
     <row r="782" spans="2:4">
-      <c r="B782" s="16"/>
-      <c r="C782" s="17"/>
+      <c r="B782" s="17"/>
+      <c r="C782" s="18"/>
       <c r="D782" s="1"/>
     </row>
     <row r="783" spans="2:4">
-      <c r="B783" s="16"/>
-      <c r="C783" s="17"/>
+      <c r="B783" s="17"/>
+      <c r="C783" s="18"/>
       <c r="D783" s="1"/>
     </row>
     <row r="784" spans="2:4">
-      <c r="B784" s="16"/>
-      <c r="C784" s="17"/>
+      <c r="B784" s="17"/>
+      <c r="C784" s="18"/>
       <c r="D784" s="1"/>
     </row>
     <row r="785" spans="2:4">
-      <c r="B785" s="16"/>
-      <c r="C785" s="17"/>
+      <c r="B785" s="17"/>
+      <c r="C785" s="18"/>
       <c r="D785" s="1"/>
     </row>
     <row r="786" spans="2:4">
-      <c r="B786" s="16"/>
-      <c r="C786" s="17"/>
+      <c r="B786" s="17"/>
+      <c r="C786" s="18"/>
       <c r="D786" s="1"/>
     </row>
     <row r="787" spans="2:4">
-      <c r="B787" s="16"/>
-      <c r="C787" s="17"/>
+      <c r="B787" s="17"/>
+      <c r="C787" s="18"/>
       <c r="D787" s="1"/>
     </row>
     <row r="788" spans="2:4">
-      <c r="B788" s="16"/>
-      <c r="C788" s="17"/>
+      <c r="B788" s="17"/>
+      <c r="C788" s="18"/>
       <c r="D788" s="1"/>
     </row>
     <row r="789" spans="2:4">
-      <c r="B789" s="16"/>
-      <c r="C789" s="17"/>
+      <c r="B789" s="17"/>
+      <c r="C789" s="18"/>
       <c r="D789" s="1"/>
     </row>
     <row r="790" spans="2:4">
-      <c r="B790" s="16"/>
-      <c r="C790" s="17"/>
+      <c r="B790" s="17"/>
+      <c r="C790" s="18"/>
       <c r="D790" s="1"/>
     </row>
     <row r="791" spans="2:4">
-      <c r="B791" s="16"/>
-      <c r="C791" s="17"/>
+      <c r="B791" s="17"/>
+      <c r="C791" s="18"/>
       <c r="D791" s="1"/>
     </row>
     <row r="792" spans="2:4">
-      <c r="B792" s="16"/>
-      <c r="C792" s="17"/>
+      <c r="B792" s="17"/>
+      <c r="C792" s="18"/>
       <c r="D792" s="1"/>
     </row>
     <row r="793" spans="2:4">
-      <c r="B793" s="16"/>
-      <c r="C793" s="17"/>
+      <c r="B793" s="17"/>
+      <c r="C793" s="18"/>
       <c r="D793" s="1"/>
     </row>
     <row r="794" spans="2:4">
-      <c r="B794" s="16"/>
-      <c r="C794" s="17"/>
+      <c r="B794" s="17"/>
+      <c r="C794" s="18"/>
       <c r="D794" s="1"/>
     </row>
     <row r="795" spans="2:4">
-      <c r="B795" s="16"/>
-      <c r="C795" s="17"/>
+      <c r="B795" s="17"/>
+      <c r="C795" s="18"/>
       <c r="D795" s="1"/>
     </row>
     <row r="796" spans="2:4">
-      <c r="B796" s="16"/>
-      <c r="C796" s="17"/>
+      <c r="B796" s="17"/>
+      <c r="C796" s="18"/>
       <c r="D796" s="1"/>
     </row>
     <row r="797" spans="2:4">
-      <c r="B797" s="16"/>
-      <c r="C797" s="17"/>
+      <c r="B797" s="17"/>
+      <c r="C797" s="18"/>
       <c r="D797" s="1"/>
     </row>
     <row r="798" spans="2:4">
-      <c r="B798" s="16"/>
-      <c r="C798" s="17"/>
+      <c r="B798" s="17"/>
+      <c r="C798" s="18"/>
       <c r="D798" s="1"/>
     </row>
     <row r="799" spans="2:4">
-      <c r="B799" s="16"/>
-      <c r="C799" s="17"/>
+      <c r="B799" s="17"/>
+      <c r="C799" s="18"/>
       <c r="D799" s="1"/>
     </row>
     <row r="800" spans="2:4">
-      <c r="B800" s="16"/>
-      <c r="C800" s="17"/>
+      <c r="B800" s="17"/>
+      <c r="C800" s="18"/>
       <c r="D800" s="1"/>
     </row>
     <row r="801" spans="2:4">
-      <c r="B801" s="16"/>
-      <c r="C801" s="17"/>
+      <c r="B801" s="17"/>
+      <c r="C801" s="18"/>
       <c r="D801" s="1"/>
     </row>
     <row r="802" spans="2:4">
-      <c r="B802" s="16"/>
-      <c r="C802" s="17"/>
+      <c r="B802" s="17"/>
+      <c r="C802" s="18"/>
       <c r="D802" s="1"/>
     </row>
     <row r="803" spans="2:4">
-      <c r="B803" s="16"/>
-      <c r="C803" s="17"/>
+      <c r="B803" s="17"/>
+      <c r="C803" s="18"/>
       <c r="D803" s="1"/>
     </row>
     <row r="804" spans="2:4">
-      <c r="B804" s="16"/>
-      <c r="C804" s="17"/>
+      <c r="B804" s="17"/>
+      <c r="C804" s="18"/>
       <c r="D804" s="1"/>
     </row>
     <row r="805" spans="2:4">
-      <c r="B805" s="16"/>
-      <c r="C805" s="17"/>
+      <c r="B805" s="17"/>
+      <c r="C805" s="18"/>
       <c r="D805" s="1"/>
     </row>
     <row r="806" spans="2:4">
-      <c r="B806" s="16"/>
-      <c r="C806" s="17"/>
+      <c r="B806" s="17"/>
+      <c r="C806" s="18"/>
       <c r="D806" s="1"/>
     </row>
     <row r="807" spans="2:4">
-      <c r="B807" s="16"/>
-      <c r="C807" s="17"/>
+      <c r="B807" s="17"/>
+      <c r="C807" s="18"/>
       <c r="D807" s="1"/>
     </row>
     <row r="808" spans="2:4">
-      <c r="B808" s="16"/>
-      <c r="C808" s="17"/>
+      <c r="B808" s="17"/>
+      <c r="C808" s="18"/>
       <c r="D808" s="1"/>
     </row>
     <row r="809" spans="2:4">
-      <c r="B809" s="16"/>
-      <c r="C809" s="17"/>
+      <c r="B809" s="17"/>
+      <c r="C809" s="18"/>
       <c r="D809" s="1"/>
     </row>
     <row r="810" spans="2:4">
-      <c r="B810" s="16"/>
-      <c r="C810" s="17"/>
+      <c r="B810" s="17"/>
+      <c r="C810" s="18"/>
       <c r="D810" s="1"/>
     </row>
     <row r="811" spans="2:4">
-      <c r="B811" s="16"/>
-      <c r="C811" s="17"/>
+      <c r="B811" s="17"/>
+      <c r="C811" s="18"/>
       <c r="D811" s="1"/>
     </row>
     <row r="812" spans="2:4">
-      <c r="B812" s="16"/>
-      <c r="C812" s="17"/>
+      <c r="B812" s="17"/>
+      <c r="C812" s="18"/>
       <c r="D812" s="1"/>
     </row>
     <row r="813" spans="2:4">
-      <c r="B813" s="16"/>
-      <c r="C813" s="17"/>
+      <c r="B813" s="17"/>
+      <c r="C813" s="18"/>
       <c r="D813" s="1"/>
     </row>
     <row r="814" spans="2:4">
-      <c r="B814" s="16"/>
-      <c r="C814" s="17"/>
+      <c r="B814" s="17"/>
+      <c r="C814" s="18"/>
       <c r="D814" s="1"/>
     </row>
     <row r="815" spans="2:4">
-      <c r="B815" s="16"/>
-      <c r="C815" s="17"/>
+      <c r="B815" s="17"/>
+      <c r="C815" s="18"/>
       <c r="D815" s="1"/>
     </row>
     <row r="816" spans="2:4">
-      <c r="B816" s="16"/>
-      <c r="C816" s="17"/>
+      <c r="B816" s="17"/>
+      <c r="C816" s="18"/>
       <c r="D816" s="1"/>
     </row>
     <row r="817" spans="2:4">
-      <c r="B817" s="16"/>
-      <c r="C817" s="17"/>
+      <c r="B817" s="17"/>
+      <c r="C817" s="18"/>
       <c r="D817" s="1"/>
     </row>
     <row r="818" spans="2:4">
-      <c r="B818" s="16"/>
-      <c r="C818" s="17"/>
+      <c r="B818" s="17"/>
+      <c r="C818" s="18"/>
       <c r="D818" s="1"/>
     </row>
     <row r="819" spans="2:4">
-      <c r="B819" s="16"/>
-      <c r="C819" s="17"/>
+      <c r="B819" s="17"/>
+      <c r="C819" s="18"/>
       <c r="D819" s="1"/>
     </row>
     <row r="820" spans="2:4">
-      <c r="B820" s="16"/>
-      <c r="C820" s="17"/>
+      <c r="B820" s="17"/>
+      <c r="C820" s="18"/>
       <c r="D820" s="1"/>
     </row>
     <row r="821" spans="2:4">
-      <c r="B821" s="16"/>
-      <c r="C821" s="17"/>
+      <c r="B821" s="17"/>
+      <c r="C821" s="18"/>
       <c r="D821" s="1"/>
     </row>
     <row r="822" spans="2:4">
-      <c r="B822" s="16"/>
-      <c r="C822" s="17"/>
+      <c r="B822" s="17"/>
+      <c r="C822" s="18"/>
       <c r="D822" s="1"/>
     </row>
     <row r="823" spans="2:4">
-      <c r="B823" s="16"/>
-      <c r="C823" s="17"/>
+      <c r="B823" s="17"/>
+      <c r="C823" s="18"/>
       <c r="D823" s="1"/>
     </row>
     <row r="824" spans="2:4">
-      <c r="B824" s="16"/>
-      <c r="C824" s="17"/>
+      <c r="B824" s="17"/>
+      <c r="C824" s="18"/>
       <c r="D824" s="1"/>
     </row>
     <row r="825" spans="2:4">
-      <c r="B825" s="16"/>
-      <c r="C825" s="17"/>
+      <c r="B825" s="17"/>
+      <c r="C825" s="18"/>
       <c r="D825" s="1"/>
     </row>
     <row r="826" spans="2:4">
-      <c r="B826" s="16"/>
-      <c r="C826" s="17"/>
+      <c r="B826" s="17"/>
+      <c r="C826" s="18"/>
       <c r="D826" s="1"/>
     </row>
     <row r="827" spans="2:4">
-      <c r="B827" s="16"/>
-      <c r="C827" s="17"/>
+      <c r="B827" s="17"/>
+      <c r="C827" s="18"/>
       <c r="D827" s="1"/>
     </row>
     <row r="828" spans="2:4">
-      <c r="B828" s="16"/>
-      <c r="C828" s="17"/>
+      <c r="B828" s="17"/>
+      <c r="C828" s="18"/>
       <c r="D828" s="1"/>
     </row>
     <row r="829" spans="2:4">
-      <c r="B829" s="16"/>
-      <c r="C829" s="17"/>
+      <c r="B829" s="17"/>
+      <c r="C829" s="18"/>
       <c r="D829" s="1"/>
     </row>
     <row r="830" spans="2:4">
-      <c r="B830" s="16"/>
-      <c r="C830" s="17"/>
+      <c r="B830" s="17"/>
+      <c r="C830" s="18"/>
       <c r="D830" s="1"/>
     </row>
     <row r="831" spans="2:4">
-      <c r="B831" s="16"/>
-      <c r="C831" s="17"/>
+      <c r="B831" s="17"/>
+      <c r="C831" s="18"/>
       <c r="D831" s="1"/>
     </row>
     <row r="832" spans="2:4">
-      <c r="B832" s="16"/>
-      <c r="C832" s="17"/>
+      <c r="B832" s="17"/>
+      <c r="C832" s="18"/>
       <c r="D832" s="1"/>
     </row>
     <row r="833" spans="2:4">
-      <c r="B833" s="16"/>
-      <c r="C833" s="17"/>
+      <c r="B833" s="17"/>
+      <c r="C833" s="18"/>
       <c r="D833" s="1"/>
     </row>
     <row r="834" spans="2:4">
-      <c r="B834" s="16"/>
-      <c r="C834" s="17"/>
+      <c r="B834" s="17"/>
+      <c r="C834" s="18"/>
       <c r="D834" s="1"/>
     </row>
     <row r="835" spans="2:4">
-      <c r="B835" s="16"/>
-      <c r="C835" s="17"/>
+      <c r="B835" s="17"/>
+      <c r="C835" s="18"/>
       <c r="D835" s="1"/>
     </row>
     <row r="836" spans="2:4">
-      <c r="B836" s="16"/>
-      <c r="C836" s="17"/>
+      <c r="B836" s="17"/>
+      <c r="C836" s="18"/>
       <c r="D836" s="1"/>
     </row>
     <row r="837" spans="2:4">
-      <c r="B837" s="16"/>
-      <c r="C837" s="17"/>
+      <c r="B837" s="17"/>
+      <c r="C837" s="18"/>
       <c r="D837" s="1"/>
     </row>
     <row r="838" spans="2:4">
-      <c r="B838" s="16"/>
-      <c r="C838" s="17"/>
+      <c r="B838" s="17"/>
+      <c r="C838" s="18"/>
       <c r="D838" s="1"/>
     </row>
     <row r="839" spans="2:4">
-      <c r="B839" s="16"/>
-      <c r="C839" s="17"/>
+      <c r="B839" s="17"/>
+      <c r="C839" s="18"/>
       <c r="D839" s="1"/>
     </row>
     <row r="840" spans="2:4">
-      <c r="B840" s="16"/>
-      <c r="C840" s="17"/>
+      <c r="B840" s="17"/>
+      <c r="C840" s="18"/>
       <c r="D840" s="1"/>
     </row>
     <row r="841" spans="2:4">
-      <c r="B841" s="16"/>
-      <c r="C841" s="17"/>
+      <c r="B841" s="17"/>
+      <c r="C841" s="18"/>
       <c r="D841" s="1"/>
     </row>
     <row r="842" spans="2:4">
-      <c r="B842" s="16"/>
-      <c r="C842" s="17"/>
+      <c r="B842" s="17"/>
+      <c r="C842" s="18"/>
       <c r="D842" s="1"/>
     </row>
     <row r="843" spans="2:4">
-      <c r="B843" s="16"/>
-      <c r="C843" s="17"/>
+      <c r="B843" s="17"/>
+      <c r="C843" s="18"/>
       <c r="D843" s="1"/>
     </row>
     <row r="844" spans="2:4">
-      <c r="B844" s="16"/>
-      <c r="C844" s="17"/>
+      <c r="B844" s="17"/>
+      <c r="C844" s="18"/>
       <c r="D844" s="1"/>
     </row>
     <row r="845" spans="2:4">
-      <c r="B845" s="16"/>
-      <c r="C845" s="17"/>
+      <c r="B845" s="17"/>
+      <c r="C845" s="18"/>
       <c r="D845" s="1"/>
     </row>
     <row r="846" spans="2:4">
-      <c r="B846" s="16"/>
-      <c r="C846" s="17"/>
+      <c r="B846" s="17"/>
+      <c r="C846" s="18"/>
       <c r="D846" s="1"/>
     </row>
     <row r="847" spans="2:4">
-      <c r="B847" s="16"/>
-      <c r="C847" s="17"/>
+      <c r="B847" s="17"/>
+      <c r="C847" s="18"/>
       <c r="D847" s="1"/>
     </row>
     <row r="848" spans="2:4">
-      <c r="B848" s="16"/>
-      <c r="C848" s="17"/>
+      <c r="B848" s="17"/>
+      <c r="C848" s="18"/>
       <c r="D848" s="1"/>
     </row>
     <row r="849" spans="2:4">
-      <c r="B849" s="16"/>
-      <c r="C849" s="17"/>
+      <c r="B849" s="17"/>
+      <c r="C849" s="18"/>
       <c r="D849" s="1"/>
     </row>
     <row r="850" spans="2:4">
-      <c r="B850" s="16"/>
-      <c r="C850" s="17"/>
+      <c r="B850" s="17"/>
+      <c r="C850" s="18"/>
       <c r="D850" s="1"/>
     </row>
     <row r="851" spans="2:4">
-      <c r="B851" s="16"/>
-      <c r="C851" s="17"/>
+      <c r="B851" s="17"/>
+      <c r="C851" s="18"/>
       <c r="D851" s="1"/>
     </row>
     <row r="852" spans="2:4">
-      <c r="B852" s="16"/>
-      <c r="C852" s="17"/>
+      <c r="B852" s="17"/>
+      <c r="C852" s="18"/>
       <c r="D852" s="1"/>
     </row>
     <row r="853" spans="2:4">
-      <c r="B853" s="16"/>
-      <c r="C853" s="17"/>
+      <c r="B853" s="17"/>
+      <c r="C853" s="18"/>
       <c r="D853" s="1"/>
     </row>
     <row r="854" spans="2:4">
-      <c r="B854" s="16"/>
-      <c r="C854" s="17"/>
+      <c r="B854" s="17"/>
+      <c r="C854" s="18"/>
       <c r="D854" s="1"/>
     </row>
     <row r="855" spans="2:4">
-      <c r="B855" s="16"/>
-      <c r="C855" s="17"/>
+      <c r="B855" s="17"/>
+      <c r="C855" s="18"/>
       <c r="D855" s="1"/>
     </row>
     <row r="856" spans="2:4">
-      <c r="B856" s="16"/>
-      <c r="C856" s="17"/>
+      <c r="B856" s="17"/>
+      <c r="C856" s="18"/>
       <c r="D856" s="1"/>
     </row>
     <row r="857" spans="2:4">
-      <c r="B857" s="16"/>
-      <c r="C857" s="17"/>
+      <c r="B857" s="17"/>
+      <c r="C857" s="18"/>
       <c r="D857" s="1"/>
     </row>
     <row r="858" spans="2:4">
-      <c r="B858" s="16"/>
-      <c r="C858" s="17"/>
+      <c r="B858" s="17"/>
+      <c r="C858" s="18"/>
       <c r="D858" s="1"/>
     </row>
     <row r="859" spans="2:4">
-      <c r="B859" s="16"/>
-      <c r="C859" s="17"/>
+      <c r="B859" s="17"/>
+      <c r="C859" s="18"/>
       <c r="D859" s="1"/>
     </row>
     <row r="860" spans="2:4">
-      <c r="B860" s="16"/>
-      <c r="C860" s="17"/>
+      <c r="B860" s="17"/>
+      <c r="C860" s="18"/>
       <c r="D860" s="1"/>
     </row>
     <row r="861" spans="2:4">
-      <c r="B861" s="16"/>
-      <c r="C861" s="17"/>
+      <c r="B861" s="17"/>
+      <c r="C861" s="18"/>
       <c r="D861" s="1"/>
     </row>
     <row r="862" spans="2:4">
-      <c r="B862" s="16"/>
-      <c r="C862" s="17"/>
+      <c r="B862" s="17"/>
+      <c r="C862" s="18"/>
       <c r="D862" s="1"/>
     </row>
     <row r="863" spans="2:4">
-      <c r="B863" s="16"/>
-      <c r="C863" s="17"/>
+      <c r="B863" s="17"/>
+      <c r="C863" s="18"/>
       <c r="D863" s="1"/>
     </row>
     <row r="864" spans="2:4">
-      <c r="B864" s="16"/>
-      <c r="C864" s="17"/>
+      <c r="B864" s="17"/>
+      <c r="C864" s="18"/>
       <c r="D864" s="1"/>
     </row>
     <row r="865" spans="2:4">
-      <c r="B865" s="16"/>
-      <c r="C865" s="17"/>
+      <c r="B865" s="17"/>
+      <c r="C865" s="18"/>
       <c r="D865" s="1"/>
     </row>
     <row r="866" spans="2:4">
-      <c r="B866" s="16"/>
-      <c r="C866" s="17"/>
+      <c r="B866" s="17"/>
+      <c r="C866" s="18"/>
       <c r="D866" s="1"/>
     </row>
     <row r="867" spans="2:4">
-      <c r="B867" s="16"/>
-      <c r="C867" s="17"/>
+      <c r="B867" s="17"/>
+      <c r="C867" s="18"/>
       <c r="D867" s="1"/>
     </row>
     <row r="868" spans="2:4">
-      <c r="B868" s="16"/>
-      <c r="C868" s="17"/>
+      <c r="B868" s="17"/>
+      <c r="C868" s="18"/>
       <c r="D868" s="1"/>
     </row>
     <row r="869" spans="2:4">
-      <c r="B869" s="16"/>
-      <c r="C869" s="17"/>
+      <c r="B869" s="17"/>
+      <c r="C869" s="18"/>
       <c r="D869" s="1"/>
     </row>
     <row r="870" spans="2:4">
-      <c r="B870" s="16"/>
-      <c r="C870" s="17"/>
+      <c r="B870" s="17"/>
+      <c r="C870" s="18"/>
       <c r="D870" s="1"/>
     </row>
     <row r="871" spans="2:4">
-      <c r="B871" s="16"/>
-      <c r="C871" s="17"/>
+      <c r="B871" s="17"/>
+      <c r="C871" s="18"/>
       <c r="D871" s="1"/>
     </row>
     <row r="872" spans="2:4">
-      <c r="B872" s="16"/>
-      <c r="C872" s="17"/>
+      <c r="B872" s="17"/>
+      <c r="C872" s="18"/>
       <c r="D872" s="1"/>
     </row>
     <row r="873" spans="2:4">
-      <c r="B873" s="16"/>
-      <c r="C873" s="17"/>
+      <c r="B873" s="17"/>
+      <c r="C873" s="18"/>
       <c r="D873" s="1"/>
     </row>
     <row r="874" spans="2:4">
-      <c r="B874" s="16"/>
-      <c r="C874" s="17"/>
+      <c r="B874" s="17"/>
+      <c r="C874" s="18"/>
       <c r="D874" s="1"/>
     </row>
     <row r="875" spans="2:4">
-      <c r="B875" s="16"/>
-      <c r="C875" s="17"/>
+      <c r="B875" s="17"/>
+      <c r="C875" s="18"/>
       <c r="D875" s="1"/>
     </row>
     <row r="876" spans="2:4">
-      <c r="B876" s="16"/>
-      <c r="C876" s="17"/>
+      <c r="B876" s="17"/>
+      <c r="C876" s="18"/>
       <c r="D876" s="1"/>
     </row>
     <row r="877" spans="2:4">
-      <c r="B877" s="16"/>
-      <c r="C877" s="17"/>
+      <c r="B877" s="17"/>
+      <c r="C877" s="18"/>
       <c r="D877" s="1"/>
     </row>
     <row r="878" spans="2:4">
-      <c r="B878" s="16"/>
-      <c r="C878" s="17"/>
+      <c r="B878" s="17"/>
+      <c r="C878" s="18"/>
       <c r="D878" s="1"/>
     </row>
     <row r="879" spans="2:4">
-      <c r="B879" s="16"/>
-      <c r="C879" s="17"/>
+      <c r="B879" s="17"/>
+      <c r="C879" s="18"/>
       <c r="D879" s="1"/>
     </row>
     <row r="880" spans="2:4">
-      <c r="B880" s="16"/>
-      <c r="C880" s="17"/>
+      <c r="B880" s="17"/>
+      <c r="C880" s="18"/>
       <c r="D880" s="1"/>
     </row>
     <row r="881" spans="2:4">
-      <c r="B881" s="16"/>
-      <c r="C881" s="17"/>
+      <c r="B881" s="17"/>
+      <c r="C881" s="18"/>
       <c r="D881" s="1"/>
     </row>
     <row r="882" spans="2:4">
-      <c r="B882" s="16"/>
-      <c r="C882" s="17"/>
+      <c r="B882" s="17"/>
+      <c r="C882" s="18"/>
       <c r="D882" s="1"/>
     </row>
     <row r="883" spans="2:4">
-      <c r="B883" s="16"/>
-      <c r="C883" s="17"/>
+      <c r="B883" s="17"/>
+      <c r="C883" s="18"/>
       <c r="D883" s="1"/>
     </row>
     <row r="884" spans="2:4">
-      <c r="B884" s="16"/>
-      <c r="C884" s="17"/>
+      <c r="B884" s="17"/>
+      <c r="C884" s="18"/>
       <c r="D884" s="1"/>
     </row>
     <row r="885" spans="2:4">
-      <c r="B885" s="16"/>
-      <c r="C885" s="17"/>
+      <c r="B885" s="17"/>
+      <c r="C885" s="18"/>
       <c r="D885" s="1"/>
     </row>
     <row r="886" spans="2:4">
-      <c r="B886" s="16"/>
-      <c r="C886" s="17"/>
+      <c r="B886" s="17"/>
+      <c r="C886" s="18"/>
       <c r="D886" s="1"/>
     </row>
     <row r="887" spans="2:4">
-      <c r="B887" s="16"/>
-      <c r="C887" s="17"/>
+      <c r="B887" s="17"/>
+      <c r="C887" s="18"/>
       <c r="D887" s="1"/>
     </row>
     <row r="888" spans="2:4">
-      <c r="B888" s="16"/>
-      <c r="C888" s="17"/>
+      <c r="B888" s="17"/>
+      <c r="C888" s="18"/>
       <c r="D888" s="1"/>
     </row>
     <row r="889" spans="2:4">
-      <c r="B889" s="16"/>
-      <c r="C889" s="17"/>
+      <c r="B889" s="17"/>
+      <c r="C889" s="18"/>
       <c r="D889" s="1"/>
     </row>
     <row r="890" spans="2:4">
-      <c r="B890" s="16"/>
-      <c r="C890" s="17"/>
+      <c r="B890" s="17"/>
+      <c r="C890" s="18"/>
       <c r="D890" s="1"/>
     </row>
     <row r="891" spans="2:4">
-      <c r="B891" s="16"/>
-      <c r="C891" s="17"/>
+      <c r="B891" s="17"/>
+      <c r="C891" s="18"/>
       <c r="D891" s="1"/>
     </row>
     <row r="892" spans="2:4">
-      <c r="B892" s="16"/>
-      <c r="C892" s="17"/>
+      <c r="B892" s="17"/>
+      <c r="C892" s="18"/>
       <c r="D892" s="1"/>
     </row>
     <row r="893" spans="2:4">
-      <c r="B893" s="16"/>
-      <c r="C893" s="17"/>
+      <c r="B893" s="17"/>
+      <c r="C893" s="18"/>
       <c r="D893" s="1"/>
     </row>
     <row r="894" spans="2:4">
-      <c r="B894" s="16"/>
-      <c r="C894" s="17"/>
+      <c r="B894" s="17"/>
+      <c r="C894" s="18"/>
       <c r="D894" s="1"/>
     </row>
     <row r="895" spans="2:4">
-      <c r="B895" s="16"/>
-      <c r="C895" s="17"/>
+      <c r="B895" s="17"/>
+      <c r="C895" s="18"/>
       <c r="D895" s="1"/>
     </row>
     <row r="896" spans="2:4">
-      <c r="B896" s="16"/>
-      <c r="C896" s="17"/>
+      <c r="B896" s="17"/>
+      <c r="C896" s="18"/>
       <c r="D896" s="1"/>
     </row>
     <row r="897" spans="2:4">
-      <c r="B897" s="16"/>
-      <c r="C897" s="17"/>
+      <c r="B897" s="17"/>
+      <c r="C897" s="18"/>
       <c r="D897" s="1"/>
     </row>
     <row r="898" spans="2:4">
-      <c r="B898" s="16"/>
-      <c r="C898" s="17"/>
+      <c r="B898" s="17"/>
+      <c r="C898" s="18"/>
       <c r="D898" s="1"/>
     </row>
     <row r="899" spans="2:4">
-      <c r="B899" s="16"/>
-      <c r="C899" s="17"/>
+      <c r="B899" s="17"/>
+      <c r="C899" s="18"/>
       <c r="D899" s="1"/>
     </row>
     <row r="900" spans="2:4">
-      <c r="B900" s="16"/>
-      <c r="C900" s="17"/>
+      <c r="B900" s="17"/>
+      <c r="C900" s="18"/>
       <c r="D900" s="1"/>
     </row>
     <row r="901" spans="2:4">
-      <c r="B901" s="16"/>
-      <c r="C901" s="17"/>
+      <c r="B901" s="17"/>
+      <c r="C901" s="18"/>
       <c r="D901" s="1"/>
     </row>
     <row r="902" spans="2:4">
-      <c r="B902" s="16"/>
-      <c r="C902" s="17"/>
+      <c r="B902" s="17"/>
+      <c r="C902" s="18"/>
       <c r="D902" s="1"/>
     </row>
     <row r="903" spans="2:4">
-      <c r="B903" s="16"/>
-      <c r="C903" s="17"/>
+      <c r="B903" s="17"/>
+      <c r="C903" s="18"/>
       <c r="D903" s="1"/>
     </row>
     <row r="904" spans="2:4">
-      <c r="B904" s="16"/>
-      <c r="C904" s="17"/>
+      <c r="B904" s="17"/>
+      <c r="C904" s="18"/>
       <c r="D904" s="1"/>
     </row>
     <row r="905" spans="2:4">
-      <c r="B905" s="16"/>
-      <c r="C905" s="17"/>
+      <c r="B905" s="17"/>
+      <c r="C905" s="18"/>
       <c r="D905" s="1"/>
     </row>
     <row r="906" spans="2:4">
-      <c r="B906" s="16"/>
-      <c r="C906" s="17"/>
+      <c r="B906" s="17"/>
+      <c r="C906" s="18"/>
       <c r="D906" s="1"/>
     </row>
     <row r="907" spans="2:4">
-      <c r="B907" s="16"/>
-      <c r="C907" s="17"/>
+      <c r="B907" s="17"/>
+      <c r="C907" s="18"/>
       <c r="D907" s="1"/>
     </row>
     <row r="908" spans="2:4">
-      <c r="B908" s="16"/>
-      <c r="C908" s="17"/>
+      <c r="B908" s="17"/>
+      <c r="C908" s="18"/>
       <c r="D908" s="1"/>
     </row>
     <row r="909" spans="2:4">
-      <c r="B909" s="16"/>
-      <c r="C909" s="17"/>
+      <c r="B909" s="17"/>
+      <c r="C909" s="18"/>
       <c r="D909" s="1"/>
     </row>
     <row r="910" spans="2:4">
-      <c r="B910" s="16"/>
-      <c r="C910" s="17"/>
+      <c r="B910" s="17"/>
+      <c r="C910" s="18"/>
       <c r="D910" s="1"/>
     </row>
     <row r="911" spans="2:4">
-      <c r="B911" s="16"/>
-      <c r="C911" s="17"/>
+      <c r="B911" s="17"/>
+      <c r="C911" s="18"/>
       <c r="D911" s="1"/>
     </row>
     <row r="912" spans="2:4">
-      <c r="B912" s="16"/>
-      <c r="C912" s="17"/>
+      <c r="B912" s="17"/>
+      <c r="C912" s="18"/>
       <c r="D912" s="1"/>
     </row>
     <row r="913" spans="2:4">
-      <c r="B913" s="16"/>
-      <c r="C913" s="17"/>
+      <c r="B913" s="17"/>
+      <c r="C913" s="18"/>
       <c r="D913" s="1"/>
     </row>
     <row r="914" spans="2:4">
-      <c r="B914" s="16"/>
-      <c r="C914" s="17"/>
+      <c r="B914" s="17"/>
+      <c r="C914" s="18"/>
       <c r="D914" s="1"/>
     </row>
     <row r="915" spans="2:4">
-      <c r="B915" s="16"/>
-      <c r="C915" s="17"/>
+      <c r="B915" s="17"/>
+      <c r="C915" s="18"/>
       <c r="D915" s="1"/>
     </row>
     <row r="916" spans="2:4">
-      <c r="B916" s="16"/>
-      <c r="C916" s="17"/>
+      <c r="B916" s="17"/>
+      <c r="C916" s="18"/>
       <c r="D916" s="1"/>
     </row>
     <row r="917" spans="2:4">
-      <c r="B917" s="16"/>
-      <c r="C917" s="17"/>
+      <c r="B917" s="17"/>
+      <c r="C917" s="18"/>
       <c r="D917" s="1"/>
     </row>
     <row r="918" spans="2:4">
-      <c r="B918" s="16"/>
-      <c r="C918" s="17"/>
+      <c r="B918" s="17"/>
+      <c r="C918" s="18"/>
       <c r="D918" s="1"/>
     </row>
     <row r="919" spans="2:4">
-      <c r="B919" s="16"/>
-      <c r="C919" s="17"/>
+      <c r="B919" s="17"/>
+      <c r="C919" s="18"/>
       <c r="D919" s="1"/>
     </row>
     <row r="920" spans="2:4">
-      <c r="B920" s="16"/>
-      <c r="C920" s="17"/>
+      <c r="B920" s="17"/>
+      <c r="C920" s="18"/>
       <c r="D920" s="1"/>
     </row>
     <row r="921" spans="2:4">
-      <c r="B921" s="16"/>
-      <c r="C921" s="17"/>
+      <c r="B921" s="17"/>
+      <c r="C921" s="18"/>
       <c r="D921" s="1"/>
     </row>
     <row r="922" spans="2:4">
-      <c r="B922" s="16"/>
-      <c r="C922" s="17"/>
+      <c r="B922" s="17"/>
+      <c r="C922" s="18"/>
       <c r="D922" s="1"/>
     </row>
     <row r="923" spans="2:4">
-      <c r="B923" s="16"/>
-      <c r="C923" s="17"/>
+      <c r="B923" s="17"/>
+      <c r="C923" s="18"/>
       <c r="D923" s="1"/>
     </row>
     <row r="924" spans="2:4">
-      <c r="B924" s="16"/>
-      <c r="C924" s="17"/>
+      <c r="B924" s="17"/>
+      <c r="C924" s="18"/>
       <c r="D924" s="1"/>
     </row>
     <row r="925" spans="2:4">
-      <c r="B925" s="16"/>
-      <c r="C925" s="17"/>
+      <c r="B925" s="17"/>
+      <c r="C925" s="18"/>
       <c r="D925" s="1"/>
     </row>
     <row r="926" spans="2:4">
-      <c r="B926" s="16"/>
-      <c r="C926" s="17"/>
+      <c r="B926" s="17"/>
+      <c r="C926" s="18"/>
       <c r="D926" s="1"/>
     </row>
     <row r="927" spans="2:4">
-      <c r="B927" s="16"/>
-      <c r="C927" s="17"/>
+      <c r="B927" s="17"/>
+      <c r="C927" s="18"/>
       <c r="D927" s="1"/>
     </row>
     <row r="928" spans="2:4">
-      <c r="B928" s="16"/>
-      <c r="C928" s="17"/>
+      <c r="B928" s="17"/>
+      <c r="C928" s="18"/>
       <c r="D928" s="1"/>
     </row>
     <row r="929" spans="2:4">
-      <c r="B929" s="16"/>
-      <c r="C929" s="17"/>
+      <c r="B929" s="17"/>
+      <c r="C929" s="18"/>
       <c r="D929" s="1"/>
     </row>
     <row r="930" spans="2:4">
-      <c r="B930" s="16"/>
-      <c r="C930" s="17"/>
+      <c r="B930" s="17"/>
+      <c r="C930" s="18"/>
       <c r="D930" s="1"/>
     </row>
     <row r="931" spans="2:4">
-      <c r="B931" s="16"/>
-      <c r="C931" s="17"/>
+      <c r="B931" s="17"/>
+      <c r="C931" s="18"/>
       <c r="D931" s="1"/>
     </row>
     <row r="932" spans="2:4">
-      <c r="B932" s="16"/>
-      <c r="C932" s="17"/>
+      <c r="B932" s="17"/>
+      <c r="C932" s="18"/>
       <c r="D932" s="1"/>
     </row>
     <row r="933" spans="2:4">
-      <c r="B933" s="16"/>
-      <c r="C933" s="17"/>
+      <c r="B933" s="17"/>
+      <c r="C933" s="18"/>
       <c r="D933" s="1"/>
     </row>
     <row r="934" spans="2:4">
-      <c r="B934" s="16"/>
-      <c r="C934" s="17"/>
+      <c r="B934" s="17"/>
+      <c r="C934" s="18"/>
       <c r="D934" s="1"/>
     </row>
     <row r="935" spans="2:4">
-      <c r="B935" s="16"/>
-      <c r="C935" s="17"/>
+      <c r="B935" s="17"/>
+      <c r="C935" s="18"/>
       <c r="D935" s="1"/>
     </row>
     <row r="936" spans="2:4">
-      <c r="B936" s="16"/>
-      <c r="C936" s="17"/>
+      <c r="B936" s="17"/>
+      <c r="C936" s="18"/>
       <c r="D936" s="1"/>
     </row>
     <row r="937" spans="2:4">
-      <c r="B937" s="16"/>
-      <c r="C937" s="17"/>
+      <c r="B937" s="17"/>
+      <c r="C937" s="18"/>
       <c r="D937" s="1"/>
     </row>
     <row r="938" spans="2:4">
-      <c r="B938" s="16"/>
-      <c r="C938" s="17"/>
+      <c r="B938" s="17"/>
+      <c r="C938" s="18"/>
       <c r="D938" s="1"/>
     </row>
     <row r="939" spans="2:4">
-      <c r="B939" s="16"/>
-      <c r="C939" s="17"/>
+      <c r="B939" s="17"/>
+      <c r="C939" s="18"/>
       <c r="D939" s="1"/>
     </row>
     <row r="940" spans="2:4">
-      <c r="B940" s="16"/>
-      <c r="C940" s="17"/>
+      <c r="B940" s="17"/>
+      <c r="C940" s="18"/>
       <c r="D940" s="1"/>
     </row>
     <row r="941" spans="2:4">
-      <c r="B941" s="16"/>
-      <c r="C941" s="17"/>
+      <c r="B941" s="17"/>
+      <c r="C941" s="18"/>
       <c r="D941" s="1"/>
     </row>
     <row r="942" spans="2:4">
-      <c r="B942" s="16"/>
-      <c r="C942" s="17"/>
+      <c r="B942" s="17"/>
+      <c r="C942" s="18"/>
       <c r="D942" s="1"/>
     </row>
     <row r="943" spans="2:4">
-      <c r="B943" s="16"/>
-      <c r="C943" s="17"/>
+      <c r="B943" s="17"/>
+      <c r="C943" s="18"/>
       <c r="D943" s="1"/>
     </row>
     <row r="944" spans="2:4">
-      <c r="B944" s="16"/>
-      <c r="C944" s="17"/>
+      <c r="B944" s="17"/>
+      <c r="C944" s="18"/>
       <c r="D944" s="1"/>
     </row>
     <row r="945" spans="2:4">
-      <c r="B945" s="16"/>
-      <c r="C945" s="17"/>
+      <c r="B945" s="17"/>
+      <c r="C945" s="18"/>
       <c r="D945" s="1"/>
     </row>
     <row r="946" spans="2:4">
-      <c r="B946" s="16"/>
-      <c r="C946" s="17"/>
+      <c r="B946" s="17"/>
+      <c r="C946" s="18"/>
       <c r="D946" s="1"/>
     </row>
     <row r="947" spans="2:4">
-      <c r="B947" s="16"/>
-      <c r="C947" s="17"/>
+      <c r="B947" s="17"/>
+      <c r="C947" s="18"/>
       <c r="D947" s="1"/>
     </row>
     <row r="948" spans="2:4">
-      <c r="B948" s="16"/>
-      <c r="C948" s="17"/>
+      <c r="B948" s="17"/>
+      <c r="C948" s="18"/>
       <c r="D948" s="1"/>
     </row>
     <row r="949" spans="2:4">
-      <c r="B949" s="16"/>
-      <c r="C949" s="17"/>
+      <c r="B949" s="17"/>
+      <c r="C949" s="18"/>
       <c r="D949" s="1"/>
     </row>
     <row r="950" spans="2:4">
-      <c r="B950" s="16"/>
-      <c r="C950" s="17"/>
+      <c r="B950" s="17"/>
+      <c r="C950" s="18"/>
       <c r="D950" s="1"/>
     </row>
     <row r="951" spans="2:4">
-      <c r="B951" s="16"/>
-      <c r="C951" s="17"/>
+      <c r="B951" s="17"/>
+      <c r="C951" s="18"/>
       <c r="D951" s="1"/>
     </row>
     <row r="952" spans="2:4">
-      <c r="B952" s="16"/>
-      <c r="C952" s="17"/>
+      <c r="B952" s="17"/>
+      <c r="C952" s="18"/>
       <c r="D952" s="1"/>
     </row>
     <row r="953" spans="2:4">
-      <c r="B953" s="16"/>
-      <c r="C953" s="17"/>
+      <c r="B953" s="17"/>
+      <c r="C953" s="18"/>
       <c r="D953" s="1"/>
     </row>
     <row r="954" spans="2:4">
-      <c r="B954" s="16"/>
-      <c r="C954" s="17"/>
+      <c r="B954" s="17"/>
+      <c r="C954" s="18"/>
       <c r="D954" s="1"/>
     </row>
     <row r="955" spans="2:4">
-      <c r="B955" s="16"/>
-      <c r="C955" s="17"/>
+      <c r="B955" s="17"/>
+      <c r="C955" s="18"/>
       <c r="D955" s="1"/>
     </row>
     <row r="956" spans="2:4">
-      <c r="B956" s="16"/>
-      <c r="C956" s="17"/>
+      <c r="B956" s="17"/>
+      <c r="C956" s="18"/>
       <c r="D956" s="1"/>
     </row>
     <row r="957" spans="2:4">
-      <c r="B957" s="16"/>
-      <c r="C957" s="17"/>
+      <c r="B957" s="17"/>
+      <c r="C957" s="18"/>
       <c r="D957" s="1"/>
     </row>
     <row r="958" spans="2:4">
-      <c r="B958" s="16"/>
-      <c r="C958" s="17"/>
+      <c r="B958" s="17"/>
+      <c r="C958" s="18"/>
       <c r="D958" s="1"/>
     </row>
     <row r="959" spans="2:4">
-      <c r="B959" s="16"/>
-      <c r="C959" s="17"/>
+      <c r="B959" s="17"/>
+      <c r="C959" s="18"/>
       <c r="D959" s="1"/>
     </row>
     <row r="960" spans="2:4">
-      <c r="B960" s="16"/>
-      <c r="C960" s="17"/>
+      <c r="B960" s="17"/>
+      <c r="C960" s="18"/>
       <c r="D960" s="1"/>
     </row>
     <row r="961" spans="2:4">
-      <c r="B961" s="16"/>
-      <c r="C961" s="17"/>
+      <c r="B961" s="17"/>
+      <c r="C961" s="18"/>
       <c r="D961" s="1"/>
     </row>
     <row r="962" spans="2:4">
-      <c r="B962" s="16"/>
-      <c r="C962" s="17"/>
+      <c r="B962" s="17"/>
+      <c r="C962" s="18"/>
       <c r="D962" s="1"/>
     </row>
     <row r="963" spans="2:4">
-      <c r="B963" s="16"/>
-      <c r="C963" s="17"/>
+      <c r="B963" s="17"/>
+      <c r="C963" s="18"/>
       <c r="D963" s="1"/>
     </row>
     <row r="964" spans="2:4">
-      <c r="B964" s="16"/>
-      <c r="C964" s="17"/>
+      <c r="B964" s="17"/>
+      <c r="C964" s="18"/>
       <c r="D964" s="1"/>
     </row>
     <row r="965" spans="2:4">
-      <c r="B965" s="16"/>
-      <c r="C965" s="17"/>
+      <c r="B965" s="17"/>
+      <c r="C965" s="18"/>
       <c r="D965" s="1"/>
     </row>
     <row r="966" spans="2:4">
-      <c r="B966" s="16"/>
-      <c r="C966" s="17"/>
+      <c r="B966" s="17"/>
+      <c r="C966" s="18"/>
       <c r="D966" s="1"/>
     </row>
     <row r="967" spans="2:4">
-      <c r="B967" s="16"/>
-      <c r="C967" s="17"/>
+      <c r="B967" s="17"/>
+      <c r="C967" s="18"/>
       <c r="D967" s="1"/>
     </row>
     <row r="968" spans="2:4">
-      <c r="B968" s="16"/>
-      <c r="C968" s="17"/>
+      <c r="B968" s="17"/>
+      <c r="C968" s="18"/>
       <c r="D968" s="1"/>
     </row>
     <row r="969" spans="2:4">
-      <c r="B969" s="16"/>
-      <c r="C969" s="17"/>
+      <c r="B969" s="17"/>
+      <c r="C969" s="18"/>
       <c r="D969" s="1"/>
     </row>
     <row r="970" spans="2:4">
-      <c r="B970" s="16"/>
-      <c r="C970" s="17"/>
+      <c r="B970" s="17"/>
+      <c r="C970" s="18"/>
       <c r="D970" s="1"/>
     </row>
     <row r="971" spans="2:4">
-      <c r="B971" s="16"/>
-      <c r="C971" s="17"/>
+      <c r="B971" s="17"/>
+      <c r="C971" s="18"/>
       <c r="D971" s="1"/>
     </row>
     <row r="972" spans="2:4">
-      <c r="B972" s="16"/>
-      <c r="C972" s="17"/>
+      <c r="B972" s="17"/>
+      <c r="C972" s="18"/>
       <c r="D972" s="1"/>
     </row>
     <row r="973" spans="2:4">
-      <c r="B973" s="16"/>
-      <c r="C973" s="17"/>
+      <c r="B973" s="17"/>
+      <c r="C973" s="18"/>
       <c r="D973" s="1"/>
     </row>
     <row r="974" spans="2:4">
-      <c r="B974" s="16"/>
-      <c r="C974" s="17"/>
+      <c r="B974" s="17"/>
+      <c r="C974" s="18"/>
       <c r="D974" s="1"/>
     </row>
     <row r="975" spans="2:4">
-      <c r="B975" s="16"/>
-      <c r="C975" s="17"/>
+      <c r="B975" s="17"/>
+      <c r="C975" s="18"/>
       <c r="D975" s="1"/>
     </row>
     <row r="976" spans="2:4">
-      <c r="B976" s="16"/>
-      <c r="C976" s="17"/>
+      <c r="B976" s="17"/>
+      <c r="C976" s="18"/>
       <c r="D976" s="1"/>
     </row>
     <row r="977" spans="2:4">
-      <c r="B977" s="16"/>
-      <c r="C977" s="17"/>
+      <c r="B977" s="17"/>
+      <c r="C977" s="18"/>
       <c r="D977" s="1"/>
     </row>
     <row r="978" spans="2:4">
-      <c r="B978" s="16"/>
-      <c r="C978" s="17"/>
+      <c r="B978" s="17"/>
+      <c r="C978" s="18"/>
       <c r="D978" s="1"/>
     </row>
     <row r="979" spans="2:4">
-      <c r="B979" s="16"/>
-      <c r="C979" s="17"/>
+      <c r="B979" s="17"/>
+      <c r="C979" s="18"/>
       <c r="D979" s="1"/>
     </row>
     <row r="980" spans="2:4">
-      <c r="B980" s="16"/>
-      <c r="C980" s="17"/>
+      <c r="B980" s="17"/>
+      <c r="C980" s="18"/>
       <c r="D980" s="1"/>
     </row>
     <row r="981" spans="2:4">
-      <c r="B981" s="16"/>
-      <c r="C981" s="17"/>
+      <c r="B981" s="17"/>
+      <c r="C981" s="18"/>
       <c r="D981" s="1"/>
     </row>
     <row r="982" spans="2:4">
-      <c r="B982" s="16"/>
-      <c r="C982" s="17"/>
+      <c r="B982" s="17"/>
+      <c r="C982" s="18"/>
       <c r="D982" s="1"/>
     </row>
     <row r="983" spans="2:4">
-      <c r="B983" s="16"/>
-      <c r="C983" s="17"/>
+      <c r="B983" s="17"/>
+      <c r="C983" s="18"/>
       <c r="D983" s="1"/>
     </row>
     <row r="984" spans="2:4">
-      <c r="B984" s="16"/>
-      <c r="C984" s="17"/>
+      <c r="B984" s="17"/>
+      <c r="C984" s="18"/>
       <c r="D984" s="1"/>
     </row>
     <row r="985" spans="2:4">
-      <c r="B985" s="16"/>
-      <c r="C985" s="17"/>
+      <c r="B985" s="17"/>
+      <c r="C985" s="18"/>
       <c r="D985" s="1"/>
     </row>
     <row r="986" spans="2:4">
-      <c r="B986" s="16"/>
-      <c r="C986" s="17"/>
+      <c r="B986" s="17"/>
+      <c r="C986" s="18"/>
       <c r="D986" s="1"/>
     </row>
     <row r="987" spans="2:4">
-      <c r="B987" s="16"/>
-      <c r="C987" s="17"/>
+      <c r="B987" s="17"/>
+      <c r="C987" s="18"/>
       <c r="D987" s="1"/>
     </row>
     <row r="988" spans="2:4">
-      <c r="B988" s="16"/>
-      <c r="C988" s="17"/>
+      <c r="B988" s="17"/>
+      <c r="C988" s="18"/>
       <c r="D988" s="1"/>
     </row>
     <row r="989" spans="2:4">
-      <c r="B989" s="16"/>
-      <c r="C989" s="17"/>
+      <c r="B989" s="17"/>
+      <c r="C989" s="18"/>
       <c r="D989" s="1"/>
     </row>
     <row r="990" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B990" s="16"/>
-      <c r="C990" s="17"/>
+      <c r="B990" s="17"/>
+      <c r="C990" s="18"/>
       <c r="D990" s="1"/>
     </row>
     <row r="991" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B991" s="16"/>
-      <c r="C991" s="17"/>
+      <c r="B991" s="17"/>
+      <c r="C991" s="18"/>
       <c r="D991" s="1"/>
     </row>
     <row r="992" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B992" s="16"/>
-      <c r="C992" s="17"/>
+      <c r="B992" s="17"/>
+      <c r="C992" s="18"/>
       <c r="D992" s="1"/>
     </row>
     <row r="993" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B993" s="16"/>
-      <c r="C993" s="17"/>
+      <c r="B993" s="17"/>
+      <c r="C993" s="18"/>
       <c r="D993" s="1"/>
     </row>
     <row r="994" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B994" s="16"/>
-      <c r="C994" s="17"/>
+      <c r="B994" s="17"/>
+      <c r="C994" s="18"/>
       <c r="D994" s="1"/>
     </row>
     <row r="995" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B995" s="16"/>
-      <c r="C995" s="17"/>
+      <c r="B995" s="17"/>
+      <c r="C995" s="18"/>
       <c r="D995" s="1"/>
     </row>
     <row r="996" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B996" s="16"/>
-      <c r="C996" s="17"/>
+      <c r="B996" s="17"/>
+      <c r="C996" s="18"/>
       <c r="D996" s="1"/>
     </row>
     <row r="997" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B997" s="16"/>
-      <c r="C997" s="17"/>
+      <c r="B997" s="17"/>
+      <c r="C997" s="18"/>
       <c r="D997" s="1"/>
     </row>
     <row r="998" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B998" s="16"/>
-      <c r="C998" s="17"/>
+      <c r="B998" s="17"/>
+      <c r="C998" s="18"/>
       <c r="D998" s="1"/>
     </row>
     <row r="999" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B999" s="16"/>
-      <c r="C999" s="17"/>
+      <c r="B999" s="17"/>
+      <c r="C999" s="18"/>
       <c r="D999" s="1"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B1000" s="16"/>
-      <c r="C1000" s="17"/>
+      <c r="B1000" s="17"/>
+      <c r="C1000" s="18"/>
       <c r="D1000" s="1"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B1001" s="16"/>
-      <c r="C1001" s="17"/>
+      <c r="B1001" s="17"/>
+      <c r="C1001" s="18"/>
       <c r="D1001" s="1"/>
     </row>
     <row r="1002" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B1002" s="16"/>
-      <c r="C1002" s="17"/>
+      <c r="B1002" s="17"/>
+      <c r="C1002" s="18"/>
       <c r="D1002" s="1"/>
     </row>
     <row r="1003" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B1003" s="16"/>
-      <c r="C1003" s="17"/>
+      <c r="B1003" s="17"/>
+      <c r="C1003" s="18"/>
       <c r="D1003" s="1"/>
     </row>
     <row r="1004" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B1004" s="16"/>
-      <c r="C1004" s="17"/>
+      <c r="B1004" s="17"/>
+      <c r="C1004" s="18"/>
       <c r="D1004" s="1"/>
     </row>
     <row r="1005" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B1005" s="16"/>
-      <c r="C1005" s="17"/>
+      <c r="B1005" s="17"/>
+      <c r="C1005" s="18"/>
       <c r="D1005" s="1"/>
     </row>
     <row r="1006" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B1006" s="16"/>
-      <c r="C1006" s="17"/>
+      <c r="B1006" s="17"/>
+      <c r="C1006" s="18"/>
       <c r="D1006" s="1"/>
     </row>
     <row r="1007" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B1007" s="16"/>
-      <c r="C1007" s="17"/>
+      <c r="B1007" s="17"/>
+      <c r="C1007" s="18"/>
       <c r="D1007" s="1"/>
     </row>
-    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1" spans="2:4">
+      <c r="B1008" s="17"/>
+      <c r="C1008" s="18"/>
+      <c r="D1008" s="1"/>
+    </row>
     <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
